--- a/actual_data.xlsx
+++ b/actual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michigantech-my.sharepoint.com/personal/tmbarnes_mtu_edu/Documents/PhD/Chapter1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="552" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFFF55C-43AA-4A1F-8975-15498991DC59}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B479F1C8-2F16-4A38-8D15-9430519095C8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3550" yWindow="600" windowWidth="14400" windowHeight="7270" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
   </bookViews>
   <sheets>
     <sheet name="actual_data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="38">
   <si>
     <t>site</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Mass  C Adit</t>
+  </si>
+  <si>
+    <t>Keel Ridge Mine</t>
   </si>
 </sst>
 </file>
@@ -627,12 +630,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1012,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1A3417-2E4A-4A3D-A021-85D92EBEF949}">
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,6 +1031,7 @@
     <col min="10" max="10" width="10.81640625" customWidth="1"/>
     <col min="11" max="11" width="11.453125" customWidth="1"/>
     <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -6205,7 +6210,7 @@
         <v>19</v>
       </c>
       <c r="G153">
-        <f t="shared" ref="G153:G196" si="6">(F153-I153)/(J153-I153)</f>
+        <f t="shared" ref="G153:G213" si="6">(F153-I153)/(J153-I153)</f>
         <v>0</v>
       </c>
       <c r="H153">
@@ -7601,7 +7606,7 @@
         <v>4.2592592592592604</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>4.2592592592592604</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>4.2592592592592604</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -7709,7 +7714,7 @@
         <v>4.2592592592592604</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -7743,6 +7748,633 @@
       </c>
       <c r="M196">
         <v>4.2592592592592604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197">
+        <v>1996</v>
+      </c>
+      <c r="F197">
+        <v>242</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="6"/>
+        <v>0.79762611275964401</v>
+      </c>
+      <c r="H197">
+        <v>1996</v>
+      </c>
+      <c r="I197">
+        <v>18</v>
+      </c>
+      <c r="J197">
+        <v>298.83333333333331</v>
+      </c>
+      <c r="K197">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L197">
+        <v>2024</v>
+      </c>
+      <c r="M197">
+        <v>7.2222222222222197</v>
+      </c>
+      <c r="N197" s="3">
+        <v>35069</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198">
+        <v>2004</v>
+      </c>
+      <c r="F198">
+        <v>393</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="6"/>
+        <v>1.3353115727002969</v>
+      </c>
+      <c r="H198">
+        <v>2005</v>
+      </c>
+      <c r="I198">
+        <v>18</v>
+      </c>
+      <c r="J198">
+        <v>298.83333333333331</v>
+      </c>
+      <c r="K198">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L198">
+        <v>2024</v>
+      </c>
+      <c r="M198">
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="N198" s="3">
+        <v>38350</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199">
+        <v>2007</v>
+      </c>
+      <c r="F199">
+        <v>267</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="6"/>
+        <v>0.8866468842729982</v>
+      </c>
+      <c r="H199">
+        <v>2007</v>
+      </c>
+      <c r="I199">
+        <v>18</v>
+      </c>
+      <c r="J199">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K199">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L199">
+        <v>2024</v>
+      </c>
+      <c r="M199">
+        <v>7.5</v>
+      </c>
+      <c r="N199" s="3">
+        <v>39165</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200">
+        <v>2009</v>
+      </c>
+      <c r="F200">
+        <v>203</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="6"/>
+        <v>0.65875370919881393</v>
+      </c>
+      <c r="H200">
+        <v>2009</v>
+      </c>
+      <c r="I200">
+        <v>18</v>
+      </c>
+      <c r="J200">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K200">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L200">
+        <v>2024</v>
+      </c>
+      <c r="M200">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N200" s="3">
+        <v>39893</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>37</v>
+      </c>
+      <c r="D201">
+        <v>2009</v>
+      </c>
+      <c r="F201">
+        <v>275</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="6"/>
+        <v>0.91513353115727125</v>
+      </c>
+      <c r="H201">
+        <v>2010</v>
+      </c>
+      <c r="I201">
+        <v>18</v>
+      </c>
+      <c r="J201">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K201">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L201">
+        <v>2024</v>
+      </c>
+      <c r="M201">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N201" s="3">
+        <v>40131</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202">
+        <v>2010</v>
+      </c>
+      <c r="F202">
+        <v>290</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="6"/>
+        <v>0.96854599406528319</v>
+      </c>
+      <c r="H202">
+        <v>2010</v>
+      </c>
+      <c r="I202">
+        <v>18</v>
+      </c>
+      <c r="J202">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K202">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L202">
+        <v>2024</v>
+      </c>
+      <c r="M202">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N202" s="3">
+        <v>40264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203">
+        <v>2010</v>
+      </c>
+      <c r="F203">
+        <v>324</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="6"/>
+        <v>1.0896142433234435</v>
+      </c>
+      <c r="H203">
+        <v>2011</v>
+      </c>
+      <c r="I203">
+        <v>18</v>
+      </c>
+      <c r="J203">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K203">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L203">
+        <v>2024</v>
+      </c>
+      <c r="M203">
+        <v>9</v>
+      </c>
+      <c r="N203" s="3">
+        <v>40488</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204">
+        <v>2011</v>
+      </c>
+      <c r="F204">
+        <v>262</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="6"/>
+        <v>0.86884272997032752</v>
+      </c>
+      <c r="H204">
+        <v>2011</v>
+      </c>
+      <c r="I204">
+        <v>18</v>
+      </c>
+      <c r="J204">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K204">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L204">
+        <v>2024</v>
+      </c>
+      <c r="M204">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N204" s="3">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205">
+        <v>2013</v>
+      </c>
+      <c r="F205">
+        <v>222</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="6"/>
+        <v>0.72640949554896239</v>
+      </c>
+      <c r="H205">
+        <v>2013</v>
+      </c>
+      <c r="I205">
+        <v>18</v>
+      </c>
+      <c r="J205">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K205">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L205">
+        <v>2024</v>
+      </c>
+      <c r="M205">
+        <v>8.6388888888888893</v>
+      </c>
+      <c r="N205" s="3">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>37</v>
+      </c>
+      <c r="D206">
+        <v>2014</v>
+      </c>
+      <c r="F206">
+        <v>300</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="6"/>
+        <v>1.0041543026706243</v>
+      </c>
+      <c r="H206">
+        <v>2014</v>
+      </c>
+      <c r="I206">
+        <v>18</v>
+      </c>
+      <c r="J206">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K206">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L206">
+        <v>2024</v>
+      </c>
+      <c r="M206">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N206" s="3">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207">
+        <v>2015</v>
+      </c>
+      <c r="F207">
+        <v>587</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="6"/>
+        <v>2.0261127596439197</v>
+      </c>
+      <c r="H207">
+        <v>2015</v>
+      </c>
+      <c r="I207">
+        <v>18</v>
+      </c>
+      <c r="J207">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K207">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L207">
+        <v>2024</v>
+      </c>
+      <c r="M207">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N207" s="3">
+        <v>42057</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208">
+        <v>2016</v>
+      </c>
+      <c r="F208">
+        <v>221</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="6"/>
+        <v>0.72284866468842823</v>
+      </c>
+      <c r="H208">
+        <v>2016</v>
+      </c>
+      <c r="I208">
+        <v>18</v>
+      </c>
+      <c r="J208">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K208">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L208">
+        <v>2024</v>
+      </c>
+      <c r="M208">
+        <v>8.0555555555555607</v>
+      </c>
+      <c r="N208" s="3">
+        <v>42420</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209">
+        <v>2017</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>45</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="6"/>
+        <v>9.6142433234421482E-2</v>
+      </c>
+      <c r="H209">
+        <v>2017</v>
+      </c>
+      <c r="I209">
+        <v>18</v>
+      </c>
+      <c r="J209">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K209">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L209">
+        <v>2024</v>
+      </c>
+      <c r="M209">
+        <v>8.25</v>
+      </c>
+      <c r="N209" s="3">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210">
+        <v>2019</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>103</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="6"/>
+        <v>0.302670623145401</v>
+      </c>
+      <c r="H210">
+        <v>2019</v>
+      </c>
+      <c r="I210">
+        <v>18</v>
+      </c>
+      <c r="J210">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K210">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L210">
+        <v>2024</v>
+      </c>
+      <c r="M210">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N210" s="3">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211">
+        <v>2021</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211">
+        <v>107</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="6"/>
+        <v>0.31691394658753752</v>
+      </c>
+      <c r="H211">
+        <v>2021</v>
+      </c>
+      <c r="I211">
+        <v>18</v>
+      </c>
+      <c r="J211">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K211">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L211">
+        <v>2024</v>
+      </c>
+      <c r="M211">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N211" s="3">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212">
+        <v>2023</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212">
+        <v>30</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="6"/>
+        <v>4.2729970326409551E-2</v>
+      </c>
+      <c r="H212">
+        <v>2023</v>
+      </c>
+      <c r="I212">
+        <v>18</v>
+      </c>
+      <c r="J212">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K212">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L212">
+        <v>2024</v>
+      </c>
+      <c r="M212">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="N212" s="3">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>37</v>
+      </c>
+      <c r="D213">
+        <v>2024</v>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+      <c r="F213">
+        <v>18</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>2024</v>
+      </c>
+      <c r="I213">
+        <v>18</v>
+      </c>
+      <c r="J213">
+        <v>298.83333333333297</v>
+      </c>
+      <c r="K213">
+        <v>7.9756944444444402</v>
+      </c>
+      <c r="L213">
+        <v>2024</v>
+      </c>
+      <c r="M213">
+        <v>6.25</v>
+      </c>
+      <c r="N213" s="3">
+        <v>45394</v>
       </c>
     </row>
   </sheetData>

--- a/actual_data.xlsx
+++ b/actual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michigantech-my.sharepoint.com/personal/tmbarnes_mtu_edu/Documents/PhD/Chapter1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="598" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B479F1C8-2F16-4A38-8D15-9430519095C8}"/>
+  <xr:revisionPtr revIDLastSave="744" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E8FDB3-0721-4BAC-8B00-B73792815FBA}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
   </bookViews>
   <sheets>
     <sheet name="actual_data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="44">
   <si>
     <t>site</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Keel Ridge Mine</t>
+  </si>
+  <si>
+    <t>North Cliff Mine (Shaft #3?)</t>
+  </si>
+  <si>
+    <t>Quincy Mine Adit</t>
+  </si>
+  <si>
+    <t>Silver Mountain Mine</t>
+  </si>
+  <si>
+    <t>South Bluff East Adit</t>
+  </si>
+  <si>
+    <t>Young's Adit</t>
+  </si>
+  <si>
+    <t>decrease_year</t>
   </si>
 </sst>
 </file>
@@ -630,13 +648,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -693,10 +710,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1A3417-2E4A-4A3D-A021-85D92EBEF949}">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="L250" sqref="L250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,7 +1047,7 @@
     <col min="14" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="M1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1104,8 +1120,11 @@
       <c r="L2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1134,8 +1153,11 @@
       <c r="L3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1164,8 +1186,11 @@
       <c r="L4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1228,11 @@
       <c r="L5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1242,8 +1270,11 @@
       <c r="L6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1281,8 +1312,11 @@
       <c r="L7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1311,8 +1345,11 @@
       <c r="L8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1341,8 +1378,11 @@
       <c r="L9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1371,8 +1411,11 @@
       <c r="L10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1401,8 +1444,11 @@
       <c r="L11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1440,8 +1486,11 @@
       <c r="L12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1479,8 +1528,11 @@
       <c r="L13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1509,8 +1561,11 @@
       <c r="L14">
         <v>2015</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1539,8 +1594,11 @@
       <c r="L15">
         <v>2015</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="L16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1611,8 +1672,11 @@
       <c r="L17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1650,8 +1714,11 @@
       <c r="L18">
         <v>2015</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +1747,11 @@
       <c r="L19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1710,8 +1780,11 @@
       <c r="L20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1740,8 +1813,11 @@
       <c r="L21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1770,8 +1846,11 @@
       <c r="L22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1800,8 +1879,11 @@
       <c r="L23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1839,8 +1921,11 @@
       <c r="L24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1878,8 +1963,11 @@
       <c r="L25">
         <v>2020</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1917,8 +2005,11 @@
       <c r="L26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +2038,11 @@
       <c r="L27">
         <v>2017</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1977,8 +2071,11 @@
       <c r="L28">
         <v>2017</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2016,8 +2113,11 @@
       <c r="L29">
         <v>2017</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2055,8 +2155,11 @@
       <c r="L30">
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2094,8 +2197,11 @@
       <c r="L31">
         <v>2017</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2124,8 +2230,11 @@
       <c r="L32">
         <v>2018</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2154,8 +2263,11 @@
       <c r="L33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2184,8 +2296,11 @@
       <c r="L34">
         <v>2018</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2214,8 +2329,11 @@
       <c r="L35">
         <v>2018</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2244,8 +2362,11 @@
       <c r="L36">
         <v>2018</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2277,8 +2398,11 @@
       <c r="L37">
         <v>2018</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2310,8 +2434,11 @@
       <c r="L38">
         <v>2018</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2349,8 +2476,11 @@
       <c r="L39">
         <v>2018</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2388,8 +2518,11 @@
       <c r="L40">
         <v>2018</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +2560,11 @@
       <c r="L41">
         <v>2018</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2466,8 +2602,11 @@
       <c r="L42">
         <v>2018</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2505,8 +2644,11 @@
       <c r="L43">
         <v>2018</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2544,8 +2686,11 @@
       <c r="L44">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2575,8 +2720,11 @@
       <c r="L45">
         <v>2019</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N45">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2606,8 +2754,11 @@
       <c r="L46">
         <v>2019</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N46">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2637,8 +2788,11 @@
       <c r="L47">
         <v>2019</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N47">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2668,8 +2822,11 @@
       <c r="L48">
         <v>2019</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N48">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2699,8 +2856,11 @@
       <c r="L49">
         <v>2019</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N49">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2730,8 +2890,11 @@
       <c r="L50">
         <v>2019</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N50">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2764,8 +2927,11 @@
       <c r="L51">
         <v>2019</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N51">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2798,8 +2964,11 @@
       <c r="L52">
         <v>2019</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N52">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2837,8 +3006,11 @@
       <c r="L53">
         <v>2019</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N53">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2876,8 +3048,11 @@
       <c r="L54">
         <v>2019</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N54">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2906,8 +3081,11 @@
       <c r="L55">
         <v>2020</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N55">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2936,8 +3114,11 @@
       <c r="L56">
         <v>2020</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2966,8 +3147,11 @@
       <c r="L57">
         <v>2020</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N57">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2996,8 +3180,11 @@
       <c r="L58">
         <v>2020</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N58">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3026,8 +3213,11 @@
       <c r="L59">
         <v>2020</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N59">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3065,8 +3255,11 @@
       <c r="L60">
         <v>2020</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N60">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3104,8 +3297,11 @@
       <c r="L61">
         <v>2020</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3143,8 +3339,11 @@
       <c r="L62">
         <v>2020</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N62">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3182,8 +3381,11 @@
       <c r="L63">
         <v>2020</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N63">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3212,8 +3414,11 @@
       <c r="L64">
         <v>2019</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N64">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3242,8 +3447,11 @@
       <c r="L65">
         <v>2019</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3275,8 +3483,11 @@
       <c r="L66">
         <v>2019</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N66">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3314,8 +3525,11 @@
       <c r="L67">
         <v>2019</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N67">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3353,8 +3567,11 @@
       <c r="L68">
         <v>2019</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N68">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -3383,8 +3600,11 @@
       <c r="L69">
         <v>2017</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -3413,8 +3633,11 @@
       <c r="L70">
         <v>2017</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -3443,8 +3666,11 @@
       <c r="L71">
         <v>2017</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -3473,8 +3699,11 @@
       <c r="L72">
         <v>2017</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -3503,8 +3732,11 @@
       <c r="L73">
         <v>2017</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3533,8 +3765,11 @@
       <c r="L74">
         <v>2017</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -3563,8 +3798,11 @@
       <c r="L75">
         <v>2017</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -3593,8 +3831,11 @@
       <c r="L76">
         <v>2017</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -3632,8 +3873,11 @@
       <c r="L77">
         <v>2017</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -3671,8 +3915,11 @@
       <c r="L78">
         <v>2017</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3710,8 +3957,11 @@
       <c r="L79">
         <v>2017</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N79">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -3740,8 +3990,11 @@
       <c r="L80">
         <v>2017</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3770,8 +4023,11 @@
       <c r="L81">
         <v>2017</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N81">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3809,8 +4065,11 @@
       <c r="L82">
         <v>2017</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3848,8 +4107,11 @@
       <c r="L83">
         <v>2017</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3887,8 +4149,11 @@
       <c r="L84">
         <v>2017</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -3926,8 +4191,11 @@
       <c r="L85">
         <v>2017</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N85">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -3957,8 +4225,11 @@
       <c r="L86">
         <v>2017</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -3988,8 +4259,11 @@
       <c r="L87">
         <v>2017</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -4019,8 +4293,11 @@
       <c r="L88">
         <v>2017</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N88">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -4058,8 +4335,11 @@
       <c r="L89">
         <v>2017</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -4097,8 +4377,11 @@
       <c r="L90">
         <v>2017</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -4127,8 +4410,11 @@
       <c r="L91">
         <v>2017</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -4157,8 +4443,11 @@
       <c r="L92">
         <v>2017</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N92">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -4187,8 +4476,11 @@
       <c r="L93">
         <v>2017</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N93">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -4217,8 +4509,11 @@
       <c r="L94">
         <v>2017</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N94">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -4247,8 +4542,11 @@
       <c r="L95">
         <v>2017</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N95">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4277,8 +4575,11 @@
       <c r="L96">
         <v>2017</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4307,8 +4608,11 @@
       <c r="L97">
         <v>2017</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -4337,8 +4641,11 @@
       <c r="L98">
         <v>2017</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -4376,8 +4683,11 @@
       <c r="L99">
         <v>2017</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -4415,8 +4725,11 @@
       <c r="L100">
         <v>2017</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -4454,8 +4767,11 @@
       <c r="L101">
         <v>2017</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -4493,8 +4809,11 @@
       <c r="L102">
         <v>2017</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4532,8 +4851,11 @@
       <c r="L103">
         <v>2017</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -4571,8 +4893,11 @@
       <c r="L104">
         <v>2017</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -4610,8 +4935,11 @@
       <c r="L105">
         <v>2017</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -4649,8 +4977,11 @@
       <c r="L106">
         <v>2017</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -4679,8 +5010,11 @@
       <c r="L107">
         <v>2018</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N107">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4709,8 +5043,11 @@
       <c r="L108">
         <v>2018</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N108">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4739,8 +5076,11 @@
       <c r="L109">
         <v>2018</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N109">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -4769,8 +5109,11 @@
       <c r="L110">
         <v>2018</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N110">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -4808,8 +5151,11 @@
       <c r="L111">
         <v>2018</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N111">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -4847,8 +5193,11 @@
       <c r="L112">
         <v>2018</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N112">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -4886,8 +5235,11 @@
       <c r="L113">
         <v>2018</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N113">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -4925,8 +5277,11 @@
       <c r="L114">
         <v>2018</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N114">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4956,8 +5311,11 @@
       <c r="L115">
         <v>2019</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N115">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -4987,8 +5345,11 @@
       <c r="L116">
         <v>2019</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N116">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -5018,8 +5379,11 @@
       <c r="L117">
         <v>2019</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N117">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -5049,8 +5413,11 @@
       <c r="L118">
         <v>2019</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N118">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -5088,8 +5455,11 @@
       <c r="L119">
         <v>2019</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N119">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -5127,8 +5497,11 @@
       <c r="L120">
         <v>2019</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N120">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -5157,8 +5530,11 @@
       <c r="L121">
         <v>2017</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N121">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -5187,8 +5563,11 @@
       <c r="L122">
         <v>2017</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N122">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -5226,8 +5605,11 @@
       <c r="L123">
         <v>2017</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -5265,8 +5647,11 @@
       <c r="L124">
         <v>2017</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N124">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -5304,8 +5689,11 @@
       <c r="L125">
         <v>2017</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N125">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -5334,8 +5722,11 @@
       <c r="L126">
         <v>2017</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N126">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -5364,8 +5755,11 @@
       <c r="L127">
         <v>2017</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N127">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -5394,8 +5788,11 @@
       <c r="L128">
         <v>2017</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N128">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -5424,8 +5821,11 @@
       <c r="L129">
         <v>2017</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N129">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -5454,8 +5854,11 @@
       <c r="L130">
         <v>2017</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -5493,8 +5896,11 @@
       <c r="L131">
         <v>2017</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -5532,8 +5938,11 @@
       <c r="L132">
         <v>2017</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -5562,8 +5971,11 @@
       <c r="L133">
         <v>2021</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N133">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -5592,8 +6004,11 @@
       <c r="L134">
         <v>2021</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N134">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -5622,8 +6037,11 @@
       <c r="L135">
         <v>2021</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N135">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -5652,8 +6070,11 @@
       <c r="L136">
         <v>2021</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N136">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -5682,8 +6103,11 @@
       <c r="L137">
         <v>2021</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N137">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -5712,8 +6136,11 @@
       <c r="L138">
         <v>2021</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N138">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -5742,8 +6169,11 @@
       <c r="L139">
         <v>2021</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N139">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -5772,8 +6202,11 @@
       <c r="L140">
         <v>2021</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N140">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -5802,8 +6235,11 @@
       <c r="L141">
         <v>2021</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N141">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -5841,8 +6277,11 @@
       <c r="L142">
         <v>2021</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N142">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -5880,8 +6319,11 @@
       <c r="L143">
         <v>2021</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N143">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -5919,8 +6361,11 @@
       <c r="L144">
         <v>2021</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N144">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -5958,8 +6403,11 @@
       <c r="L145">
         <v>2021</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N145">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -5997,8 +6445,11 @@
       <c r="L146">
         <v>2021</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N146">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -6036,8 +6487,11 @@
       <c r="L147">
         <v>2021</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N147">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -6066,8 +6520,11 @@
       <c r="L148">
         <v>2020</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N148">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -6096,8 +6553,11 @@
       <c r="L149">
         <v>2020</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N149">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -6126,8 +6586,11 @@
       <c r="L150">
         <v>2020</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N150">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -6156,8 +6619,11 @@
       <c r="L151">
         <v>2020</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N151">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -6189,8 +6655,11 @@
       <c r="L152">
         <v>2020</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N152">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -6210,7 +6679,7 @@
         <v>19</v>
       </c>
       <c r="G153">
-        <f t="shared" ref="G153:G213" si="6">(F153-I153)/(J153-I153)</f>
+        <f t="shared" ref="G153:G217" si="6">(F153-I153)/(J153-I153)</f>
         <v>0</v>
       </c>
       <c r="H153">
@@ -6228,8 +6697,11 @@
       <c r="L153">
         <v>2020</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N153">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -6267,8 +6739,11 @@
       <c r="L154">
         <v>2020</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N154">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -6306,8 +6781,11 @@
       <c r="L155">
         <v>2020</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N155">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -6345,8 +6823,11 @@
       <c r="L156">
         <v>2020</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N156">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -6384,8 +6865,11 @@
       <c r="L157">
         <v>2020</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N157">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -6423,8 +6907,11 @@
       <c r="L158">
         <v>2010</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N158">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>25</v>
       </c>
@@ -6462,8 +6949,11 @@
       <c r="L159">
         <v>2010</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N159">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>25</v>
       </c>
@@ -6501,8 +6991,11 @@
       <c r="L160">
         <v>2010</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N160">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>25</v>
       </c>
@@ -6540,8 +7033,11 @@
       <c r="L161">
         <v>2010</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N161">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -6579,8 +7075,11 @@
       <c r="L162">
         <v>2010</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N162">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>25</v>
       </c>
@@ -6618,8 +7117,11 @@
       <c r="L163">
         <v>2010</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N163">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>25</v>
       </c>
@@ -6657,8 +7159,11 @@
       <c r="L164">
         <v>2010</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N164">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -6687,8 +7192,11 @@
       <c r="L165">
         <v>2017</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -6717,8 +7225,11 @@
       <c r="L166">
         <v>2017</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -6747,8 +7258,11 @@
       <c r="L167">
         <v>2017</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -6777,8 +7291,11 @@
       <c r="L168">
         <v>2017</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -6807,8 +7324,11 @@
       <c r="L169">
         <v>2017</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -6837,8 +7357,11 @@
       <c r="L170">
         <v>2017</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -6876,8 +7399,11 @@
       <c r="L171">
         <v>2017</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -6915,8 +7441,11 @@
       <c r="L172">
         <v>2017</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -6954,8 +7483,11 @@
       <c r="L173">
         <v>2017</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>33</v>
       </c>
@@ -6987,8 +7519,11 @@
       <c r="M174">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N174">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>33</v>
       </c>
@@ -7020,8 +7555,11 @@
       <c r="M175">
         <v>5.8888888888888902</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N175">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>33</v>
       </c>
@@ -7053,8 +7591,11 @@
       <c r="M176">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N176">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>33</v>
       </c>
@@ -7086,8 +7627,11 @@
       <c r="M177">
         <v>6.7777777777777803</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N177">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -7119,8 +7663,11 @@
       <c r="M178">
         <v>6.68333333333333</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N178">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>33</v>
       </c>
@@ -7152,8 +7699,11 @@
       <c r="M179">
         <v>6.68333333333333</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N179">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>33</v>
       </c>
@@ -7188,8 +7738,11 @@
       <c r="M180">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N180">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>33</v>
       </c>
@@ -7224,8 +7777,11 @@
       <c r="M181">
         <v>6.68333333333333</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N181">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -7257,8 +7813,11 @@
       <c r="M182">
         <v>3.7777777777777799</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -7293,8 +7852,11 @@
       <c r="M183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -7329,8 +7891,11 @@
       <c r="M184">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -7365,8 +7930,11 @@
       <c r="M185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -7401,8 +7969,11 @@
       <c r="M186">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N186">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -7434,8 +8005,11 @@
       <c r="M187">
         <v>2.7777777777777799</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N187">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -7467,8 +8041,11 @@
       <c r="M188">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N188">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -7500,8 +8077,11 @@
       <c r="M189">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N189">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -7533,8 +8113,11 @@
       <c r="M190">
         <v>4.2592592592592604</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N190">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -7569,8 +8152,11 @@
       <c r="M191">
         <v>4.2592592592592604</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N191">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -7605,6 +8191,9 @@
       <c r="M192">
         <v>4.2592592592592604</v>
       </c>
+      <c r="N192">
+        <v>2020</v>
+      </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
@@ -7641,6 +8230,9 @@
       <c r="M193">
         <v>4.2592592592592604</v>
       </c>
+      <c r="N193">
+        <v>2020</v>
+      </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
@@ -7677,6 +8269,9 @@
       <c r="M194">
         <v>4.2592592592592604</v>
       </c>
+      <c r="N194">
+        <v>2020</v>
+      </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
@@ -7713,6 +8308,9 @@
       <c r="M195">
         <v>4.2592592592592604</v>
       </c>
+      <c r="N195">
+        <v>2020</v>
+      </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
@@ -7749,6 +8347,9 @@
       <c r="M196">
         <v>4.2592592592592604</v>
       </c>
+      <c r="N196">
+        <v>2020</v>
+      </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
@@ -7782,8 +8383,8 @@
       <c r="M197">
         <v>7.2222222222222197</v>
       </c>
-      <c r="N197" s="3">
-        <v>35069</v>
+      <c r="N197">
+        <v>2017</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
@@ -7818,8 +8419,8 @@
       <c r="M198">
         <v>8.8888888888888893</v>
       </c>
-      <c r="N198" s="3">
-        <v>38350</v>
+      <c r="N198">
+        <v>2017</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
@@ -7854,8 +8455,8 @@
       <c r="M199">
         <v>7.5</v>
       </c>
-      <c r="N199" s="3">
-        <v>39165</v>
+      <c r="N199">
+        <v>2017</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
@@ -7890,8 +8491,8 @@
       <c r="M200">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N200" s="3">
-        <v>39893</v>
+      <c r="N200">
+        <v>2017</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -7926,8 +8527,8 @@
       <c r="M201">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N201" s="3">
-        <v>40131</v>
+      <c r="N201">
+        <v>2017</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
@@ -7962,8 +8563,8 @@
       <c r="M202">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N202" s="3">
-        <v>40264</v>
+      <c r="N202">
+        <v>2017</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
@@ -7998,8 +8599,8 @@
       <c r="M203">
         <v>9</v>
       </c>
-      <c r="N203" s="3">
-        <v>40488</v>
+      <c r="N203">
+        <v>2017</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
@@ -8034,8 +8635,8 @@
       <c r="M204">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N204" s="3">
-        <v>40628</v>
+      <c r="N204">
+        <v>2017</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
@@ -8070,8 +8671,8 @@
       <c r="M205">
         <v>8.6388888888888893</v>
       </c>
-      <c r="N205" s="3">
-        <v>41348</v>
+      <c r="N205">
+        <v>2017</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -8106,8 +8707,8 @@
       <c r="M206">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N206" s="3">
-        <v>41694</v>
+      <c r="N206">
+        <v>2017</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
@@ -8142,8 +8743,8 @@
       <c r="M207">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N207" s="3">
-        <v>42057</v>
+      <c r="N207">
+        <v>2017</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
@@ -8178,8 +8779,8 @@
       <c r="M208">
         <v>8.0555555555555607</v>
       </c>
-      <c r="N208" s="3">
-        <v>42420</v>
+      <c r="N208">
+        <v>2017</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
@@ -8217,8 +8818,8 @@
       <c r="M209">
         <v>8.25</v>
       </c>
-      <c r="N209" s="3">
-        <v>42777</v>
+      <c r="N209">
+        <v>2017</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
@@ -8256,8 +8857,8 @@
       <c r="M210">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N210" s="3">
-        <v>43479</v>
+      <c r="N210">
+        <v>2017</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -8295,8 +8896,8 @@
       <c r="M211">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N211" s="3">
-        <v>44258</v>
+      <c r="N211">
+        <v>2017</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
@@ -8334,8 +8935,8 @@
       <c r="M212">
         <v>7.9756944444444402</v>
       </c>
-      <c r="N212" s="3">
-        <v>45028</v>
+      <c r="N212">
+        <v>2017</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
@@ -8373,8 +8974,1170 @@
       <c r="M213">
         <v>6.25</v>
       </c>
-      <c r="N213" s="3">
-        <v>45394</v>
+      <c r="N213">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214">
+        <v>1996</v>
+      </c>
+      <c r="F214">
+        <v>2958</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>1996</v>
+      </c>
+      <c r="I214">
+        <v>26</v>
+      </c>
+      <c r="J214">
+        <v>2958</v>
+      </c>
+      <c r="K214">
+        <v>6.37777777777778</v>
+      </c>
+      <c r="L214">
+        <v>2024</v>
+      </c>
+      <c r="M214">
+        <v>8.0555555555555607</v>
+      </c>
+      <c r="N214">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215">
+        <v>2016</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>29</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="6"/>
+        <v>1.0231923601637107E-3</v>
+      </c>
+      <c r="H215">
+        <v>2016</v>
+      </c>
+      <c r="I215">
+        <v>26</v>
+      </c>
+      <c r="J215">
+        <v>2958</v>
+      </c>
+      <c r="K215">
+        <v>6.37777777777778</v>
+      </c>
+      <c r="L215">
+        <v>2024</v>
+      </c>
+      <c r="M215">
+        <v>6.37777777777778</v>
+      </c>
+      <c r="N215">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>38</v>
+      </c>
+      <c r="D216">
+        <v>2024</v>
+      </c>
+      <c r="E216">
+        <v>8</v>
+      </c>
+      <c r="F216">
+        <v>26</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>2024</v>
+      </c>
+      <c r="I216">
+        <v>26</v>
+      </c>
+      <c r="J216">
+        <v>2958</v>
+      </c>
+      <c r="K216">
+        <v>6.37777777777778</v>
+      </c>
+      <c r="L216">
+        <v>2024</v>
+      </c>
+      <c r="M216">
+        <v>4.7</v>
+      </c>
+      <c r="N216">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>39</v>
+      </c>
+      <c r="D217">
+        <v>1997</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1997</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1230.6666666666667</v>
+      </c>
+      <c r="K217">
+        <v>8.1422222222222196</v>
+      </c>
+      <c r="L217">
+        <v>2024</v>
+      </c>
+      <c r="M217">
+        <v>5.8333333333333304</v>
+      </c>
+      <c r="N217">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218">
+        <v>1998</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ref="G218:G221" si="7">(F218-I218)/(J218-I218)</f>
+        <v>8.1256771397616458E-4</v>
+      </c>
+      <c r="H218">
+        <v>1999</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1230.6666666666667</v>
+      </c>
+      <c r="K218">
+        <v>8.1422222222222196</v>
+      </c>
+      <c r="L218">
+        <v>2024</v>
+      </c>
+      <c r="M218">
+        <v>8.2777777777777803</v>
+      </c>
+      <c r="N218">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219">
+        <v>2011</v>
+      </c>
+      <c r="F219">
+        <v>3691</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="7"/>
+        <v>2.9991874322860159</v>
+      </c>
+      <c r="H219">
+        <v>2011</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1230.6666666666699</v>
+      </c>
+      <c r="K219">
+        <v>8.1422222222222196</v>
+      </c>
+      <c r="L219">
+        <v>2024</v>
+      </c>
+      <c r="M219">
+        <v>8.5</v>
+      </c>
+      <c r="N219">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220">
+        <v>2017</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>30</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="7"/>
+        <v>2.4377031419284875E-2</v>
+      </c>
+      <c r="H220">
+        <v>2017</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1230.6666666666699</v>
+      </c>
+      <c r="K220">
+        <v>8.1422222222222196</v>
+      </c>
+      <c r="L220">
+        <v>2024</v>
+      </c>
+      <c r="M220">
+        <v>9</v>
+      </c>
+      <c r="N220">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>39</v>
+      </c>
+      <c r="D221">
+        <v>2024</v>
+      </c>
+      <c r="E221">
+        <v>7</v>
+      </c>
+      <c r="F221">
+        <v>9</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="7"/>
+        <v>7.3131094257854624E-3</v>
+      </c>
+      <c r="H221">
+        <v>2024</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1230.6666666666699</v>
+      </c>
+      <c r="K221">
+        <v>8.1422222222222196</v>
+      </c>
+      <c r="L221">
+        <v>2024</v>
+      </c>
+      <c r="M221">
+        <v>9.1</v>
+      </c>
+      <c r="N221">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="D222">
+        <v>1996</v>
+      </c>
+      <c r="F222">
+        <v>1036</v>
+      </c>
+      <c r="H222">
+        <v>1997</v>
+      </c>
+      <c r="I222">
+        <v>111</v>
+      </c>
+      <c r="J222">
+        <v>1326.2857142857142</v>
+      </c>
+      <c r="K222">
+        <v>7.65625</v>
+      </c>
+      <c r="L222">
+        <v>2020</v>
+      </c>
+      <c r="M222">
+        <v>6.5833333333333304</v>
+      </c>
+      <c r="N222">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223">
+        <v>2001</v>
+      </c>
+      <c r="F223">
+        <v>1131</v>
+      </c>
+      <c r="H223">
+        <v>2002</v>
+      </c>
+      <c r="I223">
+        <v>111</v>
+      </c>
+      <c r="J223">
+        <v>1326.2857142857142</v>
+      </c>
+      <c r="K223">
+        <v>7.65625</v>
+      </c>
+      <c r="L223">
+        <v>2020</v>
+      </c>
+      <c r="M223">
+        <v>7.65625</v>
+      </c>
+      <c r="N223">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224">
+        <v>2009</v>
+      </c>
+      <c r="F224">
+        <v>1401</v>
+      </c>
+      <c r="H224">
+        <v>2010</v>
+      </c>
+      <c r="I224">
+        <v>111</v>
+      </c>
+      <c r="J224">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K224">
+        <v>7.65625</v>
+      </c>
+      <c r="L224">
+        <v>2020</v>
+      </c>
+      <c r="M224">
+        <v>8.3888888888888893</v>
+      </c>
+      <c r="N224">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225">
+        <v>2010</v>
+      </c>
+      <c r="F225">
+        <v>1524</v>
+      </c>
+      <c r="H225">
+        <v>2011</v>
+      </c>
+      <c r="I225">
+        <v>111</v>
+      </c>
+      <c r="J225">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K225">
+        <v>7.65625</v>
+      </c>
+      <c r="L225">
+        <v>2020</v>
+      </c>
+      <c r="M225">
+        <v>7</v>
+      </c>
+      <c r="N225">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>40</v>
+      </c>
+      <c r="D226">
+        <v>2013</v>
+      </c>
+      <c r="F226">
+        <v>1280</v>
+      </c>
+      <c r="H226">
+        <v>2013</v>
+      </c>
+      <c r="I226">
+        <v>111</v>
+      </c>
+      <c r="J226">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K226">
+        <v>7.65625</v>
+      </c>
+      <c r="L226">
+        <v>2020</v>
+      </c>
+      <c r="M226">
+        <v>7</v>
+      </c>
+      <c r="N226">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227">
+        <v>2014</v>
+      </c>
+      <c r="F227">
+        <v>1572</v>
+      </c>
+      <c r="H227">
+        <v>2015</v>
+      </c>
+      <c r="I227">
+        <v>111</v>
+      </c>
+      <c r="J227">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K227">
+        <v>7.65625</v>
+      </c>
+      <c r="L227">
+        <v>2020</v>
+      </c>
+      <c r="M227">
+        <v>8</v>
+      </c>
+      <c r="N227">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228">
+        <v>2015</v>
+      </c>
+      <c r="F228">
+        <v>1340</v>
+      </c>
+      <c r="H228">
+        <v>2016</v>
+      </c>
+      <c r="I228">
+        <v>111</v>
+      </c>
+      <c r="J228">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K228">
+        <v>7.65625</v>
+      </c>
+      <c r="L228">
+        <v>2020</v>
+      </c>
+      <c r="M228">
+        <v>8</v>
+      </c>
+      <c r="N228">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>40</v>
+      </c>
+      <c r="D229">
+        <v>2016</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>247</v>
+      </c>
+      <c r="H229">
+        <v>2017</v>
+      </c>
+      <c r="I229">
+        <v>111</v>
+      </c>
+      <c r="J229">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K229">
+        <v>7.65625</v>
+      </c>
+      <c r="L229">
+        <v>2020</v>
+      </c>
+      <c r="M229">
+        <v>8.5</v>
+      </c>
+      <c r="N229">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230">
+        <v>2017</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>269</v>
+      </c>
+      <c r="H230">
+        <v>2018</v>
+      </c>
+      <c r="I230">
+        <v>111</v>
+      </c>
+      <c r="J230">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K230">
+        <v>7.65625</v>
+      </c>
+      <c r="L230">
+        <v>2020</v>
+      </c>
+      <c r="M230">
+        <v>7.65625</v>
+      </c>
+      <c r="N230">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>40</v>
+      </c>
+      <c r="D231">
+        <v>2019</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231">
+        <v>111</v>
+      </c>
+      <c r="H231">
+        <v>2020</v>
+      </c>
+      <c r="I231">
+        <v>111</v>
+      </c>
+      <c r="J231">
+        <v>1326.2857142857099</v>
+      </c>
+      <c r="K231">
+        <v>7.65625</v>
+      </c>
+      <c r="L231">
+        <v>2020</v>
+      </c>
+      <c r="M231">
+        <v>7.7777777777777803</v>
+      </c>
+      <c r="N231">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232">
+        <v>2006</v>
+      </c>
+      <c r="F232">
+        <v>2381</v>
+      </c>
+      <c r="H232">
+        <v>2007</v>
+      </c>
+      <c r="I232">
+        <v>50</v>
+      </c>
+      <c r="J232">
+        <v>1939.25</v>
+      </c>
+      <c r="K232">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L232">
+        <v>2019</v>
+      </c>
+      <c r="M232">
+        <v>8.1944444444444393</v>
+      </c>
+      <c r="N232">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233">
+        <v>2009</v>
+      </c>
+      <c r="F233">
+        <v>2063</v>
+      </c>
+      <c r="H233">
+        <v>2010</v>
+      </c>
+      <c r="I233">
+        <v>50</v>
+      </c>
+      <c r="J233">
+        <v>1939.25</v>
+      </c>
+      <c r="K233">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L233">
+        <v>2019</v>
+      </c>
+      <c r="M233">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="N233">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234">
+        <v>2011</v>
+      </c>
+      <c r="F234">
+        <v>1996</v>
+      </c>
+      <c r="H234">
+        <v>2012</v>
+      </c>
+      <c r="I234">
+        <v>50</v>
+      </c>
+      <c r="J234">
+        <v>1939.25</v>
+      </c>
+      <c r="K234">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L234">
+        <v>2019</v>
+      </c>
+      <c r="M234">
+        <v>8.25</v>
+      </c>
+      <c r="N234">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235">
+        <v>2015</v>
+      </c>
+      <c r="F235">
+        <v>1317</v>
+      </c>
+      <c r="H235">
+        <v>2016</v>
+      </c>
+      <c r="I235">
+        <v>50</v>
+      </c>
+      <c r="J235">
+        <v>1939.25</v>
+      </c>
+      <c r="K235">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L235">
+        <v>2019</v>
+      </c>
+      <c r="M235">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="N235">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236">
+        <v>2016</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>115</v>
+      </c>
+      <c r="H236">
+        <v>2017</v>
+      </c>
+      <c r="I236">
+        <v>50</v>
+      </c>
+      <c r="J236">
+        <v>1939.25</v>
+      </c>
+      <c r="K236">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L236">
+        <v>2019</v>
+      </c>
+      <c r="M236">
+        <v>8.1388888888888893</v>
+      </c>
+      <c r="N236">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237">
+        <v>2018</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>50</v>
+      </c>
+      <c r="H237">
+        <v>2019</v>
+      </c>
+      <c r="I237">
+        <v>50</v>
+      </c>
+      <c r="J237">
+        <v>1939.25</v>
+      </c>
+      <c r="K237">
+        <v>8.2083333333333304</v>
+      </c>
+      <c r="L237">
+        <v>2019</v>
+      </c>
+      <c r="M237">
+        <v>8.25</v>
+      </c>
+      <c r="N237">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>42</v>
+      </c>
+      <c r="D238">
+        <v>2010</v>
+      </c>
+      <c r="F238">
+        <v>265</v>
+      </c>
+      <c r="H238">
+        <v>2010</v>
+      </c>
+      <c r="I238">
+        <v>18</v>
+      </c>
+      <c r="J238">
+        <v>214.8</v>
+      </c>
+      <c r="K238">
+        <v>3.5</v>
+      </c>
+      <c r="L238">
+        <v>2024</v>
+      </c>
+      <c r="M238">
+        <v>3.5</v>
+      </c>
+      <c r="N238">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239">
+        <v>2012</v>
+      </c>
+      <c r="F239">
+        <v>203</v>
+      </c>
+      <c r="H239">
+        <v>2012</v>
+      </c>
+      <c r="I239">
+        <v>18</v>
+      </c>
+      <c r="J239">
+        <v>214.8</v>
+      </c>
+      <c r="K239">
+        <v>3.5</v>
+      </c>
+      <c r="L239">
+        <v>2024</v>
+      </c>
+      <c r="M239">
+        <v>3.5</v>
+      </c>
+      <c r="N239">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240">
+        <v>2014</v>
+      </c>
+      <c r="F240">
+        <v>182</v>
+      </c>
+      <c r="H240">
+        <v>2014</v>
+      </c>
+      <c r="I240">
+        <v>18</v>
+      </c>
+      <c r="J240">
+        <v>214.8</v>
+      </c>
+      <c r="K240">
+        <v>3.5</v>
+      </c>
+      <c r="L240">
+        <v>2024</v>
+      </c>
+      <c r="M240">
+        <v>3.5</v>
+      </c>
+      <c r="N240">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>42</v>
+      </c>
+      <c r="D241">
+        <v>2015</v>
+      </c>
+      <c r="F241">
+        <v>219</v>
+      </c>
+      <c r="H241">
+        <v>2015</v>
+      </c>
+      <c r="I241">
+        <v>18</v>
+      </c>
+      <c r="J241">
+        <v>214.8</v>
+      </c>
+      <c r="K241">
+        <v>3.5</v>
+      </c>
+      <c r="L241">
+        <v>2024</v>
+      </c>
+      <c r="M241">
+        <v>3.5</v>
+      </c>
+      <c r="N241">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242">
+        <v>2016</v>
+      </c>
+      <c r="F242">
+        <v>205</v>
+      </c>
+      <c r="H242">
+        <v>2016</v>
+      </c>
+      <c r="I242">
+        <v>18</v>
+      </c>
+      <c r="J242">
+        <v>214.8</v>
+      </c>
+      <c r="K242">
+        <v>3.5</v>
+      </c>
+      <c r="L242">
+        <v>2024</v>
+      </c>
+      <c r="M242">
+        <v>3.5</v>
+      </c>
+      <c r="N242">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243">
+        <v>2017</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>50</v>
+      </c>
+      <c r="H243">
+        <v>2017</v>
+      </c>
+      <c r="I243">
+        <v>18</v>
+      </c>
+      <c r="J243">
+        <v>214.8</v>
+      </c>
+      <c r="K243">
+        <v>3.5</v>
+      </c>
+      <c r="L243">
+        <v>2024</v>
+      </c>
+      <c r="M243">
+        <v>3.5</v>
+      </c>
+      <c r="N243">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>42</v>
+      </c>
+      <c r="D244">
+        <v>2019</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>22</v>
+      </c>
+      <c r="H244">
+        <v>2020</v>
+      </c>
+      <c r="I244">
+        <v>18</v>
+      </c>
+      <c r="J244">
+        <v>214.8</v>
+      </c>
+      <c r="K244">
+        <v>3.5</v>
+      </c>
+      <c r="L244">
+        <v>2024</v>
+      </c>
+      <c r="M244">
+        <v>3.5</v>
+      </c>
+      <c r="N244">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245">
+        <v>2022</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>29</v>
+      </c>
+      <c r="H245">
+        <v>2022</v>
+      </c>
+      <c r="I245">
+        <v>18</v>
+      </c>
+      <c r="J245">
+        <v>214.8</v>
+      </c>
+      <c r="K245">
+        <v>3.5</v>
+      </c>
+      <c r="L245">
+        <v>2024</v>
+      </c>
+      <c r="M245">
+        <v>3.5</v>
+      </c>
+      <c r="N245">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>42</v>
+      </c>
+      <c r="D246">
+        <v>2023</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246">
+        <v>29</v>
+      </c>
+      <c r="H246">
+        <v>2023</v>
+      </c>
+      <c r="I246">
+        <v>18</v>
+      </c>
+      <c r="J246">
+        <v>214.8</v>
+      </c>
+      <c r="K246">
+        <v>3.5</v>
+      </c>
+      <c r="L246">
+        <v>2024</v>
+      </c>
+      <c r="M246">
+        <v>3.5</v>
+      </c>
+      <c r="N246">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>42</v>
+      </c>
+      <c r="D247">
+        <v>2024</v>
+      </c>
+      <c r="E247">
+        <v>7</v>
+      </c>
+      <c r="F247">
+        <v>18</v>
+      </c>
+      <c r="H247">
+        <v>2024</v>
+      </c>
+      <c r="I247">
+        <v>18</v>
+      </c>
+      <c r="J247">
+        <v>214.8</v>
+      </c>
+      <c r="K247">
+        <v>3.5</v>
+      </c>
+      <c r="L247">
+        <v>2024</v>
+      </c>
+      <c r="M247">
+        <v>3.5</v>
+      </c>
+      <c r="N247">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>

--- a/actual_data.xlsx
+++ b/actual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michigantech-my.sharepoint.com/personal/tmbarnes_mtu_edu/Documents/PhD/Chapter1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1948" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF253C9B-9D1A-4860-AD11-72865D775141}"/>
+  <xr:revisionPtr revIDLastSave="1950" documentId="8_{3D855F46-538B-4866-82C0-B62F336DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CC87FB-47E0-4FAD-8734-A731CC1DA48C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{F0AB33CE-9D66-4394-A1B2-6EBAD4716641}"/>
   </bookViews>
   <sheets>
     <sheet name="model_data" sheetId="1" r:id="rId1"/>
@@ -21151,7 +21151,7 @@
         <v>0.76423529411764701</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H308" si="16">F259/K259</f>
+        <f t="shared" ref="H259:H277" si="16">F259/K259</f>
         <v>0.9072394001110905</v>
       </c>
       <c r="I259">
@@ -22531,8 +22531,8 @@
   <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22634,7 +22634,7 @@
         <v>1227</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G65" si="0">(F2-J2)/(K2-J2)</f>
+        <f>(F2-J2)/(K2-J2)</f>
         <v>1.0058430717863105</v>
       </c>
       <c r="H2">
@@ -22669,7 +22669,7 @@
         <v>2023</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R65" si="1">Q2-O2</f>
+        <f>Q2-O2</f>
         <v>4</v>
       </c>
       <c r="S2">
@@ -22696,11 +22696,11 @@
         <v>1276</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f>(F3-J3)/(K3-J3)</f>
         <v>1.0467445742904842</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">F3/K3</f>
+        <f>F3/K3</f>
         <v>1.0459016393442624</v>
       </c>
       <c r="I3">
@@ -22731,7 +22731,7 @@
         <v>2023</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f>Q3-O3</f>
         <v>4</v>
       </c>
       <c r="S3">
@@ -22758,11 +22758,11 @@
         <v>1157</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>(F4-J4)/(K4-J4)</f>
         <v>0.94741235392320533</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>F4/K4</f>
         <v>0.94836065573770489</v>
       </c>
       <c r="I4">
@@ -22793,7 +22793,7 @@
         <v>2023</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f>Q4-O4</f>
         <v>4</v>
       </c>
       <c r="S4">
@@ -22826,11 +22826,11 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>(F5-J5)/(K5-J5)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>F5/K5</f>
         <v>1.8032786885245903E-2</v>
       </c>
       <c r="I5">
@@ -22861,7 +22861,7 @@
         <v>2023</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>Q5-O5</f>
         <v>4</v>
       </c>
       <c r="S5">
@@ -22894,11 +22894,11 @@
         <v>42</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>(F6-J6)/(K6-J6)</f>
         <v>1.6694490818030049E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>F6/K6</f>
         <v>3.4426229508196723E-2</v>
       </c>
       <c r="I6">
@@ -22929,7 +22929,7 @@
         <v>2023</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f>Q6-O6</f>
         <v>4</v>
       </c>
       <c r="S6">
@@ -22962,11 +22962,11 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>(F7-J7)/(K7-J7)</f>
         <v>3.3388981636060101E-3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>F7/K7</f>
         <v>2.1311475409836064E-2</v>
       </c>
       <c r="I7">
@@ -22997,7 +22997,7 @@
         <v>2023</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f>Q7-O7</f>
         <v>4</v>
       </c>
       <c r="S7">
@@ -23024,11 +23024,11 @@
         <v>8330</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>(F8-J8)/(K8-J8)</f>
         <v>0.3659931750668991</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>F8/K8</f>
         <v>0.39213840178886666</v>
       </c>
       <c r="I8">
@@ -23059,7 +23059,7 @@
         <v>2024</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f>Q8-O8</f>
         <v>5</v>
       </c>
       <c r="S8">
@@ -23086,11 +23086,11 @@
         <v>23534</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>(F9-J9)/(K9-J9)</f>
         <v>1.1125131956889991</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f>F9/K9</f>
         <v>1.1078733670707308</v>
       </c>
       <c r="I9">
@@ -23121,7 +23121,7 @@
         <v>2024</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f>Q9-O9</f>
         <v>5</v>
       </c>
       <c r="S9">
@@ -23148,11 +23148,11 @@
         <v>32733</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>(F10-J10)/(K10-J10)</f>
         <v>1.5641862863034885</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>F10/K10</f>
         <v>1.540920324820525</v>
       </c>
       <c r="I10">
@@ -23183,7 +23183,7 @@
         <v>2024</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f>Q10-O10</f>
         <v>5</v>
       </c>
       <c r="S10">
@@ -23210,11 +23210,11 @@
         <v>20373</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>(F11-J11)/(K11-J11)</f>
         <v>0.95730734294061326</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>F11/K11</f>
         <v>0.95906790631987759</v>
       </c>
       <c r="I11">
@@ -23245,7 +23245,7 @@
         <v>2024</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f>Q11-O11</f>
         <v>5</v>
       </c>
       <c r="S11">
@@ -23278,11 +23278,11 @@
         <v>876</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>(F12-J12)/(K12-J12)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f>F12/K12</f>
         <v>4.1238084029657528E-2</v>
       </c>
       <c r="I12">
@@ -23313,7 +23313,7 @@
         <v>2024</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f>Q12-O12</f>
         <v>5</v>
       </c>
       <c r="S12">
@@ -23346,11 +23346,11 @@
         <v>1413</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>(F13-J13)/(K13-J13)</f>
         <v>2.6366827879115214E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f>F13/K13</f>
         <v>6.6517594445098263E-2</v>
       </c>
       <c r="I13">
@@ -23381,7 +23381,7 @@
         <v>2024</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f>Q13-O13</f>
         <v>5</v>
       </c>
       <c r="S13">
@@ -23408,11 +23408,11 @@
         <v>75</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>(F14-J14)/(K14-J14)</f>
         <v>1.6423356465448431</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f>F14/K14</f>
         <v>1.6423356465448431</v>
       </c>
       <c r="I14">
@@ -23443,7 +23443,7 @@
         <v>2020</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f>Q14-O14</f>
         <v>5</v>
       </c>
       <c r="S14">
@@ -23470,11 +23470,11 @@
         <v>54</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>(F15-J15)/(K15-J15)</f>
         <v>1.1824816655122872</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f>F15/K15</f>
         <v>1.1824816655122872</v>
       </c>
       <c r="I15">
@@ -23505,7 +23505,7 @@
         <v>2020</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f>Q15-O15</f>
         <v>5</v>
       </c>
       <c r="S15">
@@ -23535,11 +23535,11 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>(F16-J16)/(K16-J16)</f>
         <v>0.17518246896478326</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>F16/K16</f>
         <v>0.17518246896478326</v>
       </c>
       <c r="I16">
@@ -23570,7 +23570,7 @@
         <v>2020</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f>Q16-O16</f>
         <v>5</v>
       </c>
       <c r="S16">
@@ -23603,11 +23603,11 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>(F17-J17)/(K17-J17)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f>F17/K17</f>
         <v>0</v>
       </c>
       <c r="I17">
@@ -23638,7 +23638,7 @@
         <v>2020</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f>Q17-O17</f>
         <v>5</v>
       </c>
       <c r="S17">
@@ -23671,11 +23671,11 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>(F18-J18)/(K18-J18)</f>
         <v>6.5693425861793733E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>F18/K18</f>
         <v>6.5693425861793733E-2</v>
       </c>
       <c r="I18">
@@ -23706,7 +23706,7 @@
         <v>2020</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f>Q18-O18</f>
         <v>5</v>
       </c>
       <c r="S18">
@@ -23733,11 +23733,11 @@
         <v>68</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>(F19-J19)/(K19-J19)</f>
         <v>0.72625698324022347</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>F19/K19</f>
         <v>0.73513513513513518</v>
       </c>
       <c r="I19">
@@ -23768,7 +23768,7 @@
         <v>2023</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f>Q19-O19</f>
         <v>2</v>
       </c>
       <c r="S19">
@@ -23795,11 +23795,11 @@
         <v>98</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>(F20-J20)/(K20-J20)</f>
         <v>1.0614525139664805</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f>F20/K20</f>
         <v>1.0594594594594595</v>
       </c>
       <c r="I20">
@@ -23830,7 +23830,7 @@
         <v>2023</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f>Q20-O20</f>
         <v>2</v>
       </c>
       <c r="S20">
@@ -23857,11 +23857,11 @@
         <v>103</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>(F21-J21)/(K21-J21)</f>
         <v>1.1173184357541899</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f>F21/K21</f>
         <v>1.1135135135135135</v>
       </c>
       <c r="I21">
@@ -23892,7 +23892,7 @@
         <v>2023</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f>Q21-O21</f>
         <v>2</v>
       </c>
       <c r="S21">
@@ -23919,11 +23919,11 @@
         <v>101</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>(F22-J22)/(K22-J22)</f>
         <v>1.0949720670391061</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f>F22/K22</f>
         <v>1.0918918918918918</v>
       </c>
       <c r="I22">
@@ -23954,7 +23954,7 @@
         <v>2023</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f>Q22-O22</f>
         <v>2</v>
       </c>
       <c r="S22">
@@ -23987,11 +23987,11 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>(F23-J23)/(K23-J23)</f>
         <v>5.5865921787709494E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f>F23/K23</f>
         <v>8.6486486486486491E-2</v>
       </c>
       <c r="I23">
@@ -24022,7 +24022,7 @@
         <v>2023</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f>Q23-O23</f>
         <v>2</v>
       </c>
       <c r="S23">
@@ -24055,11 +24055,11 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>(F24-J24)/(K24-J24)</f>
         <v>3.3519553072625698E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f>F24/K24</f>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="I24">
@@ -24090,7 +24090,7 @@
         <v>2023</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f>Q24-O24</f>
         <v>2</v>
       </c>
       <c r="S24">
@@ -24123,11 +24123,11 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>(F25-J25)/(K25-J25)</f>
         <v>5.5865921787709494E-2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f>F25/K25</f>
         <v>8.6486486486486491E-2</v>
       </c>
       <c r="I25">
@@ -24158,7 +24158,7 @@
         <v>2023</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f>Q25-O25</f>
         <v>2</v>
       </c>
       <c r="S25">
@@ -24191,11 +24191,11 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>(F26-J26)/(K26-J26)</f>
         <v>1.11731843575419E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f>F26/K26</f>
         <v>4.3243243243243246E-2</v>
       </c>
       <c r="I26">
@@ -24226,7 +24226,7 @@
         <v>2023</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f>Q26-O26</f>
         <v>2</v>
       </c>
       <c r="S26">
@@ -24259,11 +24259,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>(F27-J27)/(K27-J27)</f>
         <v>1.11731843575419E-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f>F27/K27</f>
         <v>4.3243243243243246E-2</v>
       </c>
       <c r="I27">
@@ -24294,7 +24294,7 @@
         <v>2023</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f>Q27-O27</f>
         <v>2</v>
       </c>
       <c r="S27">
@@ -24327,11 +24327,11 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>(F28-J28)/(K28-J28)</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f>F28/K28</f>
         <v>3.2432432432432434E-2</v>
       </c>
       <c r="I28">
@@ -24362,7 +24362,7 @@
         <v>2023</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f>Q28-O28</f>
         <v>2</v>
       </c>
       <c r="S28">
@@ -24389,11 +24389,11 @@
         <v>1290</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f>(F29-J29)/(K29-J29)</f>
         <v>0.7624076029567054</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f>F29/K29</f>
         <v>0.85148514851485146</v>
       </c>
       <c r="I29">
@@ -24419,7 +24419,7 @@
         <v>2024</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f>Q29-O29</f>
         <v>4</v>
       </c>
       <c r="S29">
@@ -24446,11 +24446,11 @@
         <v>588</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f>(F30-J30)/(K30-J30)</f>
         <v>2.1119324181626188E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f>F30/K30</f>
         <v>0.38811881188118813</v>
       </c>
       <c r="I30">
@@ -24476,7 +24476,7 @@
         <v>2024</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f>Q30-O30</f>
         <v>4</v>
       </c>
       <c r="S30">
@@ -24503,11 +24503,11 @@
         <v>2028</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>(F31-J31)/(K31-J31)</f>
         <v>1.5417106652587118</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f>F31/K31</f>
         <v>1.3386138613861387</v>
       </c>
       <c r="I31">
@@ -24533,7 +24533,7 @@
         <v>2024</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f>Q31-O31</f>
         <v>4</v>
       </c>
       <c r="S31">
@@ -24560,11 +24560,11 @@
         <v>1118</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>(F32-J32)/(K32-J32)</f>
         <v>0.58078141499472014</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f>F32/K32</f>
         <v>0.73795379537953798</v>
       </c>
       <c r="I32">
@@ -24589,7 +24589,7 @@
         <v>2024</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f>Q32-O32</f>
         <v>4</v>
       </c>
       <c r="S32">
@@ -24616,11 +24616,11 @@
         <v>2515</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f>(F33-J33)/(K33-J33)</f>
         <v>2.0559662090813093</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f>F33/K33</f>
         <v>1.6600660066006601</v>
       </c>
       <c r="I33">
@@ -24645,7 +24645,7 @@
         <v>2024</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f>Q33-O33</f>
         <v>4</v>
       </c>
       <c r="S33">
@@ -24672,11 +24672,11 @@
         <v>2405</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>(F34-J34)/(K34-J34)</f>
         <v>1.9398099260823654</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f>F34/K34</f>
         <v>1.5874587458745875</v>
       </c>
       <c r="I34">
@@ -24701,7 +24701,7 @@
         <v>2024</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f>Q34-O34</f>
         <v>4</v>
       </c>
       <c r="S34">
@@ -24728,11 +24728,11 @@
         <v>1083</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>(F35-J35)/(K35-J35)</f>
         <v>0.54382259767687435</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f>F35/K35</f>
         <v>0.71485148514851482</v>
       </c>
       <c r="I35">
@@ -24761,7 +24761,7 @@
         <v>2024</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f>Q35-O35</f>
         <v>4</v>
       </c>
       <c r="S35">
@@ -24788,11 +24788,11 @@
         <v>1093</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>(F36-J36)/(K36-J36)</f>
         <v>0.5543822597676874</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f>F36/K36</f>
         <v>0.7214521452145215</v>
       </c>
       <c r="I36">
@@ -24821,7 +24821,7 @@
         <v>2024</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f>Q36-O36</f>
         <v>4</v>
       </c>
       <c r="S36">
@@ -24854,11 +24854,11 @@
         <v>568</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f>(F37-J37)/(K37-J37)</f>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f>F37/K37</f>
         <v>0.37491749174917494</v>
       </c>
       <c r="I37">
@@ -24887,7 +24887,7 @@
         <v>2024</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f>Q37-O37</f>
         <v>4</v>
       </c>
       <c r="S37">
@@ -24920,11 +24920,11 @@
         <v>775</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f>(F38-J38)/(K38-J38)</f>
         <v>0.21858500527983105</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f>F38/K38</f>
         <v>0.51155115511551152</v>
       </c>
       <c r="I38">
@@ -24953,7 +24953,7 @@
         <v>2024</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f>Q38-O38</f>
         <v>4</v>
       </c>
       <c r="S38">
@@ -24986,11 +24986,11 @@
         <v>972</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f>(F39-J39)/(K39-J39)</f>
         <v>0.42661034846884899</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f>F39/K39</f>
         <v>0.6415841584158416</v>
       </c>
       <c r="I39">
@@ -25019,7 +25019,7 @@
         <v>2024</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f>Q39-O39</f>
         <v>4</v>
       </c>
       <c r="S39">
@@ -25046,11 +25046,11 @@
         <v>5189</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f>(F40-J40)/(K40-J40)</f>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f>F40/K40</f>
         <v>1</v>
       </c>
       <c r="I40">
@@ -25081,7 +25081,7 @@
         <v>2016</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f>Q40-O40</f>
         <v>0</v>
       </c>
       <c r="S40">
@@ -25111,11 +25111,11 @@
         <v>812</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>(F41-J41)/(K41-J41)</f>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f>F41/K41</f>
         <v>0.156484871844286</v>
       </c>
       <c r="I41">
@@ -25146,7 +25146,7 @@
         <v>2016</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f>Q41-O41</f>
         <v>0</v>
       </c>
       <c r="S41">
@@ -25170,11 +25170,11 @@
         <v>31</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f>(F42-J42)/(K42-J42)</f>
         <v>0.31292517006802723</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f>F42/K42</f>
         <v>0.38036809815950923</v>
       </c>
       <c r="I42">
@@ -25205,7 +25205,7 @@
         <v>2024</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f>Q42-O42</f>
         <v>7</v>
       </c>
       <c r="S42">
@@ -25232,11 +25232,11 @@
         <v>132</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>(F43-J43)/(K43-J43)</f>
         <v>1.6870748299319729</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f>F43/K43</f>
         <v>1.6196319018404908</v>
       </c>
       <c r="I43">
@@ -25267,7 +25267,7 @@
         <v>2024</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f>Q43-O43</f>
         <v>7</v>
       </c>
       <c r="S43">
@@ -25300,11 +25300,11 @@
         <v>8</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f>(F44-J44)/(K44-J44)</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f>F44/K44</f>
         <v>9.815950920245399E-2</v>
       </c>
       <c r="I44">
@@ -25335,7 +25335,7 @@
         <v>2024</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f>Q44-O44</f>
         <v>7</v>
       </c>
       <c r="S44">
@@ -25368,11 +25368,11 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f>(F45-J45)/(K45-J45)</f>
         <v>0.12244897959183673</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f>F45/K45</f>
         <v>0.20858895705521471</v>
       </c>
       <c r="I45">
@@ -25403,7 +25403,7 @@
         <v>2024</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f>Q45-O45</f>
         <v>7</v>
       </c>
       <c r="S45">
@@ -25436,11 +25436,11 @@
         <v>22</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f>(F46-J46)/(K46-J46)</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f>F46/K46</f>
         <v>0.26993865030674846</v>
       </c>
       <c r="I46">
@@ -25471,7 +25471,7 @@
         <v>2024</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f>Q46-O46</f>
         <v>7</v>
       </c>
       <c r="S46">
@@ -25498,11 +25498,11 @@
         <v>11483</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f>(F47-J47)/(K47-J47)</f>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f>F47/K47</f>
         <v>1</v>
       </c>
       <c r="I47">
@@ -25533,7 +25533,7 @@
         <v>2018</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f>Q47-O47</f>
         <v>0</v>
       </c>
       <c r="S47">
@@ -25563,11 +25563,11 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f>(F48-J48)/(K48-J48)</f>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f>F48/K48</f>
         <v>0</v>
       </c>
       <c r="I48">
@@ -25598,7 +25598,7 @@
         <v>2018</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f>Q48-O48</f>
         <v>0</v>
       </c>
       <c r="S48">
@@ -25622,11 +25622,11 @@
         <v>820</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f>(F49-J49)/(K49-J49)</f>
         <v>1.075268817204301</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f>F49/K49</f>
         <v>1.0732984293193717</v>
       </c>
       <c r="I49">
@@ -25657,7 +25657,7 @@
         <v>2020</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f>Q49-O49</f>
         <v>3</v>
       </c>
       <c r="S49">
@@ -25684,11 +25684,11 @@
         <v>708</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f>(F50-J50)/(K50-J50)</f>
         <v>0.92473118279569888</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f>F50/K50</f>
         <v>0.92670157068062831</v>
       </c>
       <c r="I50">
@@ -25719,7 +25719,7 @@
         <v>2020</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f>Q50-O50</f>
         <v>3</v>
       </c>
       <c r="S50">
@@ -25752,11 +25752,11 @@
         <v>20</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f>(F51-J51)/(K51-J51)</f>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f>F51/K51</f>
         <v>2.6178010471204188E-2</v>
       </c>
       <c r="I51">
@@ -25787,7 +25787,7 @@
         <v>2020</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>Q51-O51</f>
         <v>3</v>
       </c>
       <c r="S51">
@@ -25820,11 +25820,11 @@
         <v>28</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f>(F52-J52)/(K52-J52)</f>
         <v>1.0752688172043012E-2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f>F52/K52</f>
         <v>3.6649214659685861E-2</v>
       </c>
       <c r="I52">
@@ -25855,7 +25855,7 @@
         <v>2020</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>Q52-O52</f>
         <v>3</v>
       </c>
       <c r="S52">
@@ -25882,11 +25882,11 @@
         <v>1702</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f>(F53-J53)/(K53-J53)</f>
         <v>0.5336599914784832</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f>F53/K53</f>
         <v>0.66030415890751093</v>
       </c>
       <c r="I53">
@@ -25917,7 +25917,7 @@
         <v>2023</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f>Q53-O53</f>
         <v>5</v>
       </c>
       <c r="S53">
@@ -25944,11 +25944,11 @@
         <v>2352</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f>(F54-J54)/(K54-J54)</f>
         <v>0.8798466126970601</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f>F54/K54</f>
         <v>0.91247672253258849</v>
       </c>
       <c r="I54">
@@ -25979,7 +25979,7 @@
         <v>2023</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>Q54-O54</f>
         <v>5</v>
       </c>
       <c r="S54">
@@ -26006,11 +26006,11 @@
         <v>2664</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f>(F55-J55)/(K55-J55)</f>
         <v>1.0460161908819769</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f>F55/K55</f>
         <v>1.0335195530726258</v>
       </c>
       <c r="I55">
@@ -26041,7 +26041,7 @@
         <v>2023</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>Q55-O55</f>
         <v>5</v>
       </c>
       <c r="S55">
@@ -26068,11 +26068,11 @@
         <v>2587</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f>(F56-J56)/(K56-J56)</f>
         <v>1.0050063911376226</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f>F56/K56</f>
         <v>1.0036468032278087</v>
       </c>
       <c r="I56">
@@ -26103,7 +26103,7 @@
         <v>2023</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>Q56-O56</f>
         <v>5</v>
       </c>
       <c r="S56">
@@ -26130,11 +26130,11 @@
         <v>3583</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f>(F57-J57)/(K57-J57)</f>
         <v>1.5354708138048574</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f>F57/K57</f>
         <v>1.3900527622594663</v>
       </c>
       <c r="I57">
@@ -26165,7 +26165,7 @@
         <v>2023</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>Q57-O57</f>
         <v>5</v>
       </c>
       <c r="S57">
@@ -26195,11 +26195,11 @@
         <v>841</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f>(F58-J58)/(K58-J58)</f>
         <v>7.5095867064337463E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f>F58/K58</f>
         <v>0.32627250155183118</v>
       </c>
       <c r="I58">
@@ -26230,7 +26230,7 @@
         <v>2023</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>Q58-O58</f>
         <v>5</v>
       </c>
       <c r="S58">
@@ -26260,11 +26260,11 @@
         <v>862</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f>(F59-J59)/(K59-J59)</f>
         <v>8.6280357903706861E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f>F59/K59</f>
         <v>0.33441961514587215</v>
       </c>
       <c r="I59">
@@ -26295,7 +26295,7 @@
         <v>2023</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>Q59-O59</f>
         <v>5</v>
       </c>
       <c r="S59">
@@ -26328,11 +26328,11 @@
         <v>700</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f>(F60-J60)/(K60-J60)</f>
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f>F60/K60</f>
         <v>0.27157045313469896</v>
       </c>
       <c r="I60">
@@ -26363,7 +26363,7 @@
         <v>2023</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>Q60-O60</f>
         <v>5</v>
       </c>
       <c r="S60">
@@ -26396,11 +26396,11 @@
         <v>1297</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f>(F61-J61)/(K61-J61)</f>
         <v>0.31795909671921602</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f>F61/K61</f>
         <v>0.50318125387957791</v>
       </c>
       <c r="I61">
@@ -26431,7 +26431,7 @@
         <v>2023</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>Q61-O61</f>
         <v>5</v>
       </c>
       <c r="S61">
@@ -26464,11 +26464,11 @@
         <v>1465</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f>(F62-J62)/(K62-J62)</f>
         <v>0.40743502343417132</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f>F62/K62</f>
         <v>0.56835816263190564</v>
       </c>
       <c r="I62">
@@ -26499,7 +26499,7 @@
         <v>2023</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f>Q62-O62</f>
         <v>5</v>
       </c>
       <c r="S62">
@@ -26532,11 +26532,11 @@
         <v>1491</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f>(F63-J63)/(K63-J63)</f>
         <v>0.42128248828291437</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f>F63/K63</f>
         <v>0.57844506517690875</v>
       </c>
       <c r="I63">
@@ -26567,7 +26567,7 @@
         <v>2023</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f>Q63-O63</f>
         <v>5</v>
       </c>
       <c r="S63">
@@ -26600,11 +26600,11 @@
         <v>2322</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f>(F64-J64)/(K64-J64)</f>
         <v>0.86386876864081807</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f>F64/K64</f>
         <v>0.90083798882681565</v>
       </c>
       <c r="I64">
@@ -26635,7 +26635,7 @@
         <v>2023</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f>Q64-O64</f>
         <v>5</v>
       </c>
       <c r="S64">
@@ -26668,11 +26668,11 @@
         <v>1382</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f>(F65-J65)/(K65-J65)</f>
         <v>0.3632296548785684</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f>F65/K65</f>
         <v>0.53615766604593418</v>
       </c>
       <c r="I65">
@@ -26703,7 +26703,7 @@
         <v>2023</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f>Q65-O65</f>
         <v>5</v>
       </c>
       <c r="S65">
@@ -26730,11 +26730,11 @@
         <v>216</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="3">(F66-J66)/(K66-J66)</f>
+        <f>(F66-J66)/(K66-J66)</f>
         <v>1.1018075924248159</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f>F66/K66</f>
         <v>1.089991406225163</v>
       </c>
       <c r="I66">
@@ -26765,7 +26765,7 @@
         <v>2024</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R129" si="4">Q66-O66</f>
+        <f>Q66-O66</f>
         <v>5</v>
       </c>
       <c r="S66">
@@ -26792,11 +26792,11 @@
         <v>234</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f>(F67-J67)/(K67-J67)</f>
         <v>1.2045668497494102</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="5">F67/K67</f>
+        <f>F67/K67</f>
         <v>1.1808240234105933</v>
       </c>
       <c r="I67">
@@ -26827,7 +26827,7 @@
         <v>2024</v>
       </c>
       <c r="R67">
-        <f t="shared" si="4"/>
+        <f>Q67-O67</f>
         <v>5</v>
       </c>
       <c r="S67">
@@ -26854,11 +26854,11 @@
         <v>146</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f>(F68-J68)/(K68-J68)</f>
         <v>0.70218825838472732</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f>F68/K68</f>
         <v>0.73675345050404539</v>
       </c>
       <c r="I68">
@@ -26889,7 +26889,7 @@
         <v>2024</v>
       </c>
       <c r="R68">
-        <f t="shared" si="4"/>
+        <f>Q68-O68</f>
         <v>5</v>
       </c>
       <c r="S68">
@@ -26916,11 +26916,11 @@
         <v>235</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f>(F69-J69)/(K69-J69)</f>
         <v>1.2102756973785542</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f>F69/K69</f>
         <v>1.1858702799208949</v>
       </c>
       <c r="I69">
@@ -26951,7 +26951,7 @@
         <v>2024</v>
       </c>
       <c r="R69">
-        <f t="shared" si="4"/>
+        <f>Q69-O69</f>
         <v>5</v>
       </c>
       <c r="S69">
@@ -26978,11 +26978,11 @@
         <v>228</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
+        <f>(F70-J70)/(K70-J70)</f>
         <v>1.1703137639745453</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f>F70/K70</f>
         <v>1.1505464843487831</v>
       </c>
       <c r="I70">
@@ -27013,7 +27013,7 @@
         <v>2024</v>
       </c>
       <c r="R70">
-        <f t="shared" si="4"/>
+        <f>Q70-O70</f>
         <v>5</v>
       </c>
       <c r="S70">
@@ -27040,11 +27040,11 @@
         <v>130</v>
       </c>
       <c r="G71">
-        <f t="shared" si="3"/>
+        <f>(F71-J71)/(K71-J71)</f>
         <v>0.61084669631842126</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f>F71/K71</f>
         <v>0.65601334633921848</v>
       </c>
       <c r="I71">
@@ -27075,7 +27075,7 @@
         <v>2024</v>
       </c>
       <c r="R71">
-        <f t="shared" si="4"/>
+        <f>Q71-O71</f>
         <v>5</v>
       </c>
       <c r="S71">
@@ -27105,11 +27105,11 @@
         <v>32</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <f>(F72-J72)/(K72-J72)</f>
         <v>5.1379628662297117E-2</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f>F72/K72</f>
         <v>0.16148020832965379</v>
       </c>
       <c r="I72">
@@ -27140,7 +27140,7 @@
         <v>2024</v>
       </c>
       <c r="R72">
-        <f t="shared" si="4"/>
+        <f>Q72-O72</f>
         <v>5</v>
       </c>
       <c r="S72">
@@ -27170,11 +27170,11 @@
         <v>44</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f>(F73-J73)/(K73-J73)</f>
         <v>0.11988580021202661</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f>F73/K73</f>
         <v>0.22203528645327394</v>
       </c>
       <c r="I73">
@@ -27205,7 +27205,7 @@
         <v>2024</v>
       </c>
       <c r="R73">
-        <f t="shared" si="4"/>
+        <f>Q73-O73</f>
         <v>5</v>
       </c>
       <c r="S73">
@@ -27238,11 +27238,11 @@
         <v>23</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
+        <f>(F74-J74)/(K74-J74)</f>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f>F74/K74</f>
         <v>0.11606389973693865</v>
       </c>
       <c r="I74">
@@ -27273,7 +27273,7 @@
         <v>2024</v>
       </c>
       <c r="R74">
-        <f t="shared" si="4"/>
+        <f>Q74-O74</f>
         <v>5</v>
       </c>
       <c r="S74">
@@ -27306,11 +27306,11 @@
         <v>35</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
+        <f>(F75-J75)/(K75-J75)</f>
         <v>6.8506171549729489E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
+        <f>F75/K75</f>
         <v>0.17661897786055883</v>
       </c>
       <c r="I75">
@@ -27341,7 +27341,7 @@
         <v>2024</v>
       </c>
       <c r="R75">
-        <f t="shared" si="4"/>
+        <f>Q75-O75</f>
         <v>5</v>
       </c>
       <c r="S75">
@@ -27368,11 +27368,11 @@
         <v>497</v>
       </c>
       <c r="G76">
-        <f t="shared" si="3"/>
+        <f>(F76-J76)/(K76-J76)</f>
         <v>2.6877828054298645</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
+        <f>F76/K76</f>
         <v>2.6696508504923906</v>
       </c>
       <c r="I76">
@@ -27403,7 +27403,7 @@
         <v>2020</v>
       </c>
       <c r="R76">
-        <f t="shared" si="4"/>
+        <f>Q76-O76</f>
         <v>1</v>
       </c>
       <c r="S76">
@@ -27430,11 +27430,11 @@
         <v>98</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
+        <f>(F77-J77)/(K77-J77)</f>
         <v>0.52126696832579189</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
+        <f>F77/K77</f>
         <v>0.52641002685765448</v>
       </c>
       <c r="I77">
@@ -27465,7 +27465,7 @@
         <v>2020</v>
       </c>
       <c r="R77">
-        <f t="shared" si="4"/>
+        <f>Q77-O77</f>
         <v>1</v>
       </c>
       <c r="S77">
@@ -27492,11 +27492,11 @@
         <v>98</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
+        <f>(F78-J78)/(K78-J78)</f>
         <v>0.52126696832579189</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
+        <f>F78/K78</f>
         <v>0.52641002685765448</v>
       </c>
       <c r="I78">
@@ -27527,7 +27527,7 @@
         <v>2020</v>
       </c>
       <c r="R78">
-        <f t="shared" si="4"/>
+        <f>Q78-O78</f>
         <v>1</v>
       </c>
       <c r="S78">
@@ -27554,11 +27554,11 @@
         <v>97</v>
       </c>
       <c r="G79">
-        <f t="shared" si="3"/>
+        <f>(F79-J79)/(K79-J79)</f>
         <v>0.51583710407239824</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
+        <f>F79/K79</f>
         <v>0.52103849597135188</v>
       </c>
       <c r="I79">
@@ -27589,7 +27589,7 @@
         <v>2020</v>
       </c>
       <c r="R79">
-        <f t="shared" si="4"/>
+        <f>Q79-O79</f>
         <v>1</v>
       </c>
       <c r="S79">
@@ -27616,11 +27616,11 @@
         <v>129</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
+        <f>(F80-J80)/(K80-J80)</f>
         <v>0.68959276018099547</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
+        <f>F80/K80</f>
         <v>0.69292748433303497</v>
       </c>
       <c r="I80">
@@ -27651,7 +27651,7 @@
         <v>2020</v>
       </c>
       <c r="R80">
-        <f t="shared" si="4"/>
+        <f>Q80-O80</f>
         <v>1</v>
       </c>
       <c r="S80">
@@ -27678,11 +27678,11 @@
         <v>198</v>
       </c>
       <c r="G81">
-        <f t="shared" si="3"/>
+        <f>(F81-J81)/(K81-J81)</f>
         <v>1.0642533936651584</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
+        <f>F81/K81</f>
         <v>1.0635631154879142</v>
       </c>
       <c r="I81">
@@ -27713,7 +27713,7 @@
         <v>2020</v>
       </c>
       <c r="R81">
-        <f t="shared" si="4"/>
+        <f>Q81-O81</f>
         <v>1</v>
       </c>
       <c r="S81">
@@ -27746,11 +27746,11 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <f>(F82-J82)/(K82-J82)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
+        <f>F82/K82</f>
         <v>1.0743061772605174E-2</v>
       </c>
       <c r="I82">
@@ -27781,7 +27781,7 @@
         <v>2020</v>
       </c>
       <c r="R82">
-        <f t="shared" si="4"/>
+        <f>Q82-O82</f>
         <v>1</v>
       </c>
       <c r="S82">
@@ -27814,11 +27814,11 @@
         <v>7</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
+        <f>(F83-J83)/(K83-J83)</f>
         <v>2.7149321266968278E-2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
+        <f>F83/K83</f>
         <v>3.7600716204118104E-2</v>
       </c>
       <c r="I83">
@@ -27849,7 +27849,7 @@
         <v>2020</v>
       </c>
       <c r="R83">
-        <f t="shared" si="4"/>
+        <f>Q83-O83</f>
         <v>1</v>
       </c>
       <c r="S83">
@@ -27876,11 +27876,11 @@
         <v>45</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
+        <f>(F84-J84)/(K84-J84)</f>
         <v>1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
+        <f>F84/K84</f>
         <v>1</v>
       </c>
       <c r="I84">
@@ -27911,7 +27911,7 @@
         <v>2020</v>
       </c>
       <c r="R84">
-        <f t="shared" si="4"/>
+        <f>Q84-O84</f>
         <v>3</v>
       </c>
       <c r="S84">
@@ -27941,11 +27941,11 @@
         <v>8</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
+        <f>(F85-J85)/(K85-J85)</f>
         <v>0.17777777777777778</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
+        <f>F85/K85</f>
         <v>0.17777777777777778</v>
       </c>
       <c r="I85">
@@ -27976,7 +27976,7 @@
         <v>2020</v>
       </c>
       <c r="R85">
-        <f t="shared" si="4"/>
+        <f>Q85-O85</f>
         <v>3</v>
       </c>
       <c r="S85">
@@ -28006,11 +28006,11 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
+        <f>(F86-J86)/(K86-J86)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
+        <f>F86/K86</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="I86">
@@ -28041,7 +28041,7 @@
         <v>2020</v>
       </c>
       <c r="R86">
-        <f t="shared" si="4"/>
+        <f>Q86-O86</f>
         <v>3</v>
       </c>
       <c r="S86">
@@ -28074,11 +28074,11 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
+        <f>(F87-J87)/(K87-J87)</f>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
+        <f>F87/K87</f>
         <v>0</v>
       </c>
       <c r="I87">
@@ -28109,7 +28109,7 @@
         <v>2020</v>
       </c>
       <c r="R87">
-        <f t="shared" si="4"/>
+        <f>Q87-O87</f>
         <v>3</v>
       </c>
       <c r="S87">
@@ -28142,11 +28142,11 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
+        <f>(F88-J88)/(K88-J88)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
+        <f>F88/K88</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="I88">
@@ -28177,7 +28177,7 @@
         <v>2020</v>
       </c>
       <c r="R88">
-        <f t="shared" si="4"/>
+        <f>Q88-O88</f>
         <v>3</v>
       </c>
       <c r="S88">
@@ -28204,11 +28204,11 @@
         <v>551</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
+        <f>(F89-J89)/(K89-J89)</f>
         <v>1.1757161179991449</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
+        <f>F89/K89</f>
         <v>1.1753412969283277</v>
       </c>
       <c r="I89">
@@ -28239,7 +28239,7 @@
         <v>2023</v>
       </c>
       <c r="R89">
-        <f t="shared" si="4"/>
+        <f>Q89-O89</f>
         <v>3</v>
       </c>
       <c r="S89">
@@ -28266,11 +28266,11 @@
         <v>617</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
+        <f>(F90-J90)/(K90-J90)</f>
         <v>1.3168020521590422</v>
       </c>
       <c r="H90">
-        <f t="shared" si="5"/>
+        <f>F90/K90</f>
         <v>1.3161262798634812</v>
       </c>
       <c r="I90">
@@ -28301,7 +28301,7 @@
         <v>2023</v>
       </c>
       <c r="R90">
-        <f t="shared" si="4"/>
+        <f>Q90-O90</f>
         <v>3</v>
       </c>
       <c r="S90">
@@ -28328,11 +28328,11 @@
         <v>590</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
+        <f>(F91-J91)/(K91-J91)</f>
         <v>1.2590850790936297</v>
       </c>
       <c r="H91">
-        <f t="shared" si="5"/>
+        <f>F91/K91</f>
         <v>1.2585324232081911</v>
       </c>
       <c r="I91">
@@ -28363,7 +28363,7 @@
         <v>2023</v>
       </c>
       <c r="R91">
-        <f t="shared" si="4"/>
+        <f>Q91-O91</f>
         <v>3</v>
       </c>
       <c r="S91">
@@ -28390,11 +28390,11 @@
         <v>280</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
+        <f>(F92-J92)/(K92-J92)</f>
         <v>0.59640872167592984</v>
       </c>
       <c r="H92">
-        <f t="shared" si="5"/>
+        <f>F92/K92</f>
         <v>0.59726962457337884</v>
       </c>
       <c r="I92">
@@ -28425,7 +28425,7 @@
         <v>2023</v>
       </c>
       <c r="R92">
-        <f t="shared" si="4"/>
+        <f>Q92-O92</f>
         <v>3</v>
       </c>
       <c r="S92">
@@ -28452,11 +28452,11 @@
         <v>306</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <f>(F93-J93)/(K93-J93)</f>
         <v>0.65198802907225306</v>
       </c>
       <c r="H93">
-        <f t="shared" si="5"/>
+        <f>F93/K93</f>
         <v>0.65273037542662116</v>
       </c>
       <c r="I93">
@@ -28487,7 +28487,7 @@
         <v>2023</v>
       </c>
       <c r="R93">
-        <f t="shared" si="4"/>
+        <f>Q93-O93</f>
         <v>3</v>
       </c>
       <c r="S93">
@@ -28520,11 +28520,11 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
+        <f>(F94-J94)/(K94-J94)</f>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="5"/>
+        <f>F94/K94</f>
         <v>2.1331058020477816E-3</v>
       </c>
       <c r="I94">
@@ -28555,7 +28555,7 @@
         <v>2023</v>
       </c>
       <c r="R94">
-        <f t="shared" si="4"/>
+        <f>Q94-O94</f>
         <v>3</v>
       </c>
       <c r="S94">
@@ -28588,11 +28588,11 @@
         <v>44</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f>(F95-J95)/(K95-J95)</f>
         <v>9.1919623770842243E-2</v>
       </c>
       <c r="H95">
-        <f t="shared" si="5"/>
+        <f>F95/K95</f>
         <v>9.3856655290102384E-2</v>
       </c>
       <c r="I95">
@@ -28623,7 +28623,7 @@
         <v>2023</v>
       </c>
       <c r="R95">
-        <f t="shared" si="4"/>
+        <f>Q95-O95</f>
         <v>3</v>
       </c>
       <c r="S95">
@@ -28656,11 +28656,11 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
+        <f>(F96-J96)/(K96-J96)</f>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="5"/>
+        <f>F96/K96</f>
         <v>2.1331058020477816E-3</v>
       </c>
       <c r="I96">
@@ -28691,7 +28691,7 @@
         <v>2023</v>
       </c>
       <c r="R96">
-        <f t="shared" si="4"/>
+        <f>Q96-O96</f>
         <v>3</v>
       </c>
       <c r="S96">
@@ -28724,11 +28724,11 @@
         <v>22</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
+        <f>(F97-J97)/(K97-J97)</f>
         <v>4.4890979050876439E-2</v>
       </c>
       <c r="H97">
-        <f t="shared" si="5"/>
+        <f>F97/K97</f>
         <v>4.6928327645051192E-2</v>
       </c>
       <c r="I97">
@@ -28759,7 +28759,7 @@
         <v>2023</v>
       </c>
       <c r="R97">
-        <f t="shared" si="4"/>
+        <f>Q97-O97</f>
         <v>3</v>
       </c>
       <c r="S97">
@@ -28792,11 +28792,11 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
+        <f>(F98-J98)/(K98-J98)</f>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="5"/>
+        <f>F98/K98</f>
         <v>2.1331058020477816E-3</v>
       </c>
       <c r="I98">
@@ -28827,7 +28827,7 @@
         <v>2023</v>
       </c>
       <c r="R98">
-        <f t="shared" si="4"/>
+        <f>Q98-O98</f>
         <v>3</v>
       </c>
       <c r="S98">
@@ -28860,11 +28860,11 @@
         <v>47</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
+        <f>(F99-J99)/(K99-J99)</f>
         <v>9.8332620778110308E-2</v>
       </c>
       <c r="H99">
-        <f t="shared" si="5"/>
+        <f>F99/K99</f>
         <v>0.10025597269624573</v>
       </c>
       <c r="I99">
@@ -28895,7 +28895,7 @@
         <v>2023</v>
       </c>
       <c r="R99">
-        <f t="shared" si="4"/>
+        <f>Q99-O99</f>
         <v>3</v>
       </c>
       <c r="S99">
@@ -28922,11 +28922,11 @@
         <v>46</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f>(F100-J100)/(K100-J100)</f>
         <v>0.56133056133056125</v>
       </c>
       <c r="H100">
-        <f t="shared" si="5"/>
+        <f>F100/K100</f>
         <v>0.56673511293634493</v>
       </c>
       <c r="I100">
@@ -28957,7 +28957,7 @@
         <v>2019</v>
       </c>
       <c r="R100">
-        <f t="shared" si="4"/>
+        <f>Q100-O100</f>
         <v>3</v>
       </c>
       <c r="S100">
@@ -28981,11 +28981,11 @@
         <v>135</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
+        <f>(F101-J101)/(K101-J101)</f>
         <v>1.6715176715176714</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
+        <f>F101/K101</f>
         <v>1.6632443531827514</v>
       </c>
       <c r="I101">
@@ -29016,7 +29016,7 @@
         <v>2019</v>
       </c>
       <c r="R101">
-        <f t="shared" si="4"/>
+        <f>Q101-O101</f>
         <v>3</v>
       </c>
       <c r="S101">
@@ -29040,11 +29040,11 @@
         <v>68</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f>(F102-J102)/(K102-J102)</f>
         <v>0.83575883575883536</v>
       </c>
       <c r="H102">
-        <f t="shared" si="5"/>
+        <f>F102/K102</f>
         <v>0.83778234086242265</v>
       </c>
       <c r="I102">
@@ -29075,7 +29075,7 @@
         <v>2019</v>
       </c>
       <c r="R102">
-        <f t="shared" si="4"/>
+        <f>Q102-O102</f>
         <v>3</v>
       </c>
       <c r="S102">
@@ -29099,11 +29099,11 @@
         <v>102</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
+        <f>(F103-J103)/(K103-J103)</f>
         <v>1.2598752598752594</v>
       </c>
       <c r="H103">
-        <f t="shared" si="5"/>
+        <f>F103/K103</f>
         <v>1.256673511293634</v>
       </c>
       <c r="I103">
@@ -29134,7 +29134,7 @@
         <v>2019</v>
       </c>
       <c r="R103">
-        <f t="shared" si="4"/>
+        <f>Q103-O103</f>
         <v>3</v>
       </c>
       <c r="S103">
@@ -29158,11 +29158,11 @@
         <v>97</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
+        <f>(F104-J104)/(K104-J104)</f>
         <v>1.1975051975051969</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
+        <f>F104/K104</f>
         <v>1.1950718685831618</v>
       </c>
       <c r="I104">
@@ -29193,7 +29193,7 @@
         <v>2019</v>
       </c>
       <c r="R104">
-        <f t="shared" si="4"/>
+        <f>Q104-O104</f>
         <v>3</v>
       </c>
       <c r="S104">
@@ -29217,11 +29217,11 @@
         <v>39</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
+        <f>(F105-J105)/(K105-J105)</f>
         <v>0.47401247401247382</v>
       </c>
       <c r="H105">
-        <f t="shared" si="5"/>
+        <f>F105/K105</f>
         <v>0.48049281314168357</v>
       </c>
       <c r="I105">
@@ -29252,7 +29252,7 @@
         <v>2019</v>
       </c>
       <c r="R105">
-        <f t="shared" si="4"/>
+        <f>Q105-O105</f>
         <v>3</v>
       </c>
       <c r="S105">
@@ -29282,11 +29282,11 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
+        <f>(F106-J106)/(K106-J106)</f>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="5"/>
+        <f>F106/K106</f>
         <v>1.2320328542094451E-2</v>
       </c>
       <c r="I106">
@@ -29317,7 +29317,7 @@
         <v>2019</v>
       </c>
       <c r="R106">
-        <f t="shared" si="4"/>
+        <f>Q106-O106</f>
         <v>3</v>
       </c>
       <c r="S106">
@@ -29347,11 +29347,11 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <f>(F107-J107)/(K107-J107)</f>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="5"/>
+        <f>F107/K107</f>
         <v>1.2320328542094451E-2</v>
       </c>
       <c r="I107">
@@ -29382,7 +29382,7 @@
         <v>2019</v>
       </c>
       <c r="R107">
-        <f t="shared" si="4"/>
+        <f>Q107-O107</f>
         <v>3</v>
       </c>
       <c r="S107">
@@ -29412,11 +29412,11 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
+        <f>(F108-J108)/(K108-J108)</f>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="5"/>
+        <f>F108/K108</f>
         <v>1.2320328542094451E-2</v>
       </c>
       <c r="I108">
@@ -29447,7 +29447,7 @@
         <v>2019</v>
       </c>
       <c r="R108">
-        <f t="shared" si="4"/>
+        <f>Q108-O108</f>
         <v>3</v>
       </c>
       <c r="S108">
@@ -29471,11 +29471,11 @@
         <v>18713</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <f>(F109-J109)/(K109-J109)</f>
         <v>0.87554411870806381</v>
       </c>
       <c r="H109">
-        <f t="shared" si="5"/>
+        <f>F109/K109</f>
         <v>0.87852397831036833</v>
       </c>
       <c r="I109">
@@ -29506,7 +29506,7 @@
         <v>2024</v>
       </c>
       <c r="R109">
-        <f t="shared" si="4"/>
+        <f>Q109-O109</f>
         <v>5</v>
       </c>
       <c r="S109">
@@ -29533,11 +29533,11 @@
         <v>23888</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f>(F110-J110)/(K110-J110)</f>
         <v>1.1244558812919363</v>
       </c>
       <c r="H110">
-        <f t="shared" si="5"/>
+        <f>F110/K110</f>
         <v>1.1214760216896318</v>
       </c>
       <c r="I110">
@@ -29568,7 +29568,7 @@
         <v>2024</v>
       </c>
       <c r="R110">
-        <f t="shared" si="4"/>
+        <f>Q110-O110</f>
         <v>5</v>
       </c>
       <c r="S110">
@@ -29598,11 +29598,11 @@
         <v>1103</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
+        <f>(F111-J111)/(K111-J111)</f>
         <v>2.8522642553089152E-2</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
+        <f>F111/K111</f>
         <v>5.1782821999483579E-2</v>
       </c>
       <c r="I111">
@@ -29633,7 +29633,7 @@
         <v>2024</v>
       </c>
       <c r="R111">
-        <f t="shared" si="4"/>
+        <f>Q111-O111</f>
         <v>5</v>
       </c>
       <c r="S111">
@@ -29666,11 +29666,11 @@
         <v>510</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f>(F112-J112)/(K112-J112)</f>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="5"/>
+        <f>F112/K112</f>
         <v>2.3943099927231756E-2</v>
       </c>
       <c r="I112">
@@ -29701,7 +29701,7 @@
         <v>2024</v>
       </c>
       <c r="R112">
-        <f t="shared" si="4"/>
+        <f>Q112-O112</f>
         <v>5</v>
       </c>
       <c r="S112">
@@ -29734,11 +29734,11 @@
         <v>770</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <f>(F113-J113)/(K113-J113)</f>
         <v>1.2505711743344316E-2</v>
       </c>
       <c r="H113">
-        <f t="shared" si="5"/>
+        <f>F113/K113</f>
         <v>3.6149386164644019E-2</v>
       </c>
       <c r="I113">
@@ -29769,7 +29769,7 @@
         <v>2024</v>
       </c>
       <c r="R113">
-        <f t="shared" si="4"/>
+        <f>Q113-O113</f>
         <v>5</v>
       </c>
       <c r="S113">
@@ -29796,11 +29796,11 @@
         <v>257</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
+        <f>(F114-J114)/(K114-J114)</f>
         <v>0.5740011254924029</v>
       </c>
       <c r="H114">
-        <f t="shared" si="5"/>
+        <f>F114/K114</f>
         <v>0.57591036414565822</v>
       </c>
       <c r="I114">
@@ -29831,7 +29831,7 @@
         <v>2020</v>
       </c>
       <c r="R114">
-        <f t="shared" si="4"/>
+        <f>Q114-O114</f>
         <v>3</v>
       </c>
       <c r="S114">
@@ -29858,11 +29858,11 @@
         <v>438</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <f>(F115-J115)/(K115-J115)</f>
         <v>0.98142937535171637</v>
       </c>
       <c r="H115">
-        <f t="shared" si="5"/>
+        <f>F115/K115</f>
         <v>0.98151260504201676</v>
       </c>
       <c r="I115">
@@ -29893,7 +29893,7 @@
         <v>2020</v>
       </c>
       <c r="R115">
-        <f t="shared" si="4"/>
+        <f>Q115-O115</f>
         <v>3</v>
       </c>
       <c r="S115">
@@ -29920,11 +29920,11 @@
         <v>411</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <f>(F116-J116)/(K116-J116)</f>
         <v>0.92065278559369723</v>
       </c>
       <c r="H116">
-        <f t="shared" si="5"/>
+        <f>F116/K116</f>
         <v>0.92100840336134449</v>
       </c>
       <c r="I116">
@@ -29955,7 +29955,7 @@
         <v>2020</v>
       </c>
       <c r="R116">
-        <f t="shared" si="4"/>
+        <f>Q116-O116</f>
         <v>3</v>
       </c>
       <c r="S116">
@@ -29982,11 +29982,11 @@
         <v>293</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <f>(F117-J117)/(K117-J117)</f>
         <v>0.65503657850309516</v>
       </c>
       <c r="H117">
-        <f t="shared" si="5"/>
+        <f>F117/K117</f>
         <v>0.65658263305322129</v>
       </c>
       <c r="I117">
@@ -30017,7 +30017,7 @@
         <v>2020</v>
       </c>
       <c r="R117">
-        <f t="shared" si="4"/>
+        <f>Q117-O117</f>
         <v>3</v>
       </c>
       <c r="S117">
@@ -30044,11 +30044,11 @@
         <v>314</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
+        <f>(F118-J118)/(K118-J118)</f>
         <v>0.70230725942599892</v>
       </c>
       <c r="H118">
-        <f t="shared" si="5"/>
+        <f>F118/K118</f>
         <v>0.70364145658263311</v>
       </c>
       <c r="I118">
@@ -30079,7 +30079,7 @@
         <v>2020</v>
       </c>
       <c r="R118">
-        <f t="shared" si="4"/>
+        <f>Q118-O118</f>
         <v>3</v>
       </c>
       <c r="S118">
@@ -30106,11 +30106,11 @@
         <v>435</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
+        <f>(F119-J119)/(K119-J119)</f>
         <v>0.97467642093415874</v>
       </c>
       <c r="H119">
-        <f t="shared" si="5"/>
+        <f>F119/K119</f>
         <v>0.97478991596638653</v>
       </c>
       <c r="I119">
@@ -30141,7 +30141,7 @@
         <v>2020</v>
       </c>
       <c r="R119">
-        <f t="shared" si="4"/>
+        <f>Q119-O119</f>
         <v>3</v>
       </c>
       <c r="S119">
@@ -30168,11 +30168,11 @@
         <v>728</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
+        <f>(F120-J120)/(K120-J120)</f>
         <v>1.6342149690489589</v>
       </c>
       <c r="H120">
-        <f t="shared" si="5"/>
+        <f>F120/K120</f>
         <v>1.6313725490196078</v>
       </c>
       <c r="I120">
@@ -30203,7 +30203,7 @@
         <v>2020</v>
       </c>
       <c r="R120">
-        <f t="shared" si="4"/>
+        <f>Q120-O120</f>
         <v>3</v>
       </c>
       <c r="S120">
@@ -30230,11 +30230,11 @@
         <v>694</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
+        <f>(F121-J121)/(K121-J121)</f>
         <v>1.5576814856499719</v>
       </c>
       <c r="H121">
-        <f t="shared" si="5"/>
+        <f>F121/K121</f>
         <v>1.5551820728291317</v>
       </c>
       <c r="I121">
@@ -30265,7 +30265,7 @@
         <v>2020</v>
       </c>
       <c r="R121">
-        <f t="shared" si="4"/>
+        <f>Q121-O121</f>
         <v>3</v>
       </c>
       <c r="S121">
@@ -30298,11 +30298,11 @@
         <v>2</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
+        <f>(F122-J122)/(K122-J122)</f>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="5"/>
+        <f>F122/K122</f>
         <v>4.4817927170868344E-3</v>
       </c>
       <c r="I122">
@@ -30333,7 +30333,7 @@
         <v>2020</v>
       </c>
       <c r="R122">
-        <f t="shared" si="4"/>
+        <f>Q122-O122</f>
         <v>3</v>
       </c>
       <c r="S122">
@@ -30366,11 +30366,11 @@
         <v>17</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
+        <f>(F123-J123)/(K123-J123)</f>
         <v>3.3764772087788407E-2</v>
       </c>
       <c r="H123">
-        <f t="shared" si="5"/>
+        <f>F123/K123</f>
         <v>3.8095238095238099E-2</v>
       </c>
       <c r="I123">
@@ -30401,7 +30401,7 @@
         <v>2020</v>
       </c>
       <c r="R123">
-        <f t="shared" si="4"/>
+        <f>Q123-O123</f>
         <v>3</v>
       </c>
       <c r="S123">
@@ -30434,11 +30434,11 @@
         <v>25</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
+        <f>(F124-J124)/(K124-J124)</f>
         <v>5.1772650534608888E-2</v>
       </c>
       <c r="H124">
-        <f t="shared" si="5"/>
+        <f>F124/K124</f>
         <v>5.6022408963585436E-2</v>
       </c>
       <c r="I124">
@@ -30469,7 +30469,7 @@
         <v>2020</v>
       </c>
       <c r="R124">
-        <f t="shared" si="4"/>
+        <f>Q124-O124</f>
         <v>3</v>
       </c>
       <c r="S124">
@@ -30496,11 +30496,11 @@
         <v>242</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
+        <f>(F125-J125)/(K125-J125)</f>
         <v>0.79762611275964401</v>
       </c>
       <c r="H125">
-        <f t="shared" si="5"/>
+        <f>F125/K125</f>
         <v>0.8098159509202455</v>
       </c>
       <c r="I125">
@@ -30531,7 +30531,7 @@
         <v>2024</v>
       </c>
       <c r="R125">
-        <f t="shared" si="4"/>
+        <f>Q125-O125</f>
         <v>7</v>
       </c>
       <c r="S125">
@@ -30558,11 +30558,11 @@
         <v>393</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
+        <f>(F126-J126)/(K126-J126)</f>
         <v>1.3353115727002969</v>
       </c>
       <c r="H126">
-        <f t="shared" si="5"/>
+        <f>F126/K126</f>
         <v>1.3151143335192417</v>
       </c>
       <c r="I126">
@@ -30593,7 +30593,7 @@
         <v>2024</v>
       </c>
       <c r="R126">
-        <f t="shared" si="4"/>
+        <f>Q126-O126</f>
         <v>7</v>
       </c>
       <c r="S126">
@@ -30620,11 +30620,11 @@
         <v>267</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
+        <f>(F127-J127)/(K127-J127)</f>
         <v>0.8866468842729982</v>
       </c>
       <c r="H127">
-        <f t="shared" si="5"/>
+        <f>F127/K127</f>
         <v>0.89347462353597429</v>
       </c>
       <c r="I127">
@@ -30655,7 +30655,7 @@
         <v>2024</v>
       </c>
       <c r="R127">
-        <f t="shared" si="4"/>
+        <f>Q127-O127</f>
         <v>7</v>
       </c>
       <c r="S127">
@@ -30682,11 +30682,11 @@
         <v>203</v>
       </c>
       <c r="G128">
-        <f t="shared" si="3"/>
+        <f>(F128-J128)/(K128-J128)</f>
         <v>0.65875370919881393</v>
       </c>
       <c r="H128">
-        <f t="shared" si="5"/>
+        <f>F128/K128</f>
         <v>0.67930842163971084</v>
       </c>
       <c r="I128">
@@ -30717,7 +30717,7 @@
         <v>2024</v>
       </c>
       <c r="R128">
-        <f t="shared" si="4"/>
+        <f>Q128-O128</f>
         <v>7</v>
       </c>
       <c r="S128">
@@ -30744,11 +30744,11 @@
         <v>275</v>
       </c>
       <c r="G129">
-        <f t="shared" si="3"/>
+        <f>(F129-J129)/(K129-J129)</f>
         <v>0.91513353115727125</v>
       </c>
       <c r="H129">
-        <f t="shared" si="5"/>
+        <f>F129/K129</f>
         <v>0.92024539877300726</v>
       </c>
       <c r="I129">
@@ -30779,7 +30779,7 @@
         <v>2024</v>
       </c>
       <c r="R129">
-        <f t="shared" si="4"/>
+        <f>Q129-O129</f>
         <v>7</v>
       </c>
       <c r="S129">
@@ -30806,11 +30806,11 @@
         <v>290</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G193" si="6">(F130-J130)/(K130-J130)</f>
+        <f>(F130-J130)/(K130-J130)</f>
         <v>0.96854599406528319</v>
       </c>
       <c r="H130">
-        <f t="shared" si="5"/>
+        <f>F130/K130</f>
         <v>0.970440602342444</v>
       </c>
       <c r="I130">
@@ -30841,7 +30841,7 @@
         <v>2024</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R193" si="7">Q130-O130</f>
+        <f>Q130-O130</f>
         <v>7</v>
       </c>
       <c r="S130">
@@ -30868,11 +30868,11 @@
         <v>324</v>
       </c>
       <c r="G131">
-        <f t="shared" si="6"/>
+        <f>(F131-J131)/(K131-J131)</f>
         <v>1.0896142433234435</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="8">F131/K131</f>
+        <f>F131/K131</f>
         <v>1.084216397099834</v>
       </c>
       <c r="I131">
@@ -30903,7 +30903,7 @@
         <v>2024</v>
       </c>
       <c r="R131">
-        <f t="shared" si="7"/>
+        <f>Q131-O131</f>
         <v>7</v>
       </c>
       <c r="S131">
@@ -30930,11 +30930,11 @@
         <v>262</v>
       </c>
       <c r="G132">
-        <f t="shared" si="6"/>
+        <f>(F132-J132)/(K132-J132)</f>
         <v>0.86884272997032752</v>
       </c>
       <c r="H132">
-        <f t="shared" si="8"/>
+        <f>F132/K132</f>
         <v>0.87674288901282871</v>
       </c>
       <c r="I132">
@@ -30965,7 +30965,7 @@
         <v>2024</v>
       </c>
       <c r="R132">
-        <f t="shared" si="7"/>
+        <f>Q132-O132</f>
         <v>7</v>
       </c>
       <c r="S132">
@@ -30992,11 +30992,11 @@
         <v>222</v>
       </c>
       <c r="G133">
-        <f t="shared" si="6"/>
+        <f>(F133-J133)/(K133-J133)</f>
         <v>0.72640949554896239</v>
       </c>
       <c r="H133">
-        <f t="shared" si="8"/>
+        <f>F133/K133</f>
         <v>0.74288901282766406</v>
       </c>
       <c r="I133">
@@ -31027,7 +31027,7 @@
         <v>2024</v>
       </c>
       <c r="R133">
-        <f t="shared" si="7"/>
+        <f>Q133-O133</f>
         <v>7</v>
       </c>
       <c r="S133">
@@ -31054,11 +31054,11 @@
         <v>300</v>
       </c>
       <c r="G134">
-        <f t="shared" si="6"/>
+        <f>(F134-J134)/(K134-J134)</f>
         <v>1.0041543026706243</v>
       </c>
       <c r="H134">
-        <f t="shared" si="8"/>
+        <f>F134/K134</f>
         <v>1.0039040713887353</v>
       </c>
       <c r="I134">
@@ -31089,7 +31089,7 @@
         <v>2024</v>
       </c>
       <c r="R134">
-        <f t="shared" si="7"/>
+        <f>Q134-O134</f>
         <v>7</v>
       </c>
       <c r="S134">
@@ -31116,11 +31116,11 @@
         <v>587</v>
       </c>
       <c r="G135">
-        <f t="shared" si="6"/>
+        <f>(F135-J135)/(K135-J135)</f>
         <v>2.0261127596439197</v>
       </c>
       <c r="H135">
-        <f t="shared" si="8"/>
+        <f>F135/K135</f>
         <v>1.9643056330172919</v>
       </c>
       <c r="I135">
@@ -31151,7 +31151,7 @@
         <v>2024</v>
       </c>
       <c r="R135">
-        <f t="shared" si="7"/>
+        <f>Q135-O135</f>
         <v>7</v>
       </c>
       <c r="S135">
@@ -31178,11 +31178,11 @@
         <v>221</v>
       </c>
       <c r="G136">
-        <f t="shared" si="6"/>
+        <f>(F136-J136)/(K136-J136)</f>
         <v>0.72284866468842823</v>
       </c>
       <c r="H136">
-        <f t="shared" si="8"/>
+        <f>F136/K136</f>
         <v>0.73954266592303486</v>
       </c>
       <c r="I136">
@@ -31213,7 +31213,7 @@
         <v>2024</v>
       </c>
       <c r="R136">
-        <f t="shared" si="7"/>
+        <f>Q136-O136</f>
         <v>7</v>
       </c>
       <c r="S136">
@@ -31246,11 +31246,11 @@
         <v>45</v>
       </c>
       <c r="G137">
-        <f t="shared" si="6"/>
+        <f>(F137-J137)/(K137-J137)</f>
         <v>9.6142433234421482E-2</v>
       </c>
       <c r="H137">
-        <f t="shared" si="8"/>
+        <f>F137/K137</f>
         <v>0.15058561070831028</v>
       </c>
       <c r="I137">
@@ -31281,7 +31281,7 @@
         <v>2024</v>
       </c>
       <c r="R137">
-        <f t="shared" si="7"/>
+        <f>Q137-O137</f>
         <v>7</v>
       </c>
       <c r="S137">
@@ -31314,11 +31314,11 @@
         <v>103</v>
       </c>
       <c r="G138">
-        <f t="shared" si="6"/>
+        <f>(F138-J138)/(K138-J138)</f>
         <v>0.302670623145401</v>
       </c>
       <c r="H138">
-        <f t="shared" si="8"/>
+        <f>F138/K138</f>
         <v>0.34467373117679906</v>
       </c>
       <c r="I138">
@@ -31349,7 +31349,7 @@
         <v>2024</v>
       </c>
       <c r="R138">
-        <f t="shared" si="7"/>
+        <f>Q138-O138</f>
         <v>7</v>
       </c>
       <c r="S138">
@@ -31382,11 +31382,11 @@
         <v>107</v>
       </c>
       <c r="G139">
-        <f t="shared" si="6"/>
+        <f>(F139-J139)/(K139-J139)</f>
         <v>0.31691394658753752</v>
       </c>
       <c r="H139">
-        <f t="shared" si="8"/>
+        <f>F139/K139</f>
         <v>0.35805911879531555</v>
       </c>
       <c r="I139">
@@ -31417,7 +31417,7 @@
         <v>2024</v>
       </c>
       <c r="R139">
-        <f t="shared" si="7"/>
+        <f>Q139-O139</f>
         <v>7</v>
       </c>
       <c r="S139">
@@ -31450,11 +31450,11 @@
         <v>30</v>
       </c>
       <c r="G140">
-        <f t="shared" si="6"/>
+        <f>(F140-J140)/(K140-J140)</f>
         <v>4.2729970326409551E-2</v>
       </c>
       <c r="H140">
-        <f t="shared" si="8"/>
+        <f>F140/K140</f>
         <v>0.10039040713887351</v>
       </c>
       <c r="I140">
@@ -31485,7 +31485,7 @@
         <v>2024</v>
       </c>
       <c r="R140">
-        <f t="shared" si="7"/>
+        <f>Q140-O140</f>
         <v>7</v>
       </c>
       <c r="S140">
@@ -31518,11 +31518,11 @@
         <v>18</v>
       </c>
       <c r="G141">
-        <f t="shared" si="6"/>
+        <f>(F141-J141)/(K141-J141)</f>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="8"/>
+        <f>F141/K141</f>
         <v>6.0234244283324113E-2</v>
       </c>
       <c r="I141">
@@ -31553,7 +31553,7 @@
         <v>2024</v>
       </c>
       <c r="R141">
-        <f t="shared" si="7"/>
+        <f>Q141-O141</f>
         <v>7</v>
       </c>
       <c r="S141">
@@ -31580,11 +31580,11 @@
         <v>784</v>
       </c>
       <c r="G142">
-        <f t="shared" si="6"/>
+        <f>(F142-J142)/(K142-J142)</f>
         <v>1.1505122143420017</v>
       </c>
       <c r="H142">
-        <f t="shared" si="8"/>
+        <f>F142/K142</f>
         <v>1.1387073347857661</v>
       </c>
       <c r="I142">
@@ -31615,7 +31615,7 @@
         <v>2024</v>
       </c>
       <c r="R142">
-        <f t="shared" si="7"/>
+        <f>Q142-O142</f>
         <v>7</v>
       </c>
       <c r="S142">
@@ -31642,11 +31642,11 @@
         <v>593</v>
       </c>
       <c r="G143">
-        <f t="shared" si="6"/>
+        <f>(F143-J143)/(K143-J143)</f>
         <v>0.84948778565799843</v>
       </c>
       <c r="H143">
-        <f t="shared" si="8"/>
+        <f>F143/K143</f>
         <v>0.86129266521423387</v>
       </c>
       <c r="I143">
@@ -31677,7 +31677,7 @@
         <v>2024</v>
       </c>
       <c r="R143">
-        <f t="shared" si="7"/>
+        <f>Q143-O143</f>
         <v>7</v>
       </c>
       <c r="S143">
@@ -31710,11 +31710,11 @@
         <v>54</v>
       </c>
       <c r="G144">
-        <f t="shared" si="6"/>
+        <f>(F144-J144)/(K144-J144)</f>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="8"/>
+        <f>F144/K144</f>
         <v>7.8431372549019607E-2</v>
       </c>
       <c r="I144">
@@ -31745,7 +31745,7 @@
         <v>2024</v>
       </c>
       <c r="R144">
-        <f t="shared" si="7"/>
+        <f>Q144-O144</f>
         <v>7</v>
       </c>
       <c r="S144">
@@ -31778,11 +31778,11 @@
         <v>112</v>
       </c>
       <c r="G145">
-        <f t="shared" si="6"/>
+        <f>(F145-J145)/(K145-J145)</f>
         <v>9.1410559495665872E-2</v>
       </c>
       <c r="H145">
-        <f t="shared" si="8"/>
+        <f>F145/K145</f>
         <v>0.16267247639796659</v>
       </c>
       <c r="I145">
@@ -31813,7 +31813,7 @@
         <v>2024</v>
       </c>
       <c r="R145">
-        <f t="shared" si="7"/>
+        <f>Q145-O145</f>
         <v>7</v>
       </c>
       <c r="S145">
@@ -31846,11 +31846,11 @@
         <v>150</v>
       </c>
       <c r="G146">
-        <f t="shared" si="6"/>
+        <f>(F146-J146)/(K146-J146)</f>
         <v>0.15130023640661938</v>
       </c>
       <c r="H146">
-        <f t="shared" si="8"/>
+        <f>F146/K146</f>
         <v>0.2178649237472767</v>
       </c>
       <c r="I146">
@@ -31881,7 +31881,7 @@
         <v>2024</v>
       </c>
       <c r="R146">
-        <f t="shared" si="7"/>
+        <f>Q146-O146</f>
         <v>7</v>
       </c>
       <c r="S146">
@@ -31914,11 +31914,11 @@
         <v>370</v>
       </c>
       <c r="G147">
-        <f t="shared" si="6"/>
+        <f>(F147-J147)/(K147-J147)</f>
         <v>0.49802994483845547</v>
       </c>
       <c r="H147">
-        <f t="shared" si="8"/>
+        <f>F147/K147</f>
         <v>0.5374001452432825</v>
       </c>
       <c r="I147">
@@ -31949,7 +31949,7 @@
         <v>2024</v>
       </c>
       <c r="R147">
-        <f t="shared" si="7"/>
+        <f>Q147-O147</f>
         <v>7</v>
       </c>
       <c r="S147">
@@ -31976,11 +31976,11 @@
         <v>2259</v>
       </c>
       <c r="G148">
-        <f t="shared" si="6"/>
+        <f>(F148-J148)/(K148-J148)</f>
         <v>0.86263662963073739</v>
       </c>
       <c r="H148">
-        <f t="shared" si="8"/>
+        <f>F148/K148</f>
         <v>0.88646185565230284</v>
       </c>
       <c r="I148">
@@ -32011,7 +32011,7 @@
         <v>2024</v>
       </c>
       <c r="R148">
-        <f t="shared" si="7"/>
+        <f>Q148-O148</f>
         <v>7</v>
       </c>
       <c r="S148">
@@ -32038,11 +32038,11 @@
         <v>2804</v>
       </c>
       <c r="G149">
-        <f t="shared" si="6"/>
+        <f>(F149-J149)/(K149-J149)</f>
         <v>1.1213801426460108</v>
       </c>
       <c r="H149">
-        <f t="shared" si="8"/>
+        <f>F149/K149</f>
         <v>1.1003271550460634</v>
       </c>
       <c r="I149">
@@ -32073,7 +32073,7 @@
         <v>2024</v>
       </c>
       <c r="R149">
-        <f t="shared" si="7"/>
+        <f>Q149-O149</f>
         <v>7</v>
       </c>
       <c r="S149">
@@ -32100,11 +32100,11 @@
         <v>2582</v>
       </c>
       <c r="G150">
-        <f t="shared" si="6"/>
+        <f>(F150-J150)/(K150-J150)</f>
         <v>1.0159837024819911</v>
       </c>
       <c r="H150">
-        <f t="shared" si="8"/>
+        <f>F150/K150</f>
         <v>1.013211381715027</v>
       </c>
       <c r="I150">
@@ -32135,7 +32135,7 @@
         <v>2024</v>
       </c>
       <c r="R150">
-        <f t="shared" si="7"/>
+        <f>Q150-O150</f>
         <v>7</v>
       </c>
       <c r="S150">
@@ -32168,11 +32168,11 @@
         <v>442</v>
       </c>
       <c r="G151">
-        <f t="shared" si="6"/>
+        <f>(F151-J151)/(K151-J151)</f>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="8"/>
+        <f>F151/K151</f>
         <v>0.17344671987530672</v>
       </c>
       <c r="I151">
@@ -32203,7 +32203,7 @@
         <v>2024</v>
       </c>
       <c r="R151">
-        <f t="shared" si="7"/>
+        <f>Q151-O151</f>
         <v>7</v>
       </c>
       <c r="S151">
@@ -32236,11 +32236,11 @@
         <v>1103</v>
       </c>
       <c r="G152">
-        <f t="shared" si="6"/>
+        <f>(F152-J152)/(K152-J152)</f>
         <v>0.31381552679467112</v>
       </c>
       <c r="H152">
-        <f t="shared" si="8"/>
+        <f>F152/K152</f>
         <v>0.43283197290150072</v>
       </c>
       <c r="I152">
@@ -32271,7 +32271,7 @@
         <v>2024</v>
       </c>
       <c r="R152">
-        <f t="shared" si="7"/>
+        <f>Q152-O152</f>
         <v>7</v>
       </c>
       <c r="S152">
@@ -32298,11 +32298,11 @@
         <v>172</v>
       </c>
       <c r="G153">
-        <f t="shared" si="6"/>
+        <f>(F153-J153)/(K153-J153)</f>
         <v>1.2528301886792452</v>
       </c>
       <c r="H153">
-        <f t="shared" si="8"/>
+        <f>F153/K153</f>
         <v>1.2418772563176896</v>
       </c>
       <c r="I153">
@@ -32333,7 +32333,7 @@
         <v>2023</v>
       </c>
       <c r="R153">
-        <f t="shared" si="7"/>
+        <f>Q153-O153</f>
         <v>3</v>
       </c>
       <c r="S153">
@@ -32360,11 +32360,11 @@
         <v>109</v>
       </c>
       <c r="G154">
-        <f t="shared" si="6"/>
+        <f>(F154-J154)/(K154-J154)</f>
         <v>0.77735849056603779</v>
       </c>
       <c r="H154">
-        <f t="shared" si="8"/>
+        <f>F154/K154</f>
         <v>0.78700361010830322</v>
       </c>
       <c r="I154">
@@ -32395,7 +32395,7 @@
         <v>2023</v>
       </c>
       <c r="R154">
-        <f t="shared" si="7"/>
+        <f>Q154-O154</f>
         <v>3</v>
       </c>
       <c r="S154">
@@ -32422,11 +32422,11 @@
         <v>113</v>
       </c>
       <c r="G155">
-        <f t="shared" si="6"/>
+        <f>(F155-J155)/(K155-J155)</f>
         <v>0.8075471698113208</v>
       </c>
       <c r="H155">
-        <f t="shared" si="8"/>
+        <f>F155/K155</f>
         <v>0.81588447653429608</v>
       </c>
       <c r="I155">
@@ -32457,7 +32457,7 @@
         <v>2023</v>
       </c>
       <c r="R155">
-        <f t="shared" si="7"/>
+        <f>Q155-O155</f>
         <v>3</v>
       </c>
       <c r="S155">
@@ -32484,11 +32484,11 @@
         <v>160</v>
       </c>
       <c r="G156">
-        <f t="shared" si="6"/>
+        <f>(F156-J156)/(K156-J156)</f>
         <v>1.1622641509433962</v>
       </c>
       <c r="H156">
-        <f t="shared" si="8"/>
+        <f>F156/K156</f>
         <v>1.1552346570397112</v>
       </c>
       <c r="I156">
@@ -32519,7 +32519,7 @@
         <v>2023</v>
       </c>
       <c r="R156">
-        <f t="shared" si="7"/>
+        <f>Q156-O156</f>
         <v>3</v>
       </c>
       <c r="S156">
@@ -32552,11 +32552,11 @@
         <v>11</v>
       </c>
       <c r="G157">
-        <f t="shared" si="6"/>
+        <f>(F157-J157)/(K157-J157)</f>
         <v>3.7735849056603772E-2</v>
       </c>
       <c r="H157">
-        <f t="shared" si="8"/>
+        <f>F157/K157</f>
         <v>7.9422382671480149E-2</v>
       </c>
       <c r="I157">
@@ -32587,7 +32587,7 @@
         <v>2023</v>
       </c>
       <c r="R157">
-        <f t="shared" si="7"/>
+        <f>Q157-O157</f>
         <v>3</v>
       </c>
       <c r="S157">
@@ -32620,11 +32620,11 @@
         <v>11</v>
       </c>
       <c r="G158">
-        <f t="shared" si="6"/>
+        <f>(F158-J158)/(K158-J158)</f>
         <v>3.7735849056603772E-2</v>
       </c>
       <c r="H158">
-        <f t="shared" si="8"/>
+        <f>F158/K158</f>
         <v>7.9422382671480149E-2</v>
       </c>
       <c r="I158">
@@ -32655,7 +32655,7 @@
         <v>2023</v>
       </c>
       <c r="R158">
-        <f t="shared" si="7"/>
+        <f>Q158-O158</f>
         <v>3</v>
       </c>
       <c r="S158">
@@ -32688,11 +32688,11 @@
         <v>9</v>
       </c>
       <c r="G159">
-        <f t="shared" si="6"/>
+        <f>(F159-J159)/(K159-J159)</f>
         <v>2.2641509433962263E-2</v>
       </c>
       <c r="H159">
-        <f t="shared" si="8"/>
+        <f>F159/K159</f>
         <v>6.4981949458483748E-2</v>
       </c>
       <c r="I159">
@@ -32723,7 +32723,7 @@
         <v>2023</v>
       </c>
       <c r="R159">
-        <f t="shared" si="7"/>
+        <f>Q159-O159</f>
         <v>3</v>
       </c>
       <c r="S159">
@@ -32756,11 +32756,11 @@
         <v>6</v>
       </c>
       <c r="G160">
-        <f t="shared" si="6"/>
+        <f>(F160-J160)/(K160-J160)</f>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="8"/>
+        <f>F160/K160</f>
         <v>4.3321299638989168E-2</v>
       </c>
       <c r="I160">
@@ -32791,7 +32791,7 @@
         <v>2023</v>
       </c>
       <c r="R160">
-        <f t="shared" si="7"/>
+        <f>Q160-O160</f>
         <v>3</v>
       </c>
       <c r="S160">
@@ -32824,11 +32824,11 @@
         <v>8</v>
       </c>
       <c r="G161">
-        <f t="shared" si="6"/>
+        <f>(F161-J161)/(K161-J161)</f>
         <v>1.509433962264151E-2</v>
       </c>
       <c r="H161">
-        <f t="shared" si="8"/>
+        <f>F161/K161</f>
         <v>5.7761732851985562E-2</v>
       </c>
       <c r="I161">
@@ -32859,7 +32859,7 @@
         <v>2023</v>
       </c>
       <c r="R161">
-        <f t="shared" si="7"/>
+        <f>Q161-O161</f>
         <v>3</v>
       </c>
       <c r="S161">
@@ -32892,11 +32892,11 @@
         <v>7</v>
       </c>
       <c r="G162">
-        <f t="shared" si="6"/>
+        <f>(F162-J162)/(K162-J162)</f>
         <v>7.5471698113207548E-3</v>
       </c>
       <c r="H162">
-        <f t="shared" si="8"/>
+        <f>F162/K162</f>
         <v>5.0541516245487361E-2</v>
       </c>
       <c r="I162">
@@ -32927,7 +32927,7 @@
         <v>2023</v>
       </c>
       <c r="R162">
-        <f t="shared" si="7"/>
+        <f>Q162-O162</f>
         <v>3</v>
       </c>
       <c r="S162">
@@ -32954,11 +32954,11 @@
         <v>13539</v>
       </c>
       <c r="G163">
-        <f t="shared" si="6"/>
+        <f>(F163-J163)/(K163-J163)</f>
         <v>0.84460775076942407</v>
       </c>
       <c r="H163">
-        <f t="shared" si="8"/>
+        <f>F163/K163</f>
         <v>0.84550053081870979</v>
       </c>
       <c r="I163">
@@ -32989,7 +32989,7 @@
         <v>2024</v>
       </c>
       <c r="R163">
-        <f t="shared" si="7"/>
+        <f>Q163-O163</f>
         <v>7</v>
       </c>
       <c r="S163">
@@ -33016,11 +33016,11 @@
         <v>14046</v>
       </c>
       <c r="G164">
-        <f t="shared" si="6"/>
+        <f>(F164-J164)/(K164-J164)</f>
         <v>0.87645248414044341</v>
       </c>
       <c r="H164">
-        <f t="shared" si="8"/>
+        <f>F164/K164</f>
         <v>0.8771623056266783</v>
       </c>
       <c r="I164">
@@ -33051,7 +33051,7 @@
         <v>2024</v>
       </c>
       <c r="R164">
-        <f t="shared" si="7"/>
+        <f>Q164-O164</f>
         <v>7</v>
       </c>
       <c r="S164">
@@ -33078,11 +33078,11 @@
         <v>16735</v>
       </c>
       <c r="G165">
-        <f t="shared" si="6"/>
+        <f>(F165-J165)/(K165-J165)</f>
         <v>1.0453489102443314</v>
       </c>
       <c r="H165">
-        <f t="shared" si="8"/>
+        <f>F165/K165</f>
         <v>1.0450883657028665</v>
       </c>
       <c r="I165">
@@ -33113,7 +33113,7 @@
         <v>2024</v>
       </c>
       <c r="R165">
-        <f t="shared" si="7"/>
+        <f>Q165-O165</f>
         <v>7</v>
       </c>
       <c r="S165">
@@ -33140,11 +33140,11 @@
         <v>13342</v>
       </c>
       <c r="G166">
-        <f t="shared" si="6"/>
+        <f>(F166-J166)/(K166-J166)</f>
         <v>0.83223415614597074</v>
       </c>
       <c r="H166">
-        <f t="shared" si="8"/>
+        <f>F166/K166</f>
         <v>0.83319802660338471</v>
       </c>
       <c r="I166">
@@ -33175,7 +33175,7 @@
         <v>2024</v>
       </c>
       <c r="R166">
-        <f t="shared" si="7"/>
+        <f>Q166-O166</f>
         <v>7</v>
       </c>
       <c r="S166">
@@ -33202,11 +33202,11 @@
         <v>17508</v>
       </c>
       <c r="G167">
-        <f t="shared" si="6"/>
+        <f>(F167-J167)/(K167-J167)</f>
         <v>1.0939011368632623</v>
       </c>
       <c r="H167">
-        <f t="shared" si="8"/>
+        <f>F167/K167</f>
         <v>1.0933616436645226</v>
       </c>
       <c r="I167">
@@ -33237,7 +33237,7 @@
         <v>2024</v>
       </c>
       <c r="R167">
-        <f t="shared" si="7"/>
+        <f>Q167-O167</f>
         <v>7</v>
       </c>
       <c r="S167">
@@ -33264,11 +33264,11 @@
         <v>19263</v>
       </c>
       <c r="G168">
-        <f t="shared" si="6"/>
+        <f>(F168-J168)/(K168-J168)</f>
         <v>1.2041329062244834</v>
       </c>
       <c r="H168">
-        <f t="shared" si="8"/>
+        <f>F168/K168</f>
         <v>1.2029600949228751</v>
       </c>
       <c r="I168">
@@ -33299,7 +33299,7 @@
         <v>2024</v>
       </c>
       <c r="R168">
-        <f t="shared" si="7"/>
+        <f>Q168-O168</f>
         <v>7</v>
       </c>
       <c r="S168">
@@ -33326,11 +33326,11 @@
         <v>17700</v>
       </c>
       <c r="G169">
-        <f t="shared" si="6"/>
+        <f>(F169-J169)/(K169-J169)</f>
         <v>1.1059606808617548</v>
       </c>
       <c r="H169">
-        <f t="shared" si="8"/>
+        <f>F169/K169</f>
         <v>1.1053519015799662</v>
       </c>
       <c r="I169">
@@ -33361,7 +33361,7 @@
         <v>2024</v>
       </c>
       <c r="R169">
-        <f t="shared" si="7"/>
+        <f>Q169-O169</f>
         <v>7</v>
       </c>
       <c r="S169">
@@ -33388,11 +33388,11 @@
         <v>15971</v>
       </c>
       <c r="G170">
-        <f t="shared" si="6"/>
+        <f>(F170-J170)/(K170-J170)</f>
         <v>0.99736197475032973</v>
       </c>
       <c r="H170">
-        <f t="shared" si="8"/>
+        <f>F170/K170</f>
         <v>0.99737713108099668</v>
       </c>
       <c r="I170">
@@ -33423,7 +33423,7 @@
         <v>2024</v>
       </c>
       <c r="R170">
-        <f t="shared" si="7"/>
+        <f>Q170-O170</f>
         <v>7</v>
       </c>
       <c r="S170">
@@ -33456,11 +33456,11 @@
         <v>92</v>
       </c>
       <c r="G171">
-        <f t="shared" si="6"/>
+        <f>(F171-J171)/(K171-J171)</f>
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="8"/>
+        <f>F171/K171</f>
         <v>5.7453319178167742E-3</v>
       </c>
       <c r="I171">
@@ -33491,7 +33491,7 @@
         <v>2024</v>
       </c>
       <c r="R171">
-        <f t="shared" si="7"/>
+        <f>Q171-O171</f>
         <v>7</v>
       </c>
       <c r="S171">
@@ -33524,11 +33524,11 @@
         <v>208</v>
       </c>
       <c r="G172">
-        <f t="shared" si="6"/>
+        <f>(F172-J172)/(K172-J172)</f>
         <v>7.2859744990892532E-3</v>
       </c>
       <c r="H172">
-        <f t="shared" si="8"/>
+        <f>F172/K172</f>
         <v>1.2989446075064011E-2</v>
       </c>
       <c r="I172">
@@ -33559,7 +33559,7 @@
         <v>2024</v>
       </c>
       <c r="R172">
-        <f t="shared" si="7"/>
+        <f>Q172-O172</f>
         <v>7</v>
       </c>
       <c r="S172">
@@ -33592,11 +33592,11 @@
         <v>312</v>
       </c>
       <c r="G173">
-        <f t="shared" si="6"/>
+        <f>(F173-J173)/(K173-J173)</f>
         <v>1.3818227498272722E-2</v>
       </c>
       <c r="H173">
-        <f t="shared" si="8"/>
+        <f>F173/K173</f>
         <v>1.9484169112596015E-2</v>
       </c>
       <c r="I173">
@@ -33627,7 +33627,7 @@
         <v>2024</v>
       </c>
       <c r="R173">
-        <f t="shared" si="7"/>
+        <f>Q173-O173</f>
         <v>7</v>
       </c>
       <c r="S173">
@@ -33660,11 +33660,11 @@
         <v>513</v>
       </c>
       <c r="G174">
-        <f t="shared" si="6"/>
+        <f>(F174-J174)/(K174-J174)</f>
         <v>2.6443062621694616E-2</v>
       </c>
       <c r="H174">
-        <f t="shared" si="8"/>
+        <f>F174/K174</f>
         <v>3.2036470367826142E-2</v>
       </c>
       <c r="I174">
@@ -33695,7 +33695,7 @@
         <v>2024</v>
       </c>
       <c r="R174">
-        <f t="shared" si="7"/>
+        <f>Q174-O174</f>
         <v>7</v>
       </c>
       <c r="S174">
@@ -33728,11 +33728,11 @@
         <v>486</v>
       </c>
       <c r="G175">
-        <f t="shared" si="6"/>
+        <f>(F175-J175)/(K175-J175)</f>
         <v>2.4747189246906602E-2</v>
       </c>
       <c r="H175">
-        <f t="shared" si="8"/>
+        <f>F175/K175</f>
         <v>3.035034034846687E-2</v>
       </c>
       <c r="I175">
@@ -33763,7 +33763,7 @@
         <v>2024</v>
       </c>
       <c r="R175">
-        <f t="shared" si="7"/>
+        <f>Q175-O175</f>
         <v>7</v>
       </c>
       <c r="S175">
@@ -33796,11 +33796,11 @@
         <v>546</v>
       </c>
       <c r="G176">
-        <f t="shared" si="6"/>
+        <f>(F176-J176)/(K176-J176)</f>
         <v>2.8515796746435524E-2</v>
       </c>
       <c r="H176">
-        <f t="shared" si="8"/>
+        <f>F176/K176</f>
         <v>3.4097295947043027E-2</v>
       </c>
       <c r="I176">
@@ -33831,7 +33831,7 @@
         <v>2024</v>
       </c>
       <c r="R176">
-        <f t="shared" si="7"/>
+        <f>Q176-O176</f>
         <v>7</v>
       </c>
       <c r="S176">
@@ -33864,11 +33864,11 @@
         <v>992</v>
       </c>
       <c r="G177">
-        <f t="shared" si="6"/>
+        <f>(F177-J177)/(K177-J177)</f>
         <v>5.652911249293386E-2</v>
       </c>
       <c r="H177">
-        <f t="shared" si="8"/>
+        <f>F177/K177</f>
         <v>6.194966589645913E-2</v>
       </c>
       <c r="I177">
@@ -33899,7 +33899,7 @@
         <v>2024</v>
       </c>
       <c r="R177">
-        <f t="shared" si="7"/>
+        <f>Q177-O177</f>
         <v>7</v>
       </c>
       <c r="S177">
@@ -33932,11 +33932,11 @@
         <v>700</v>
       </c>
       <c r="G178">
-        <f t="shared" si="6"/>
+        <f>(F178-J178)/(K178-J178)</f>
         <v>3.8188555995226428E-2</v>
       </c>
       <c r="H178">
-        <f t="shared" si="8"/>
+        <f>F178/K178</f>
         <v>4.3714481983388495E-2</v>
       </c>
       <c r="I178">
@@ -33967,7 +33967,7 @@
         <v>2024</v>
       </c>
       <c r="R178">
-        <f t="shared" si="7"/>
+        <f>Q178-O178</f>
         <v>7</v>
       </c>
       <c r="S178">
@@ -33994,11 +33994,11 @@
         <v>208</v>
       </c>
       <c r="G179">
-        <f t="shared" si="6"/>
+        <f>(F179-J179)/(K179-J179)</f>
         <v>0.97512437810945274</v>
       </c>
       <c r="H179">
-        <f t="shared" si="8"/>
+        <f>F179/K179</f>
         <v>0.97652582159624413</v>
       </c>
       <c r="I179">
@@ -34029,7 +34029,7 @@
         <v>2024</v>
       </c>
       <c r="R179">
-        <f t="shared" si="7"/>
+        <f>Q179-O179</f>
         <v>6</v>
       </c>
       <c r="S179">
@@ -34056,11 +34056,11 @@
         <v>217</v>
       </c>
       <c r="G180">
-        <f t="shared" si="6"/>
+        <f>(F180-J180)/(K180-J180)</f>
         <v>1.0199004975124377</v>
       </c>
       <c r="H180">
-        <f t="shared" si="8"/>
+        <f>F180/K180</f>
         <v>1.0187793427230047</v>
       </c>
       <c r="I180">
@@ -34091,7 +34091,7 @@
         <v>2024</v>
       </c>
       <c r="R180">
-        <f t="shared" si="7"/>
+        <f>Q180-O180</f>
         <v>6</v>
       </c>
       <c r="S180">
@@ -34118,11 +34118,11 @@
         <v>214</v>
       </c>
       <c r="G181">
-        <f t="shared" si="6"/>
+        <f>(F181-J181)/(K181-J181)</f>
         <v>1.0049751243781095</v>
       </c>
       <c r="H181">
-        <f t="shared" si="8"/>
+        <f>F181/K181</f>
         <v>1.0046948356807512</v>
       </c>
       <c r="I181">
@@ -34153,7 +34153,7 @@
         <v>2024</v>
       </c>
       <c r="R181">
-        <f t="shared" si="7"/>
+        <f>Q181-O181</f>
         <v>6</v>
       </c>
       <c r="S181">
@@ -34183,11 +34183,11 @@
         <v>48</v>
       </c>
       <c r="G182">
-        <f t="shared" si="6"/>
+        <f>(F182-J182)/(K182-J182)</f>
         <v>0.17910447761194029</v>
       </c>
       <c r="H182">
-        <f t="shared" si="8"/>
+        <f>F182/K182</f>
         <v>0.22535211267605634</v>
       </c>
       <c r="I182">
@@ -34218,7 +34218,7 @@
         <v>2024</v>
       </c>
       <c r="R182">
-        <f t="shared" si="7"/>
+        <f>Q182-O182</f>
         <v>6</v>
       </c>
       <c r="S182">
@@ -34251,11 +34251,11 @@
         <v>12</v>
       </c>
       <c r="G183">
-        <f t="shared" si="6"/>
+        <f>(F183-J183)/(K183-J183)</f>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="8"/>
+        <f>F183/K183</f>
         <v>5.6338028169014086E-2</v>
       </c>
       <c r="I183">
@@ -34286,7 +34286,7 @@
         <v>2024</v>
       </c>
       <c r="R183">
-        <f t="shared" si="7"/>
+        <f>Q183-O183</f>
         <v>6</v>
       </c>
       <c r="S183">
@@ -34319,11 +34319,11 @@
         <v>38</v>
       </c>
       <c r="G184">
-        <f t="shared" si="6"/>
+        <f>(F184-J184)/(K184-J184)</f>
         <v>0.12935323383084577</v>
       </c>
       <c r="H184">
-        <f t="shared" si="8"/>
+        <f>F184/K184</f>
         <v>0.17840375586854459</v>
       </c>
       <c r="I184">
@@ -34354,7 +34354,7 @@
         <v>2024</v>
       </c>
       <c r="R184">
-        <f t="shared" si="7"/>
+        <f>Q184-O184</f>
         <v>6</v>
       </c>
       <c r="S184">
@@ -34387,11 +34387,11 @@
         <v>33</v>
       </c>
       <c r="G185">
-        <f t="shared" si="6"/>
+        <f>(F185-J185)/(K185-J185)</f>
         <v>0.1044776119402985</v>
       </c>
       <c r="H185">
-        <f t="shared" si="8"/>
+        <f>F185/K185</f>
         <v>0.15492957746478872</v>
       </c>
       <c r="I185">
@@ -34422,7 +34422,7 @@
         <v>2024</v>
       </c>
       <c r="R185">
-        <f t="shared" si="7"/>
+        <f>Q185-O185</f>
         <v>6</v>
       </c>
       <c r="S185">
@@ -34455,11 +34455,11 @@
         <v>38</v>
       </c>
       <c r="G186">
-        <f t="shared" si="6"/>
+        <f>(F186-J186)/(K186-J186)</f>
         <v>0.12935323383084577</v>
       </c>
       <c r="H186">
-        <f t="shared" si="8"/>
+        <f>F186/K186</f>
         <v>0.17840375586854459</v>
       </c>
       <c r="I186">
@@ -34490,7 +34490,7 @@
         <v>2024</v>
       </c>
       <c r="R186">
-        <f t="shared" si="7"/>
+        <f>Q186-O186</f>
         <v>6</v>
       </c>
       <c r="S186">
@@ -34517,11 +34517,11 @@
         <v>969</v>
       </c>
       <c r="G187">
-        <f t="shared" si="6"/>
+        <f>(F187-J187)/(K187-J187)</f>
         <v>1</v>
       </c>
       <c r="H187">
-        <f t="shared" si="8"/>
+        <f>F187/K187</f>
         <v>1</v>
       </c>
       <c r="I187">
@@ -34552,7 +34552,7 @@
         <v>2020</v>
       </c>
       <c r="R187">
-        <f t="shared" si="7"/>
+        <f>Q187-O187</f>
         <v>0</v>
       </c>
       <c r="S187">
@@ -34582,11 +34582,11 @@
         <v>194</v>
       </c>
       <c r="G188">
-        <f t="shared" si="6"/>
+        <f>(F188-J188)/(K188-J188)</f>
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="8"/>
+        <f>F188/K188</f>
         <v>0.20020639834881321</v>
       </c>
       <c r="I188">
@@ -34617,7 +34617,7 @@
         <v>2020</v>
       </c>
       <c r="R188">
-        <f t="shared" si="7"/>
+        <f>Q188-O188</f>
         <v>0</v>
       </c>
       <c r="S188">
@@ -34641,11 +34641,11 @@
         <v>2958</v>
       </c>
       <c r="G189">
-        <f t="shared" si="6"/>
+        <f>(F189-J189)/(K189-J189)</f>
         <v>1</v>
       </c>
       <c r="H189">
-        <f t="shared" si="8"/>
+        <f>F189/K189</f>
         <v>1</v>
       </c>
       <c r="I189">
@@ -34676,7 +34676,7 @@
         <v>2024</v>
       </c>
       <c r="R189">
-        <f t="shared" si="7"/>
+        <f>Q189-O189</f>
         <v>8</v>
       </c>
       <c r="S189">
@@ -34706,11 +34706,11 @@
         <v>29</v>
       </c>
       <c r="G190">
-        <f t="shared" si="6"/>
+        <f>(F190-J190)/(K190-J190)</f>
         <v>1.0231923601637107E-3</v>
       </c>
       <c r="H190">
-        <f t="shared" si="8"/>
+        <f>F190/K190</f>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="I190">
@@ -34741,7 +34741,7 @@
         <v>2024</v>
       </c>
       <c r="R190">
-        <f t="shared" si="7"/>
+        <f>Q190-O190</f>
         <v>8</v>
       </c>
       <c r="S190">
@@ -34771,11 +34771,11 @@
         <v>26</v>
       </c>
       <c r="G191">
-        <f t="shared" si="6"/>
+        <f>(F191-J191)/(K191-J191)</f>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="8"/>
+        <f>F191/K191</f>
         <v>8.7897227856659904E-3</v>
       </c>
       <c r="I191">
@@ -34806,7 +34806,7 @@
         <v>2024</v>
       </c>
       <c r="R191">
-        <f t="shared" si="7"/>
+        <f>Q191-O191</f>
         <v>8</v>
       </c>
       <c r="S191">
@@ -34830,11 +34830,11 @@
         <v>23855</v>
       </c>
       <c r="G192">
-        <f t="shared" si="6"/>
+        <f>(F192-J192)/(K192-J192)</f>
         <v>1.2748233682296211</v>
       </c>
       <c r="H192">
-        <f t="shared" si="8"/>
+        <f>F192/K192</f>
         <v>1.2065855118583328</v>
       </c>
       <c r="I192">
@@ -34865,7 +34865,7 @@
         <v>2024</v>
       </c>
       <c r="R192">
-        <f t="shared" si="7"/>
+        <f>Q192-O192</f>
         <v>5</v>
       </c>
       <c r="S192">
@@ -34892,11 +34892,11 @@
         <v>18781</v>
       </c>
       <c r="G193">
-        <f t="shared" si="6"/>
+        <f>(F193-J193)/(K193-J193)</f>
         <v>0.93340809480002662</v>
       </c>
       <c r="H193">
-        <f t="shared" si="8"/>
+        <f>F193/K193</f>
         <v>0.94994267441674074</v>
       </c>
       <c r="I193">
@@ -34927,7 +34927,7 @@
         <v>2024</v>
       </c>
       <c r="R193">
-        <f t="shared" si="7"/>
+        <f>Q193-O193</f>
         <v>5</v>
       </c>
       <c r="S193">
@@ -34954,11 +34954,11 @@
         <v>16676</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G257" si="9">(F194-J194)/(K194-J194)</f>
+        <f>(F194-J194)/(K194-J194)</f>
         <v>0.79176853024163152</v>
       </c>
       <c r="H194">
-        <f t="shared" si="8"/>
+        <f>F194/K194</f>
         <v>0.84347180866692772</v>
       </c>
       <c r="I194">
@@ -34989,7 +34989,7 @@
         <v>2024</v>
       </c>
       <c r="R194">
-        <f t="shared" ref="R194:R257" si="10">Q194-O194</f>
+        <f>Q194-O194</f>
         <v>5</v>
       </c>
       <c r="S194">
@@ -35016,11 +35016,11 @@
         <v>8459</v>
       </c>
       <c r="G195">
-        <f t="shared" si="9"/>
+        <f>(F195-J195)/(K195-J195)</f>
         <v>0.23886957443339782</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H258" si="11">F195/K195</f>
+        <f>F195/K195</f>
         <v>0.42785608236468825</v>
       </c>
       <c r="I195">
@@ -35051,7 +35051,7 @@
         <v>2024</v>
       </c>
       <c r="R195">
-        <f t="shared" si="10"/>
+        <f>Q195-O195</f>
         <v>5</v>
       </c>
       <c r="S195">
@@ -35084,11 +35084,11 @@
         <v>4909</v>
       </c>
       <c r="G196">
-        <f t="shared" si="9"/>
+        <f>(F196-J196)/(K196-J196)</f>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="11"/>
+        <f>F196/K196</f>
         <v>0.24829714012628615</v>
       </c>
       <c r="I196">
@@ -35119,7 +35119,7 @@
         <v>2024</v>
       </c>
       <c r="R196">
-        <f t="shared" si="10"/>
+        <f>Q196-O196</f>
         <v>5</v>
       </c>
       <c r="S196">
@@ -35152,11 +35152,11 @@
         <v>9535</v>
       </c>
       <c r="G197">
-        <f t="shared" si="9"/>
+        <f>(F197-J197)/(K197-J197)</f>
         <v>0.31127060600814038</v>
       </c>
       <c r="H197">
-        <f t="shared" si="11"/>
+        <f>F197/K197</f>
         <v>0.48228014485722931</v>
       </c>
       <c r="I197">
@@ -35187,7 +35187,7 @@
         <v>2024</v>
       </c>
       <c r="R197">
-        <f t="shared" si="10"/>
+        <f>Q197-O197</f>
         <v>5</v>
       </c>
       <c r="S197">
@@ -35214,11 +35214,11 @@
         <v>149</v>
       </c>
       <c r="G198">
-        <f t="shared" si="9"/>
+        <f>(F198-J198)/(K198-J198)</f>
         <v>1</v>
       </c>
       <c r="H198">
-        <f t="shared" si="11"/>
+        <f>F198/K198</f>
         <v>1</v>
       </c>
       <c r="I198">
@@ -35249,7 +35249,7 @@
         <v>2018</v>
       </c>
       <c r="R198">
-        <f t="shared" si="10"/>
+        <f>Q198-O198</f>
         <v>0</v>
       </c>
       <c r="S198">
@@ -35279,11 +35279,11 @@
         <v>74</v>
       </c>
       <c r="G199">
-        <f t="shared" si="9"/>
+        <f>(F199-J199)/(K199-J199)</f>
         <v>0</v>
       </c>
       <c r="H199">
-        <f t="shared" si="11"/>
+        <f>F199/K199</f>
         <v>0.49664429530201343</v>
       </c>
       <c r="I199">
@@ -35314,7 +35314,7 @@
         <v>2018</v>
       </c>
       <c r="R199">
-        <f t="shared" si="10"/>
+        <f>Q199-O199</f>
         <v>0</v>
       </c>
       <c r="S199">
@@ -35338,11 +35338,11 @@
         <v>654</v>
       </c>
       <c r="G200">
-        <f t="shared" si="9"/>
+        <f>(F200-J200)/(K200-J200)</f>
         <v>1.4578313253012047</v>
       </c>
       <c r="H200">
-        <f t="shared" si="11"/>
+        <f>F200/K200</f>
         <v>1.4094827586206897</v>
       </c>
       <c r="I200">
@@ -35373,7 +35373,7 @@
         <v>2018</v>
       </c>
       <c r="R200">
-        <f t="shared" si="10"/>
+        <f>Q200-O200</f>
         <v>0</v>
       </c>
       <c r="S200">
@@ -35397,11 +35397,11 @@
         <v>274</v>
       </c>
       <c r="G201">
-        <f t="shared" si="9"/>
+        <f>(F201-J201)/(K201-J201)</f>
         <v>0.54216867469879515</v>
       </c>
       <c r="H201">
-        <f t="shared" si="11"/>
+        <f>F201/K201</f>
         <v>0.59051724137931039</v>
       </c>
       <c r="I201">
@@ -35432,7 +35432,7 @@
         <v>2018</v>
       </c>
       <c r="R201">
-        <f t="shared" si="10"/>
+        <f>Q201-O201</f>
         <v>0</v>
       </c>
       <c r="S201">
@@ -35462,11 +35462,11 @@
         <v>49</v>
       </c>
       <c r="G202">
-        <f t="shared" si="9"/>
+        <f>(F202-J202)/(K202-J202)</f>
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" si="11"/>
+        <f>F202/K202</f>
         <v>0.10560344827586207</v>
       </c>
       <c r="I202">
@@ -35497,7 +35497,7 @@
         <v>2018</v>
       </c>
       <c r="R202">
-        <f t="shared" si="10"/>
+        <f>Q202-O202</f>
         <v>0</v>
       </c>
       <c r="S202">
@@ -35521,11 +35521,11 @@
         <v>291</v>
       </c>
       <c r="G203">
-        <f t="shared" si="9"/>
+        <f>(F203-J203)/(K203-J203)</f>
         <v>1.1059506531204644</v>
       </c>
       <c r="H203">
-        <f t="shared" si="11"/>
+        <f>F203/K203</f>
         <v>1.0912499999999998</v>
       </c>
       <c r="I203">
@@ -35556,7 +35556,7 @@
         <v>2020</v>
       </c>
       <c r="R203">
-        <f t="shared" si="10"/>
+        <f>Q203-O203</f>
         <v>4</v>
       </c>
       <c r="S203">
@@ -35583,11 +35583,11 @@
         <v>247</v>
       </c>
       <c r="G204">
-        <f t="shared" si="9"/>
+        <f>(F204-J204)/(K204-J204)</f>
         <v>0.91436865021770675</v>
       </c>
       <c r="H204">
-        <f t="shared" si="11"/>
+        <f>F204/K204</f>
         <v>0.92624999999999991</v>
       </c>
       <c r="I204">
@@ -35618,7 +35618,7 @@
         <v>2020</v>
       </c>
       <c r="R204">
-        <f t="shared" si="10"/>
+        <f>Q204-O204</f>
         <v>4</v>
       </c>
       <c r="S204">
@@ -35645,11 +35645,11 @@
         <v>305</v>
       </c>
       <c r="G205">
-        <f t="shared" si="9"/>
+        <f>(F205-J205)/(K205-J205)</f>
         <v>1.1669085631349765</v>
       </c>
       <c r="H205">
-        <f t="shared" si="11"/>
+        <f>F205/K205</f>
         <v>1.1437499999999985</v>
       </c>
       <c r="I205">
@@ -35680,7 +35680,7 @@
         <v>2020</v>
       </c>
       <c r="R205">
-        <f t="shared" si="10"/>
+        <f>Q205-O205</f>
         <v>4</v>
       </c>
       <c r="S205">
@@ -35707,11 +35707,11 @@
         <v>270</v>
       </c>
       <c r="G206">
-        <f t="shared" si="9"/>
+        <f>(F206-J206)/(K206-J206)</f>
         <v>1.0145137880986921</v>
       </c>
       <c r="H206">
-        <f t="shared" si="11"/>
+        <f>F206/K206</f>
         <v>1.0124999999999986</v>
       </c>
       <c r="I206">
@@ -35742,7 +35742,7 @@
         <v>2020</v>
       </c>
       <c r="R206">
-        <f t="shared" si="10"/>
+        <f>Q206-O206</f>
         <v>4</v>
       </c>
       <c r="S206">
@@ -35769,11 +35769,11 @@
         <v>299</v>
       </c>
       <c r="G207">
-        <f t="shared" si="9"/>
+        <f>(F207-J207)/(K207-J207)</f>
         <v>1.1407837445573277</v>
       </c>
       <c r="H207">
-        <f t="shared" si="11"/>
+        <f>F207/K207</f>
         <v>1.1212499999999985</v>
       </c>
       <c r="I207">
@@ -35804,7 +35804,7 @@
         <v>2020</v>
       </c>
       <c r="R207">
-        <f t="shared" si="10"/>
+        <f>Q207-O207</f>
         <v>4</v>
       </c>
       <c r="S207">
@@ -35831,11 +35831,11 @@
         <v>188</v>
       </c>
       <c r="G208">
-        <f t="shared" si="9"/>
+        <f>(F208-J208)/(K208-J208)</f>
         <v>0.65747460087082621</v>
       </c>
       <c r="H208">
-        <f t="shared" si="11"/>
+        <f>F208/K208</f>
         <v>0.70499999999999907</v>
       </c>
       <c r="I208">
@@ -35866,7 +35866,7 @@
         <v>2020</v>
       </c>
       <c r="R208">
-        <f t="shared" si="10"/>
+        <f>Q208-O208</f>
         <v>4</v>
       </c>
       <c r="S208">
@@ -35899,11 +35899,11 @@
         <v>74</v>
       </c>
       <c r="G209">
-        <f t="shared" si="9"/>
+        <f>(F209-J209)/(K209-J209)</f>
         <v>0.16110304789550048</v>
       </c>
       <c r="H209">
-        <f t="shared" si="11"/>
+        <f>F209/K209</f>
         <v>0.27749999999999964</v>
       </c>
       <c r="I209">
@@ -35934,7 +35934,7 @@
         <v>2020</v>
       </c>
       <c r="R209">
-        <f t="shared" si="10"/>
+        <f>Q209-O209</f>
         <v>4</v>
       </c>
       <c r="S209">
@@ -35967,11 +35967,11 @@
         <v>50</v>
       </c>
       <c r="G210">
-        <f t="shared" si="9"/>
+        <f>(F210-J210)/(K210-J210)</f>
         <v>5.6603773584905571E-2</v>
       </c>
       <c r="H210">
-        <f t="shared" si="11"/>
+        <f>F210/K210</f>
         <v>0.18749999999999975</v>
       </c>
       <c r="I210">
@@ -36002,7 +36002,7 @@
         <v>2020</v>
       </c>
       <c r="R210">
-        <f t="shared" si="10"/>
+        <f>Q210-O210</f>
         <v>4</v>
       </c>
       <c r="S210">
@@ -36035,11 +36035,11 @@
         <v>37</v>
       </c>
       <c r="G211">
-        <f t="shared" si="9"/>
+        <f>(F211-J211)/(K211-J211)</f>
         <v>0</v>
       </c>
       <c r="H211">
-        <f t="shared" si="11"/>
+        <f>F211/K211</f>
         <v>0.13874999999999982</v>
       </c>
       <c r="I211">
@@ -36070,7 +36070,7 @@
         <v>2020</v>
       </c>
       <c r="R211">
-        <f t="shared" si="10"/>
+        <f>Q211-O211</f>
         <v>4</v>
       </c>
       <c r="S211">
@@ -36097,11 +36097,11 @@
         <v>214</v>
       </c>
       <c r="G212">
-        <f t="shared" si="9"/>
+        <f>(F212-J212)/(K212-J212)</f>
         <v>0.88088642659279781</v>
       </c>
       <c r="H212">
-        <f t="shared" si="11"/>
+        <f>F212/K212</f>
         <v>0.88186813186813195</v>
       </c>
       <c r="I212">
@@ -36132,7 +36132,7 @@
         <v>2020</v>
       </c>
       <c r="R212">
-        <f t="shared" si="10"/>
+        <f>Q212-O212</f>
         <v>2</v>
       </c>
       <c r="S212">
@@ -36159,11 +36159,11 @@
         <v>250</v>
       </c>
       <c r="G213">
-        <f t="shared" si="9"/>
+        <f>(F213-J213)/(K213-J213)</f>
         <v>1.0304709141274238</v>
       </c>
       <c r="H213">
-        <f t="shared" si="11"/>
+        <f>F213/K213</f>
         <v>1.0302197802197803</v>
       </c>
       <c r="I213">
@@ -36194,7 +36194,7 @@
         <v>2020</v>
       </c>
       <c r="R213">
-        <f t="shared" si="10"/>
+        <f>Q213-O213</f>
         <v>2</v>
       </c>
       <c r="S213">
@@ -36221,11 +36221,11 @@
         <v>264</v>
       </c>
       <c r="G214">
-        <f t="shared" si="9"/>
+        <f>(F214-J214)/(K214-J214)</f>
         <v>1.0886426592797769</v>
       </c>
       <c r="H214">
-        <f t="shared" si="11"/>
+        <f>F214/K214</f>
         <v>1.0879120879120865</v>
       </c>
       <c r="I214">
@@ -36256,7 +36256,7 @@
         <v>2020</v>
       </c>
       <c r="R214">
-        <f t="shared" si="10"/>
+        <f>Q214-O214</f>
         <v>2</v>
       </c>
       <c r="S214">
@@ -36289,11 +36289,11 @@
         <v>3</v>
       </c>
       <c r="G215">
-        <f t="shared" si="9"/>
+        <f>(F215-J215)/(K215-J215)</f>
         <v>4.1551246537396063E-3</v>
       </c>
       <c r="H215">
-        <f t="shared" si="11"/>
+        <f>F215/K215</f>
         <v>1.2362637362637346E-2</v>
       </c>
       <c r="I215">
@@ -36324,7 +36324,7 @@
         <v>2020</v>
       </c>
       <c r="R215">
-        <f t="shared" si="10"/>
+        <f>Q215-O215</f>
         <v>2</v>
       </c>
       <c r="S215">
@@ -36357,11 +36357,11 @@
         <v>2</v>
       </c>
       <c r="G216">
-        <f t="shared" si="9"/>
+        <f>(F216-J216)/(K216-J216)</f>
         <v>0</v>
       </c>
       <c r="H216">
-        <f t="shared" si="11"/>
+        <f>F216/K216</f>
         <v>8.2417582417582298E-3</v>
       </c>
       <c r="I216">
@@ -36392,7 +36392,7 @@
         <v>2020</v>
       </c>
       <c r="R216">
-        <f t="shared" si="10"/>
+        <f>Q216-O216</f>
         <v>2</v>
       </c>
       <c r="S216">
@@ -36419,11 +36419,11 @@
         <v>0</v>
       </c>
       <c r="G217">
-        <f t="shared" si="9"/>
+        <f>(F217-J217)/(K217-J217)</f>
         <v>0</v>
       </c>
       <c r="H217">
-        <f t="shared" si="11"/>
+        <f>F217/K217</f>
         <v>0</v>
       </c>
       <c r="I217">
@@ -36454,7 +36454,7 @@
         <v>2024</v>
       </c>
       <c r="R217">
-        <f t="shared" si="10"/>
+        <f>Q217-O217</f>
         <v>7</v>
       </c>
       <c r="S217">
@@ -36481,11 +36481,11 @@
         <v>1</v>
       </c>
       <c r="G218">
-        <f t="shared" si="9"/>
+        <f>(F218-J218)/(K218-J218)</f>
         <v>8.1256771397616458E-4</v>
       </c>
       <c r="H218">
-        <f t="shared" si="11"/>
+        <f>F218/K218</f>
         <v>8.1256771397616458E-4</v>
       </c>
       <c r="I218">
@@ -36516,7 +36516,7 @@
         <v>2024</v>
       </c>
       <c r="R218">
-        <f t="shared" si="10"/>
+        <f>Q218-O218</f>
         <v>7</v>
       </c>
       <c r="S218">
@@ -36543,11 +36543,11 @@
         <v>3691</v>
       </c>
       <c r="G219">
-        <f t="shared" si="9"/>
+        <f>(F219-J219)/(K219-J219)</f>
         <v>2.9991874322860159</v>
       </c>
       <c r="H219">
-        <f t="shared" si="11"/>
+        <f>F219/K219</f>
         <v>2.9991874322860159</v>
       </c>
       <c r="I219">
@@ -36578,7 +36578,7 @@
         <v>2024</v>
       </c>
       <c r="R219">
-        <f t="shared" si="10"/>
+        <f>Q219-O219</f>
         <v>7</v>
       </c>
       <c r="S219">
@@ -36611,11 +36611,11 @@
         <v>30</v>
       </c>
       <c r="G220">
-        <f t="shared" si="9"/>
+        <f>(F220-J220)/(K220-J220)</f>
         <v>2.4377031419284875E-2</v>
       </c>
       <c r="H220">
-        <f t="shared" si="11"/>
+        <f>F220/K220</f>
         <v>2.4377031419284875E-2</v>
       </c>
       <c r="I220">
@@ -36646,7 +36646,7 @@
         <v>2024</v>
       </c>
       <c r="R220">
-        <f t="shared" si="10"/>
+        <f>Q220-O220</f>
         <v>7</v>
       </c>
       <c r="S220">
@@ -36679,11 +36679,11 @@
         <v>9</v>
       </c>
       <c r="G221">
-        <f t="shared" si="9"/>
+        <f>(F221-J221)/(K221-J221)</f>
         <v>7.3131094257854624E-3</v>
       </c>
       <c r="H221">
-        <f t="shared" si="11"/>
+        <f>F221/K221</f>
         <v>7.3131094257854624E-3</v>
       </c>
       <c r="I221">
@@ -36714,7 +36714,7 @@
         <v>2024</v>
       </c>
       <c r="R221">
-        <f t="shared" si="10"/>
+        <f>Q221-O221</f>
         <v>7</v>
       </c>
       <c r="S221">
@@ -36741,11 +36741,11 @@
         <v>2572</v>
       </c>
       <c r="G222">
-        <f t="shared" si="9"/>
+        <f>(F222-J222)/(K222-J222)</f>
         <v>1.0035502958579883</v>
       </c>
       <c r="H222">
-        <f t="shared" si="11"/>
+        <f>F222/K222</f>
         <v>1.0035115099492782</v>
       </c>
       <c r="I222">
@@ -36776,7 +36776,7 @@
         <v>2020</v>
       </c>
       <c r="R222">
-        <f t="shared" si="10"/>
+        <f>Q222-O222</f>
         <v>3</v>
       </c>
       <c r="S222">
@@ -36803,11 +36803,11 @@
         <v>2554</v>
       </c>
       <c r="G223">
-        <f t="shared" si="9"/>
+        <f>(F223-J223)/(K223-J223)</f>
         <v>0.99644970414201184</v>
       </c>
       <c r="H223">
-        <f t="shared" si="11"/>
+        <f>F223/K223</f>
         <v>0.99648849005072182</v>
       </c>
       <c r="I223">
@@ -36838,7 +36838,7 @@
         <v>2020</v>
       </c>
       <c r="R223">
-        <f t="shared" si="10"/>
+        <f>Q223-O223</f>
         <v>3</v>
       </c>
       <c r="S223">
@@ -36871,11 +36871,11 @@
         <v>28</v>
       </c>
       <c r="G224">
-        <f t="shared" si="9"/>
+        <f>(F224-J224)/(K224-J224)</f>
         <v>0</v>
       </c>
       <c r="H224">
-        <f t="shared" si="11"/>
+        <f>F224/K224</f>
         <v>1.092469761997659E-2</v>
       </c>
       <c r="I224">
@@ -36906,7 +36906,7 @@
         <v>2020</v>
       </c>
       <c r="R224">
-        <f t="shared" si="10"/>
+        <f>Q224-O224</f>
         <v>3</v>
       </c>
       <c r="S224">
@@ -36939,11 +36939,11 @@
         <v>36</v>
       </c>
       <c r="G225">
-        <f t="shared" si="9"/>
+        <f>(F225-J225)/(K225-J225)</f>
         <v>3.1558185404339249E-3</v>
       </c>
       <c r="H225">
-        <f t="shared" si="11"/>
+        <f>F225/K225</f>
         <v>1.4046039797112759E-2</v>
       </c>
       <c r="I225">
@@ -36974,7 +36974,7 @@
         <v>2020</v>
       </c>
       <c r="R225">
-        <f t="shared" si="10"/>
+        <f>Q225-O225</f>
         <v>3</v>
       </c>
       <c r="S225">
@@ -37007,11 +37007,11 @@
         <v>29</v>
       </c>
       <c r="G226">
-        <f t="shared" si="9"/>
+        <f>(F226-J226)/(K226-J226)</f>
         <v>3.9447731755424062E-4</v>
       </c>
       <c r="H226">
-        <f t="shared" si="11"/>
+        <f>F226/K226</f>
         <v>1.131486539211861E-2</v>
       </c>
       <c r="I226">
@@ -37042,7 +37042,7 @@
         <v>2020</v>
       </c>
       <c r="R226">
-        <f t="shared" si="10"/>
+        <f>Q226-O226</f>
         <v>3</v>
       </c>
       <c r="S226">
@@ -37069,11 +37069,11 @@
         <v>1036</v>
       </c>
       <c r="G227">
-        <f t="shared" si="9"/>
+        <f>(F227-J227)/(K227-J227)</f>
         <v>0.76113788644645586</v>
       </c>
       <c r="H227">
-        <f t="shared" si="11"/>
+        <f>F227/K227</f>
         <v>0.78112882378285231</v>
       </c>
       <c r="I227">
@@ -37104,7 +37104,7 @@
         <v>2020</v>
       </c>
       <c r="R227">
-        <f t="shared" si="10"/>
+        <f>Q227-O227</f>
         <v>4</v>
       </c>
       <c r="S227">
@@ -37131,11 +37131,11 @@
         <v>1131</v>
       </c>
       <c r="G228">
-        <f t="shared" si="9"/>
+        <f>(F228-J228)/(K228-J228)</f>
         <v>0.83930880451392975</v>
       </c>
       <c r="H228">
-        <f t="shared" si="11"/>
+        <f>F228/K228</f>
         <v>0.85275743214131849</v>
       </c>
       <c r="I228">
@@ -37166,7 +37166,7 @@
         <v>2020</v>
       </c>
       <c r="R228">
-        <f t="shared" si="10"/>
+        <f>Q228-O228</f>
         <v>4</v>
       </c>
       <c r="S228">
@@ -37193,11 +37193,11 @@
         <v>1401</v>
       </c>
       <c r="G229">
-        <f t="shared" si="9"/>
+        <f>(F229-J229)/(K229-J229)</f>
         <v>1.0614787821793854</v>
       </c>
       <c r="H229">
-        <f t="shared" si="11"/>
+        <f>F229/K229</f>
         <v>1.0563334769495942</v>
       </c>
       <c r="I229">
@@ -37228,7 +37228,7 @@
         <v>2020</v>
       </c>
       <c r="R229">
-        <f t="shared" si="10"/>
+        <f>Q229-O229</f>
         <v>4</v>
       </c>
       <c r="S229">
@@ -37255,11 +37255,11 @@
         <v>1524</v>
       </c>
       <c r="G230">
-        <f t="shared" si="9"/>
+        <f>(F230-J230)/(K230-J230)</f>
         <v>1.1626895497825362</v>
       </c>
       <c r="H230">
-        <f t="shared" si="11"/>
+        <f>F230/K230</f>
         <v>1.1490736751400297</v>
       </c>
       <c r="I230">
@@ -37290,7 +37290,7 @@
         <v>2020</v>
       </c>
       <c r="R230">
-        <f t="shared" si="10"/>
+        <f>Q230-O230</f>
         <v>4</v>
       </c>
       <c r="S230">
@@ -37317,11 +37317,11 @@
         <v>1280</v>
       </c>
       <c r="G231">
-        <f t="shared" si="9"/>
+        <f>(F231-J231)/(K231-J231)</f>
         <v>0.96191371811449744</v>
       </c>
       <c r="H231">
-        <f t="shared" si="11"/>
+        <f>F231/K231</f>
         <v>0.96510124946144227</v>
       </c>
       <c r="I231">
@@ -37352,7 +37352,7 @@
         <v>2020</v>
       </c>
       <c r="R231">
-        <f t="shared" si="10"/>
+        <f>Q231-O231</f>
         <v>4</v>
       </c>
       <c r="S231">
@@ -37379,11 +37379,11 @@
         <v>1572</v>
       </c>
       <c r="G232">
-        <f t="shared" si="9"/>
+        <f>(F232-J232)/(K232-J232)</f>
         <v>1.2021864347008389</v>
       </c>
       <c r="H232">
-        <f t="shared" si="11"/>
+        <f>F232/K232</f>
         <v>1.1852649719948338</v>
       </c>
       <c r="I232">
@@ -37414,7 +37414,7 @@
         <v>2020</v>
       </c>
       <c r="R232">
-        <f t="shared" si="10"/>
+        <f>Q232-O232</f>
         <v>4</v>
       </c>
       <c r="S232">
@@ -37441,11 +37441,11 @@
         <v>1340</v>
       </c>
       <c r="G233">
-        <f t="shared" si="9"/>
+        <f>(F233-J233)/(K233-J233)</f>
         <v>1.0112848242623758</v>
       </c>
       <c r="H233">
-        <f t="shared" si="11"/>
+        <f>F233/K233</f>
         <v>1.0103403705299474</v>
       </c>
       <c r="I233">
@@ -37476,7 +37476,7 @@
         <v>2020</v>
       </c>
       <c r="R233">
-        <f t="shared" si="10"/>
+        <f>Q233-O233</f>
         <v>4</v>
       </c>
       <c r="S233">
@@ -37509,11 +37509,11 @@
         <v>247</v>
       </c>
       <c r="G234">
-        <f t="shared" si="9"/>
+        <f>(F234-J234)/(K234-J234)</f>
         <v>0.1119078406018577</v>
       </c>
       <c r="H234">
-        <f t="shared" si="11"/>
+        <f>F234/K234</f>
         <v>0.18623438173201268</v>
       </c>
       <c r="I234">
@@ -37544,7 +37544,7 @@
         <v>2020</v>
       </c>
       <c r="R234">
-        <f t="shared" si="10"/>
+        <f>Q234-O234</f>
         <v>4</v>
       </c>
       <c r="S234">
@@ -37577,11 +37577,11 @@
         <v>269</v>
       </c>
       <c r="G235">
-        <f t="shared" si="9"/>
+        <f>(F235-J235)/(K235-J235)</f>
         <v>0.13001057952274644</v>
       </c>
       <c r="H235">
-        <f t="shared" si="11"/>
+        <f>F235/K235</f>
         <v>0.20282205945713122</v>
       </c>
       <c r="I235">
@@ -37612,7 +37612,7 @@
         <v>2020</v>
       </c>
       <c r="R235">
-        <f t="shared" si="10"/>
+        <f>Q235-O235</f>
         <v>4</v>
       </c>
       <c r="S235">
@@ -37645,11 +37645,11 @@
         <v>111</v>
       </c>
       <c r="G236">
-        <f t="shared" si="9"/>
+        <f>(F236-J236)/(K236-J236)</f>
         <v>0</v>
       </c>
       <c r="H236">
-        <f t="shared" si="11"/>
+        <f>F236/K236</f>
         <v>8.3692373976734444E-2</v>
       </c>
       <c r="I236">
@@ -37680,7 +37680,7 @@
         <v>2020</v>
       </c>
       <c r="R236">
-        <f t="shared" si="10"/>
+        <f>Q236-O236</f>
         <v>4</v>
       </c>
       <c r="S236">
@@ -37707,11 +37707,11 @@
         <v>234</v>
       </c>
       <c r="G237">
-        <f t="shared" si="9"/>
+        <f>(F237-J237)/(K237-J237)</f>
         <v>1.7509727626459144</v>
       </c>
       <c r="H237">
-        <f t="shared" si="11"/>
+        <f>F237/K237</f>
         <v>1.7018181818181819</v>
       </c>
       <c r="I237">
@@ -37742,7 +37742,7 @@
         <v>2019</v>
       </c>
       <c r="R237">
-        <f t="shared" si="10"/>
+        <f>Q237-O237</f>
         <v>2</v>
       </c>
       <c r="S237">
@@ -37769,11 +37769,11 @@
         <v>113</v>
       </c>
       <c r="G238">
-        <f t="shared" si="9"/>
+        <f>(F238-J238)/(K238-J238)</f>
         <v>0.80933852140077822</v>
       </c>
       <c r="H238">
-        <f t="shared" si="11"/>
+        <f>F238/K238</f>
         <v>0.82181818181818178</v>
       </c>
       <c r="I238">
@@ -37804,7 +37804,7 @@
         <v>2019</v>
       </c>
       <c r="R238">
-        <f t="shared" si="10"/>
+        <f>Q238-O238</f>
         <v>2</v>
       </c>
       <c r="S238">
@@ -37831,11 +37831,11 @@
         <v>140</v>
       </c>
       <c r="G239">
-        <f t="shared" si="9"/>
+        <f>(F239-J239)/(K239-J239)</f>
         <v>1.0194552529182879</v>
       </c>
       <c r="H239">
-        <f t="shared" si="11"/>
+        <f>F239/K239</f>
         <v>1.0181818181818181</v>
       </c>
       <c r="I239">
@@ -37866,7 +37866,7 @@
         <v>2019</v>
       </c>
       <c r="R239">
-        <f t="shared" si="10"/>
+        <f>Q239-O239</f>
         <v>2</v>
       </c>
       <c r="S239">
@@ -37893,11 +37893,11 @@
         <v>105</v>
       </c>
       <c r="G240">
-        <f t="shared" si="9"/>
+        <f>(F240-J240)/(K240-J240)</f>
         <v>0.74708171206225682</v>
       </c>
       <c r="H240">
-        <f t="shared" si="11"/>
+        <f>F240/K240</f>
         <v>0.76363636363636367</v>
       </c>
       <c r="I240">
@@ -37928,7 +37928,7 @@
         <v>2019</v>
       </c>
       <c r="R240">
-        <f t="shared" si="10"/>
+        <f>Q240-O240</f>
         <v>2</v>
       </c>
       <c r="S240">
@@ -37955,11 +37955,11 @@
         <v>98</v>
       </c>
       <c r="G241">
-        <f t="shared" si="9"/>
+        <f>(F241-J241)/(K241-J241)</f>
         <v>0.69260700389105057</v>
       </c>
       <c r="H241">
-        <f t="shared" si="11"/>
+        <f>F241/K241</f>
         <v>0.71272727272727276</v>
       </c>
       <c r="I241">
@@ -37990,7 +37990,7 @@
         <v>2019</v>
       </c>
       <c r="R241">
-        <f t="shared" si="10"/>
+        <f>Q241-O241</f>
         <v>2</v>
       </c>
       <c r="S241">
@@ -38023,11 +38023,11 @@
         <v>9</v>
       </c>
       <c r="G242">
-        <f t="shared" si="9"/>
+        <f>(F242-J242)/(K242-J242)</f>
         <v>0</v>
       </c>
       <c r="H242">
-        <f t="shared" si="11"/>
+        <f>F242/K242</f>
         <v>6.545454545454546E-2</v>
       </c>
       <c r="I242">
@@ -38058,7 +38058,7 @@
         <v>2019</v>
       </c>
       <c r="R242">
-        <f t="shared" si="10"/>
+        <f>Q242-O242</f>
         <v>2</v>
       </c>
       <c r="S242">
@@ -38091,11 +38091,11 @@
         <v>13</v>
       </c>
       <c r="G243">
-        <f t="shared" si="9"/>
+        <f>(F243-J243)/(K243-J243)</f>
         <v>3.1128404669260701E-2</v>
       </c>
       <c r="H243">
-        <f t="shared" si="11"/>
+        <f>F243/K243</f>
         <v>9.4545454545454544E-2</v>
       </c>
       <c r="I243">
@@ -38126,7 +38126,7 @@
         <v>2019</v>
       </c>
       <c r="R243">
-        <f t="shared" si="10"/>
+        <f>Q243-O243</f>
         <v>2</v>
       </c>
       <c r="S243">
@@ -38153,11 +38153,11 @@
         <v>2381</v>
       </c>
       <c r="G244">
-        <f t="shared" si="9"/>
+        <f>(F244-J244)/(K244-J244)</f>
         <v>1.2338229456133387</v>
       </c>
       <c r="H244">
-        <f t="shared" si="11"/>
+        <f>F244/K244</f>
         <v>1.2277942503545185</v>
       </c>
       <c r="I244">
@@ -38188,7 +38188,7 @@
         <v>2019</v>
       </c>
       <c r="R244">
-        <f t="shared" si="10"/>
+        <f>Q244-O244</f>
         <v>3</v>
       </c>
       <c r="S244">
@@ -38215,11 +38215,11 @@
         <v>2063</v>
       </c>
       <c r="G245">
-        <f t="shared" si="9"/>
+        <f>(F245-J245)/(K245-J245)</f>
         <v>1.0655021834061136</v>
       </c>
       <c r="H245">
-        <f t="shared" si="11"/>
+        <f>F245/K245</f>
         <v>1.0638133298955781</v>
       </c>
       <c r="I245">
@@ -38250,7 +38250,7 @@
         <v>2019</v>
       </c>
       <c r="R245">
-        <f t="shared" si="10"/>
+        <f>Q245-O245</f>
         <v>3</v>
       </c>
       <c r="S245">
@@ -38277,11 +38277,11 @@
         <v>1996</v>
       </c>
       <c r="G246">
-        <f t="shared" si="9"/>
+        <f>(F246-J246)/(K246-J246)</f>
         <v>1.0300383750165409</v>
       </c>
       <c r="H246">
-        <f t="shared" si="11"/>
+        <f>F246/K246</f>
         <v>1.0292638906793863</v>
       </c>
       <c r="I246">
@@ -38312,7 +38312,7 @@
         <v>2019</v>
       </c>
       <c r="R246">
-        <f t="shared" si="10"/>
+        <f>Q246-O246</f>
         <v>3</v>
       </c>
       <c r="S246">
@@ -38339,11 +38339,11 @@
         <v>1317</v>
       </c>
       <c r="G247">
-        <f t="shared" si="9"/>
+        <f>(F247-J247)/(K247-J247)</f>
         <v>0.67063649596400687</v>
       </c>
       <c r="H247">
-        <f t="shared" si="11"/>
+        <f>F247/K247</f>
         <v>0.67912852907051691</v>
       </c>
       <c r="I247">
@@ -38374,7 +38374,7 @@
         <v>2019</v>
       </c>
       <c r="R247">
-        <f t="shared" si="10"/>
+        <f>Q247-O247</f>
         <v>3</v>
       </c>
       <c r="S247">
@@ -38407,11 +38407,11 @@
         <v>115</v>
       </c>
       <c r="G248">
-        <f t="shared" si="9"/>
+        <f>(F248-J248)/(K248-J248)</f>
         <v>3.4405187243615194E-2</v>
       </c>
       <c r="H248">
-        <f t="shared" si="11"/>
+        <f>F248/K248</f>
         <v>5.930127626659791E-2</v>
       </c>
       <c r="I248">
@@ -38442,7 +38442,7 @@
         <v>2019</v>
       </c>
       <c r="R248">
-        <f t="shared" si="10"/>
+        <f>Q248-O248</f>
         <v>3</v>
       </c>
       <c r="S248">
@@ -38475,11 +38475,11 @@
         <v>50</v>
       </c>
       <c r="G249">
-        <f t="shared" si="9"/>
+        <f>(F249-J249)/(K249-J249)</f>
         <v>0</v>
       </c>
       <c r="H249">
-        <f t="shared" si="11"/>
+        <f>F249/K249</f>
         <v>2.5783163594173004E-2</v>
       </c>
       <c r="I249">
@@ -38510,7 +38510,7 @@
         <v>2019</v>
       </c>
       <c r="R249">
-        <f t="shared" si="10"/>
+        <f>Q249-O249</f>
         <v>3</v>
       </c>
       <c r="S249">
@@ -38537,11 +38537,11 @@
         <v>1568</v>
       </c>
       <c r="G250">
-        <f t="shared" si="9"/>
+        <f>(F250-J250)/(K250-J250)</f>
         <v>0.64878860736082855</v>
       </c>
       <c r="H250">
-        <f t="shared" si="11"/>
+        <f>F250/K250</f>
         <v>0.76759270591114914</v>
       </c>
       <c r="I250">
@@ -38572,7 +38572,7 @@
         <v>2024</v>
       </c>
       <c r="R250">
-        <f t="shared" si="10"/>
+        <f>Q250-O250</f>
         <v>3</v>
       </c>
       <c r="S250">
@@ -38599,11 +38599,11 @@
         <v>1831</v>
       </c>
       <c r="G251">
-        <f t="shared" si="9"/>
+        <f>(F251-J251)/(K251-J251)</f>
         <v>0.84335121139263913</v>
       </c>
       <c r="H251">
-        <f t="shared" si="11"/>
+        <f>F251/K251</f>
         <v>0.89634071717048092</v>
       </c>
       <c r="I251">
@@ -38634,7 +38634,7 @@
         <v>2024</v>
       </c>
       <c r="R251">
-        <f t="shared" si="10"/>
+        <f>Q251-O251</f>
         <v>3</v>
       </c>
       <c r="S251">
@@ -38661,11 +38661,11 @@
         <v>1536</v>
       </c>
       <c r="G252">
-        <f t="shared" si="9"/>
+        <f>(F252-J252)/(K252-J252)</f>
         <v>0.62511559090068425</v>
       </c>
       <c r="H252">
-        <f t="shared" si="11"/>
+        <f>F252/K252</f>
         <v>0.75192754864765632</v>
       </c>
       <c r="I252">
@@ -38696,7 +38696,7 @@
         <v>2024</v>
       </c>
       <c r="R252">
-        <f t="shared" si="10"/>
+        <f>Q252-O252</f>
         <v>3</v>
       </c>
       <c r="S252">
@@ -38723,11 +38723,11 @@
         <v>2520</v>
       </c>
       <c r="G253">
-        <f t="shared" si="9"/>
+        <f>(F253-J253)/(K253-J253)</f>
         <v>1.3530608470501202</v>
       </c>
       <c r="H253">
-        <f t="shared" si="11"/>
+        <f>F253/K253</f>
         <v>1.2336311345000612</v>
       </c>
       <c r="I253">
@@ -38758,7 +38758,7 @@
         <v>2024</v>
       </c>
       <c r="R253">
-        <f t="shared" si="10"/>
+        <f>Q253-O253</f>
         <v>3</v>
       </c>
       <c r="S253">
@@ -38785,11 +38785,11 @@
         <v>2982</v>
       </c>
       <c r="G254">
-        <f t="shared" si="9"/>
+        <f>(F254-J254)/(K254-J254)</f>
         <v>1.694840022193453</v>
       </c>
       <c r="H254">
-        <f t="shared" si="11"/>
+        <f>F254/K254</f>
         <v>1.4597968424917391</v>
       </c>
       <c r="I254">
@@ -38820,7 +38820,7 @@
         <v>2024</v>
       </c>
       <c r="R254">
-        <f t="shared" si="10"/>
+        <f>Q254-O254</f>
         <v>3</v>
       </c>
       <c r="S254">
@@ -38847,11 +38847,11 @@
         <v>2782</v>
       </c>
       <c r="G255">
-        <f t="shared" si="9"/>
+        <f>(F255-J255)/(K255-J255)</f>
         <v>1.5468836693175514</v>
       </c>
       <c r="H255">
-        <f t="shared" si="11"/>
+        <f>F255/K255</f>
         <v>1.3618896095949089</v>
       </c>
       <c r="I255">
@@ -38882,7 +38882,7 @@
         <v>2024</v>
       </c>
       <c r="R255">
-        <f t="shared" si="10"/>
+        <f>Q255-O255</f>
         <v>3</v>
       </c>
       <c r="S255">
@@ -38909,11 +38909,11 @@
         <v>1798</v>
       </c>
       <c r="G256">
-        <f t="shared" si="9"/>
+        <f>(F256-J256)/(K256-J256)</f>
         <v>0.81893841316811544</v>
       </c>
       <c r="H256">
-        <f t="shared" si="11"/>
+        <f>F256/K256</f>
         <v>0.88018602374250399</v>
       </c>
       <c r="I256">
@@ -38944,7 +38944,7 @@
         <v>2024</v>
       </c>
       <c r="R256">
-        <f t="shared" si="10"/>
+        <f>Q256-O256</f>
         <v>3</v>
       </c>
       <c r="S256">
@@ -38971,11 +38971,11 @@
         <v>1325</v>
       </c>
       <c r="G257">
-        <f t="shared" si="9"/>
+        <f>(F257-J257)/(K257-J257)</f>
         <v>0.46902163861660812</v>
       </c>
       <c r="H257">
-        <f t="shared" si="11"/>
+        <f>F257/K257</f>
         <v>0.64863541794150048</v>
       </c>
       <c r="I257">
@@ -39006,7 +39006,7 @@
         <v>2024</v>
       </c>
       <c r="R257">
-        <f t="shared" si="10"/>
+        <f>Q257-O257</f>
         <v>3</v>
       </c>
       <c r="S257">
@@ -39033,11 +39033,11 @@
         <v>1312</v>
       </c>
       <c r="G258">
-        <f t="shared" ref="G258:G321" si="12">(F258-J258)/(K258-J258)</f>
+        <f>(F258-J258)/(K258-J258)</f>
         <v>0.45940447567967452</v>
       </c>
       <c r="H258">
-        <f t="shared" si="11"/>
+        <f>F258/K258</f>
         <v>0.64227144780320644</v>
       </c>
       <c r="I258">
@@ -39068,7 +39068,7 @@
         <v>2024</v>
       </c>
       <c r="R258">
-        <f t="shared" ref="R258:R321" si="13">Q258-O258</f>
+        <f>Q258-O258</f>
         <v>3</v>
       </c>
       <c r="S258">
@@ -39101,11 +39101,11 @@
         <v>691</v>
       </c>
       <c r="G259">
-        <f t="shared" si="12"/>
+        <f>(F259-J259)/(K259-J259)</f>
         <v>0</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H308" si="14">F259/K259</f>
+        <f>F259/K259</f>
         <v>0.33826948965854853</v>
       </c>
       <c r="I259">
@@ -39136,7 +39136,7 @@
         <v>2024</v>
       </c>
       <c r="R259">
-        <f t="shared" si="13"/>
+        <f>Q259-O259</f>
         <v>3</v>
       </c>
       <c r="S259">
@@ -39169,11 +39169,11 @@
         <v>1169</v>
       </c>
       <c r="G260">
-        <f t="shared" si="12"/>
+        <f>(F260-J260)/(K260-J260)</f>
         <v>0.35361568337340482</v>
       </c>
       <c r="H260">
-        <f t="shared" si="14"/>
+        <f>F260/K260</f>
         <v>0.57226777628197278</v>
       </c>
       <c r="I260">
@@ -39204,7 +39204,7 @@
         <v>2024</v>
       </c>
       <c r="R260">
-        <f t="shared" si="13"/>
+        <f>Q260-O260</f>
         <v>3</v>
       </c>
       <c r="S260">
@@ -39237,11 +39237,11 @@
         <v>719</v>
       </c>
       <c r="G261">
-        <f t="shared" si="12"/>
+        <f>(F261-J261)/(K261-J261)</f>
         <v>2.0713889402626227E-2</v>
       </c>
       <c r="H261">
-        <f t="shared" si="14"/>
+        <f>F261/K261</f>
         <v>0.35197650226410476</v>
       </c>
       <c r="I261">
@@ -39272,7 +39272,7 @@
         <v>2024</v>
       </c>
       <c r="R261">
-        <f t="shared" si="13"/>
+        <f>Q261-O261</f>
         <v>3</v>
       </c>
       <c r="S261">
@@ -39305,11 +39305,11 @@
         <v>1077</v>
       </c>
       <c r="G262">
-        <f t="shared" si="12"/>
+        <f>(F262-J262)/(K262-J262)</f>
         <v>0.28555576105049013</v>
       </c>
       <c r="H262">
-        <f t="shared" si="14"/>
+        <f>F262/K262</f>
         <v>0.52723044914943096</v>
       </c>
       <c r="I262">
@@ -39340,7 +39340,7 @@
         <v>2024</v>
       </c>
       <c r="R262">
-        <f t="shared" si="13"/>
+        <f>Q262-O262</f>
         <v>3</v>
       </c>
       <c r="S262">
@@ -39373,11 +39373,11 @@
         <v>844</v>
       </c>
       <c r="G263">
-        <f t="shared" si="12"/>
+        <f>(F263-J263)/(K263-J263)</f>
         <v>0.11318660995006473</v>
       </c>
       <c r="H263">
-        <f t="shared" si="14"/>
+        <f>F263/K263</f>
         <v>0.41316852282462369</v>
       </c>
       <c r="I263">
@@ -39408,7 +39408,7 @@
         <v>2024</v>
       </c>
       <c r="R263">
-        <f t="shared" si="13"/>
+        <f>Q263-O263</f>
         <v>3</v>
       </c>
       <c r="S263">
@@ -39441,11 +39441,11 @@
         <v>882</v>
       </c>
       <c r="G264">
-        <f t="shared" si="12"/>
+        <f>(F264-J264)/(K264-J264)</f>
         <v>0.14129831699648604</v>
       </c>
       <c r="H264">
-        <f t="shared" si="14"/>
+        <f>F264/K264</f>
         <v>0.43177089707502142</v>
       </c>
       <c r="I264">
@@ -39476,7 +39476,7 @@
         <v>2024</v>
       </c>
       <c r="R264">
-        <f t="shared" si="13"/>
+        <f>Q264-O264</f>
         <v>3</v>
       </c>
       <c r="S264">
@@ -39503,11 +39503,11 @@
         <v>250</v>
       </c>
       <c r="G265">
-        <f t="shared" si="12"/>
+        <f>(F265-J265)/(K265-J265)</f>
         <v>1.0405405405405406</v>
       </c>
       <c r="H265">
-        <f t="shared" si="14"/>
+        <f>F265/K265</f>
         <v>1.0373443983402491</v>
       </c>
       <c r="I265">
@@ -39538,7 +39538,7 @@
         <v>2023</v>
       </c>
       <c r="R265">
-        <f t="shared" si="13"/>
+        <f>Q265-O265</f>
         <v>3</v>
       </c>
       <c r="S265">
@@ -39565,11 +39565,11 @@
         <v>229</v>
       </c>
       <c r="G266">
-        <f t="shared" si="12"/>
+        <f>(F266-J266)/(K266-J266)</f>
         <v>0.94594594594594594</v>
       </c>
       <c r="H266">
-        <f t="shared" si="14"/>
+        <f>F266/K266</f>
         <v>0.950207468879668</v>
       </c>
       <c r="I266">
@@ -39600,7 +39600,7 @@
         <v>2023</v>
       </c>
       <c r="R266">
-        <f t="shared" si="13"/>
+        <f>Q266-O266</f>
         <v>3</v>
       </c>
       <c r="S266">
@@ -39627,11 +39627,11 @@
         <v>200</v>
       </c>
       <c r="G267">
-        <f t="shared" si="12"/>
+        <f>(F267-J267)/(K267-J267)</f>
         <v>0.81531531531531531</v>
       </c>
       <c r="H267">
-        <f t="shared" si="14"/>
+        <f>F267/K267</f>
         <v>0.82987551867219922</v>
       </c>
       <c r="I267">
@@ -39662,7 +39662,7 @@
         <v>2023</v>
       </c>
       <c r="R267">
-        <f t="shared" si="13"/>
+        <f>Q267-O267</f>
         <v>3</v>
       </c>
       <c r="S267">
@@ -39689,11 +39689,11 @@
         <v>285</v>
       </c>
       <c r="G268">
-        <f t="shared" si="12"/>
+        <f>(F268-J268)/(K268-J268)</f>
         <v>1.1981981981981982</v>
       </c>
       <c r="H268">
-        <f t="shared" si="14"/>
+        <f>F268/K268</f>
         <v>1.1825726141078838</v>
       </c>
       <c r="I268">
@@ -39724,7 +39724,7 @@
         <v>2023</v>
       </c>
       <c r="R268">
-        <f t="shared" si="13"/>
+        <f>Q268-O268</f>
         <v>3</v>
       </c>
       <c r="S268">
@@ -39754,11 +39754,11 @@
         <v>20</v>
       </c>
       <c r="G269">
-        <f t="shared" si="12"/>
+        <f>(F269-J269)/(K269-J269)</f>
         <v>4.5045045045045045E-3</v>
       </c>
       <c r="H269">
-        <f t="shared" si="14"/>
+        <f>F269/K269</f>
         <v>8.2987551867219914E-2</v>
       </c>
       <c r="I269">
@@ -39789,7 +39789,7 @@
         <v>2023</v>
       </c>
       <c r="R269">
-        <f t="shared" si="13"/>
+        <f>Q269-O269</f>
         <v>3</v>
       </c>
       <c r="S269">
@@ -39822,11 +39822,11 @@
         <v>19</v>
       </c>
       <c r="G270">
-        <f t="shared" si="12"/>
+        <f>(F270-J270)/(K270-J270)</f>
         <v>0</v>
       </c>
       <c r="H270">
-        <f t="shared" si="14"/>
+        <f>F270/K270</f>
         <v>7.8838174273858919E-2</v>
       </c>
       <c r="I270">
@@ -39857,7 +39857,7 @@
         <v>2023</v>
       </c>
       <c r="R270">
-        <f t="shared" si="13"/>
+        <f>Q270-O270</f>
         <v>3</v>
       </c>
       <c r="S270">
@@ -39890,11 +39890,11 @@
         <v>29</v>
       </c>
       <c r="G271">
-        <f t="shared" si="12"/>
+        <f>(F271-J271)/(K271-J271)</f>
         <v>4.5045045045045043E-2</v>
       </c>
       <c r="H271">
-        <f t="shared" si="14"/>
+        <f>F271/K271</f>
         <v>0.12033195020746888</v>
       </c>
       <c r="I271">
@@ -39925,7 +39925,7 @@
         <v>2023</v>
       </c>
       <c r="R271">
-        <f t="shared" si="13"/>
+        <f>Q271-O271</f>
         <v>3</v>
       </c>
       <c r="S271">
@@ -39958,11 +39958,11 @@
         <v>27</v>
       </c>
       <c r="G272">
-        <f t="shared" si="12"/>
+        <f>(F272-J272)/(K272-J272)</f>
         <v>3.6036036036036036E-2</v>
       </c>
       <c r="H272">
-        <f t="shared" si="14"/>
+        <f>F272/K272</f>
         <v>0.11203319502074689</v>
       </c>
       <c r="I272">
@@ -39993,7 +39993,7 @@
         <v>2023</v>
       </c>
       <c r="R272">
-        <f t="shared" si="13"/>
+        <f>Q272-O272</f>
         <v>3</v>
       </c>
       <c r="S272">
@@ -40026,11 +40026,11 @@
         <v>36</v>
       </c>
       <c r="G273">
-        <f t="shared" si="12"/>
+        <f>(F273-J273)/(K273-J273)</f>
         <v>7.6576576576576572E-2</v>
       </c>
       <c r="H273">
-        <f t="shared" si="14"/>
+        <f>F273/K273</f>
         <v>0.14937759336099585</v>
       </c>
       <c r="I273">
@@ -40061,7 +40061,7 @@
         <v>2023</v>
       </c>
       <c r="R273">
-        <f t="shared" si="13"/>
+        <f>Q273-O273</f>
         <v>3</v>
       </c>
       <c r="S273">
@@ -40094,11 +40094,11 @@
         <v>34</v>
       </c>
       <c r="G274">
-        <f t="shared" si="12"/>
+        <f>(F274-J274)/(K274-J274)</f>
         <v>6.7567567567567571E-2</v>
       </c>
       <c r="H274">
-        <f t="shared" si="14"/>
+        <f>F274/K274</f>
         <v>0.14107883817427386</v>
       </c>
       <c r="I274">
@@ -40129,7 +40129,7 @@
         <v>2023</v>
       </c>
       <c r="R274">
-        <f t="shared" si="13"/>
+        <f>Q274-O274</f>
         <v>3</v>
       </c>
       <c r="S274">
@@ -40162,11 +40162,11 @@
         <v>17542</v>
       </c>
       <c r="G275">
-        <f t="shared" si="12"/>
+        <f>(F275-J275)/(K275-J275)</f>
         <v>0</v>
       </c>
       <c r="H275">
-        <f t="shared" si="14"/>
+        <f>F275/K275</f>
         <v>0.77513634986365021</v>
       </c>
       <c r="I275">
@@ -40197,7 +40197,7 @@
         <v>2019</v>
       </c>
       <c r="R275">
-        <f t="shared" si="13"/>
+        <f>Q275-O275</f>
         <v>9</v>
       </c>
       <c r="S275">
@@ -40230,11 +40230,11 @@
         <v>24350</v>
       </c>
       <c r="G276">
-        <f t="shared" si="12"/>
+        <f>(F276-J276)/(K276-J276)</f>
         <v>1.3378249396440407</v>
       </c>
       <c r="H276">
-        <f t="shared" si="14"/>
+        <f>F276/K276</f>
         <v>1.075964549035451</v>
       </c>
       <c r="I276">
@@ -40265,7 +40265,7 @@
         <v>2019</v>
       </c>
       <c r="R276">
-        <f t="shared" si="13"/>
+        <f>Q276-O276</f>
         <v>9</v>
       </c>
       <c r="S276">
@@ -40298,11 +40298,11 @@
         <v>20101</v>
       </c>
       <c r="G277">
-        <f t="shared" si="12"/>
+        <f>(F277-J277)/(K277-J277)</f>
         <v>0.50286339902307975</v>
       </c>
       <c r="H277">
-        <f t="shared" si="14"/>
+        <f>F277/K277</f>
         <v>0.88821204928795239</v>
       </c>
       <c r="I277">
@@ -40333,7 +40333,7 @@
         <v>2019</v>
       </c>
       <c r="R277">
-        <f t="shared" si="13"/>
+        <f>Q277-O277</f>
         <v>9</v>
       </c>
       <c r="S277">
@@ -40366,11 +40366,11 @@
         <v>21371</v>
       </c>
       <c r="G278">
-        <f t="shared" si="12"/>
+        <f>(F278-J278)/(K278-J278)</f>
         <v>0.75242827466173201</v>
       </c>
       <c r="H278">
-        <f t="shared" si="14"/>
+        <f>F278/K278</f>
         <v>0.94433011816988355</v>
       </c>
       <c r="I278">
@@ -40401,7 +40401,7 @@
         <v>2019</v>
       </c>
       <c r="R278">
-        <f t="shared" si="13"/>
+        <f>Q278-O278</f>
         <v>9</v>
       </c>
       <c r="S278">
@@ -40434,11 +40434,11 @@
         <v>27415</v>
       </c>
       <c r="G279">
-        <f t="shared" si="12"/>
+        <f>(F279-J279)/(K279-J279)</f>
         <v>1.940121273370405</v>
       </c>
       <c r="H279">
-        <f t="shared" si="14"/>
+        <f>F279/K279</f>
         <v>1.2113991011009011</v>
       </c>
       <c r="I279">
@@ -40469,7 +40469,7 @@
         <v>2019</v>
       </c>
       <c r="R279">
-        <f t="shared" si="13"/>
+        <f>Q279-O279</f>
         <v>9</v>
       </c>
       <c r="S279">
@@ -40502,11 +40502,11 @@
         <v>23516</v>
       </c>
       <c r="G280">
-        <f t="shared" si="12"/>
+        <f>(F280-J280)/(K280-J280)</f>
         <v>1.173937454382133</v>
       </c>
       <c r="H280">
-        <f t="shared" si="14"/>
+        <f>F280/K280</f>
         <v>1.039112210887791</v>
       </c>
       <c r="I280">
@@ -40537,7 +40537,7 @@
         <v>2019</v>
       </c>
       <c r="R280">
-        <f t="shared" si="13"/>
+        <f>Q280-O280</f>
         <v>9</v>
       </c>
       <c r="S280">
@@ -40570,11 +40570,11 @@
         <v>24121</v>
       </c>
       <c r="G281">
-        <f t="shared" si="12"/>
+        <f>(F281-J281)/(K281-J281)</f>
         <v>1.2928246589186563</v>
       </c>
       <c r="H281">
-        <f t="shared" si="14"/>
+        <f>F281/K281</f>
         <v>1.0658456216543803</v>
       </c>
       <c r="I281">
@@ -40605,7 +40605,7 @@
         <v>2019</v>
       </c>
       <c r="R281">
-        <f t="shared" si="13"/>
+        <f>Q281-O281</f>
         <v>9</v>
       </c>
       <c r="S281">
@@ -40632,11 +40632,11 @@
         <v>450</v>
       </c>
       <c r="G282">
-        <f t="shared" si="12"/>
+        <f>(F282-J282)/(K282-J282)</f>
         <v>0.65780141843971629</v>
       </c>
       <c r="H282">
-        <f t="shared" si="14"/>
+        <f>F282/K282</f>
         <v>0.69984447900466562</v>
       </c>
       <c r="I282">
@@ -40667,7 +40667,7 @@
         <v>2018</v>
       </c>
       <c r="R282">
-        <f t="shared" si="13"/>
+        <f>Q282-O282</f>
         <v>0</v>
       </c>
       <c r="S282">
@@ -40691,11 +40691,11 @@
         <v>836</v>
       </c>
       <c r="G283">
-        <f t="shared" si="12"/>
+        <f>(F283-J283)/(K283-J283)</f>
         <v>1.3421985815602837</v>
       </c>
       <c r="H283">
-        <f t="shared" si="14"/>
+        <f>F283/K283</f>
         <v>1.3001555209953344</v>
       </c>
       <c r="I283">
@@ -40726,7 +40726,7 @@
         <v>2018</v>
       </c>
       <c r="R283">
-        <f t="shared" si="13"/>
+        <f>Q283-O283</f>
         <v>0</v>
       </c>
       <c r="S283">
@@ -40756,11 +40756,11 @@
         <v>79</v>
       </c>
       <c r="G284">
-        <f t="shared" si="12"/>
+        <f>(F284-J284)/(K284-J284)</f>
         <v>0</v>
       </c>
       <c r="H284">
-        <f t="shared" si="14"/>
+        <f>F284/K284</f>
         <v>0.12286158631415241</v>
       </c>
       <c r="I284">
@@ -40791,7 +40791,7 @@
         <v>2018</v>
       </c>
       <c r="R284">
-        <f t="shared" si="13"/>
+        <f>Q284-O284</f>
         <v>0</v>
       </c>
       <c r="S284">
@@ -40815,11 +40815,11 @@
         <v>4519</v>
       </c>
       <c r="G285">
-        <f t="shared" si="12"/>
+        <f>(F285-J285)/(K285-J285)</f>
         <v>0.89563704014883272</v>
       </c>
       <c r="H285">
-        <f t="shared" si="14"/>
+        <f>F285/K285</f>
         <v>0.91223820338127681</v>
       </c>
       <c r="I285">
@@ -40850,7 +40850,7 @@
         <v>2019</v>
       </c>
       <c r="R285">
-        <f t="shared" si="13"/>
+        <f>Q285-O285</f>
         <v>0</v>
       </c>
       <c r="S285">
@@ -40874,11 +40874,11 @@
         <v>6585</v>
       </c>
       <c r="G286">
-        <f t="shared" si="12"/>
+        <f>(F286-J286)/(K286-J286)</f>
         <v>1.3915861489527697</v>
       </c>
       <c r="H286">
-        <f t="shared" si="14"/>
+        <f>F286/K286</f>
         <v>1.3292959878879638</v>
       </c>
       <c r="I286">
@@ -40909,7 +40909,7 @@
         <v>2019</v>
       </c>
       <c r="R286">
-        <f t="shared" si="13"/>
+        <f>Q286-O286</f>
         <v>0</v>
       </c>
       <c r="S286">
@@ -40933,11 +40933,11 @@
         <v>5619</v>
       </c>
       <c r="G287">
-        <f t="shared" si="12"/>
+        <f>(F287-J287)/(K287-J287)</f>
         <v>1.1596951329292444</v>
       </c>
       <c r="H287">
-        <f t="shared" si="14"/>
+        <f>F287/K287</f>
         <v>1.1342922028766087</v>
       </c>
       <c r="I287">
@@ -40968,7 +40968,7 @@
         <v>2019</v>
       </c>
       <c r="R287">
-        <f t="shared" si="13"/>
+        <f>Q287-O287</f>
         <v>0</v>
       </c>
       <c r="S287">
@@ -40992,11 +40992,11 @@
         <v>3092</v>
       </c>
       <c r="G288">
-        <f t="shared" si="12"/>
+        <f>(F288-J288)/(K288-J288)</f>
         <v>0.5530816779691532</v>
       </c>
       <c r="H288">
-        <f t="shared" si="14"/>
+        <f>F288/K288</f>
         <v>0.62417360585415094</v>
       </c>
       <c r="I288">
@@ -41027,7 +41027,7 @@
         <v>2019</v>
       </c>
       <c r="R288">
-        <f t="shared" si="13"/>
+        <f>Q288-O288</f>
         <v>0</v>
       </c>
       <c r="S288">
@@ -41051,11 +41051,11 @@
         <v>788</v>
       </c>
       <c r="G289">
-        <f t="shared" si="12"/>
+        <f>(F289-J289)/(K289-J289)</f>
         <v>0</v>
       </c>
       <c r="H289">
-        <f t="shared" si="14"/>
+        <f>F289/K289</f>
         <v>0.15907141054756499</v>
       </c>
       <c r="I289">
@@ -41086,7 +41086,7 @@
         <v>2019</v>
       </c>
       <c r="R289">
-        <f t="shared" si="13"/>
+        <f>Q289-O289</f>
         <v>0</v>
       </c>
       <c r="S289">
@@ -41110,11 +41110,11 @@
         <v>2450</v>
       </c>
       <c r="G290">
-        <f t="shared" si="12"/>
+        <f>(F290-J290)/(K290-J290)</f>
         <v>0.76423529411764701</v>
       </c>
       <c r="H290">
-        <f t="shared" si="14"/>
+        <f>F290/K290</f>
         <v>0.9072394001110905</v>
       </c>
       <c r="I290">
@@ -41145,7 +41145,7 @@
         <v>2024</v>
       </c>
       <c r="R290">
-        <f t="shared" si="13"/>
+        <f>Q290-O290</f>
         <v>7</v>
       </c>
       <c r="S290">
@@ -41172,11 +41172,11 @@
         <v>3285</v>
       </c>
       <c r="G291">
-        <f t="shared" si="12"/>
+        <f>(F291-J291)/(K291-J291)</f>
         <v>1.5501176470588236</v>
       </c>
       <c r="H291">
-        <f t="shared" si="14"/>
+        <f>F291/K291</f>
         <v>1.2164413997407888</v>
       </c>
       <c r="I291">
@@ -41207,7 +41207,7 @@
         <v>2024</v>
       </c>
       <c r="R291">
-        <f t="shared" si="13"/>
+        <f>Q291-O291</f>
         <v>7</v>
       </c>
       <c r="S291">
@@ -41234,11 +41234,11 @@
         <v>2646</v>
       </c>
       <c r="G292">
-        <f t="shared" si="12"/>
+        <f>(F292-J292)/(K292-J292)</f>
         <v>0.94870588235294118</v>
       </c>
       <c r="H292">
-        <f t="shared" si="14"/>
+        <f>F292/K292</f>
         <v>0.97981855211997781</v>
       </c>
       <c r="I292">
@@ -41269,7 +41269,7 @@
         <v>2024</v>
       </c>
       <c r="R292">
-        <f t="shared" si="13"/>
+        <f>Q292-O292</f>
         <v>7</v>
       </c>
       <c r="S292">
@@ -41296,11 +41296,11 @@
         <v>1884</v>
       </c>
       <c r="G293">
-        <f t="shared" si="12"/>
+        <f>(F293-J293)/(K293-J293)</f>
         <v>0.23152941176470587</v>
       </c>
       <c r="H293">
-        <f t="shared" si="14"/>
+        <f>F293/K293</f>
         <v>0.69764858359563042</v>
       </c>
       <c r="I293">
@@ -41331,7 +41331,7 @@
         <v>2024</v>
       </c>
       <c r="R293">
-        <f t="shared" si="13"/>
+        <f>Q293-O293</f>
         <v>7</v>
       </c>
       <c r="S293">
@@ -41358,11 +41358,11 @@
         <v>2892</v>
       </c>
       <c r="G294">
-        <f t="shared" si="12"/>
+        <f>(F294-J294)/(K294-J294)</f>
         <v>1.180235294117647</v>
       </c>
       <c r="H294">
-        <f t="shared" si="14"/>
+        <f>F294/K294</f>
         <v>1.0709127939270506</v>
       </c>
       <c r="I294">
@@ -41393,7 +41393,7 @@
         <v>2024</v>
       </c>
       <c r="R294">
-        <f t="shared" si="13"/>
+        <f>Q294-O294</f>
         <v>7</v>
       </c>
       <c r="S294">
@@ -41420,11 +41420,11 @@
         <v>3046</v>
       </c>
       <c r="G295">
-        <f t="shared" si="12"/>
+        <f>(F295-J295)/(K295-J295)</f>
         <v>1.3251764705882354</v>
       </c>
       <c r="H295">
-        <f t="shared" si="14"/>
+        <f>F295/K295</f>
         <v>1.1279392705054621</v>
       </c>
       <c r="I295">
@@ -41455,7 +41455,7 @@
         <v>2024</v>
       </c>
       <c r="R295">
-        <f t="shared" si="13"/>
+        <f>Q295-O295</f>
         <v>7</v>
       </c>
       <c r="S295">
@@ -41488,11 +41488,11 @@
         <v>1638</v>
       </c>
       <c r="G296">
-        <f t="shared" si="12"/>
+        <f>(F296-J296)/(K296-J296)</f>
         <v>0</v>
       </c>
       <c r="H296">
-        <f t="shared" si="14"/>
+        <f>F296/K296</f>
         <v>0.60655434178855772</v>
       </c>
       <c r="I296">
@@ -41523,7 +41523,7 @@
         <v>2024</v>
       </c>
       <c r="R296">
-        <f t="shared" si="13"/>
+        <f>Q296-O296</f>
         <v>7</v>
       </c>
       <c r="S296">
@@ -41556,11 +41556,11 @@
         <v>1746</v>
       </c>
       <c r="G297">
-        <f t="shared" si="12"/>
+        <f>(F297-J297)/(K297-J297)</f>
         <v>0.10164705882352941</v>
       </c>
       <c r="H297">
-        <f t="shared" si="14"/>
+        <f>F297/K297</f>
         <v>0.64654693575263844</v>
       </c>
       <c r="I297">
@@ -41591,7 +41591,7 @@
         <v>2024</v>
       </c>
       <c r="R297">
-        <f t="shared" si="13"/>
+        <f>Q297-O297</f>
         <v>7</v>
       </c>
       <c r="S297">
@@ -41624,11 +41624,11 @@
         <v>1982</v>
       </c>
       <c r="G298">
-        <f t="shared" si="12"/>
+        <f>(F298-J298)/(K298-J298)</f>
         <v>0.32376470588235295</v>
       </c>
       <c r="H298">
-        <f t="shared" si="14"/>
+        <f>F298/K298</f>
         <v>0.73393815960007402</v>
       </c>
       <c r="I298">
@@ -41659,7 +41659,7 @@
         <v>2024</v>
       </c>
       <c r="R298">
-        <f t="shared" si="13"/>
+        <f>Q298-O298</f>
         <v>7</v>
       </c>
       <c r="S298">
@@ -41686,11 +41686,11 @@
         <v>265</v>
       </c>
       <c r="G299">
-        <f t="shared" si="12"/>
+        <f>(F299-J299)/(K299-J299)</f>
         <v>1.2550813008130079</v>
       </c>
       <c r="H299">
-        <f t="shared" si="14"/>
+        <f>F299/K299</f>
         <v>1.2337057728119181</v>
       </c>
       <c r="I299">
@@ -41721,7 +41721,7 @@
         <v>2024</v>
       </c>
       <c r="R299">
-        <f t="shared" si="13"/>
+        <f>Q299-O299</f>
         <v>7</v>
       </c>
       <c r="S299">
@@ -41748,11 +41748,11 @@
         <v>203</v>
       </c>
       <c r="G300">
-        <f t="shared" si="12"/>
+        <f>(F300-J300)/(K300-J300)</f>
         <v>0.94004065040650397</v>
       </c>
       <c r="H300">
-        <f t="shared" si="14"/>
+        <f>F300/K300</f>
         <v>0.94506517690875225</v>
       </c>
       <c r="I300">
@@ -41783,7 +41783,7 @@
         <v>2024</v>
       </c>
       <c r="R300">
-        <f t="shared" si="13"/>
+        <f>Q300-O300</f>
         <v>7</v>
       </c>
       <c r="S300">
@@ -41810,11 +41810,11 @@
         <v>182</v>
       </c>
       <c r="G301">
-        <f t="shared" si="12"/>
+        <f>(F301-J301)/(K301-J301)</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="H301">
-        <f t="shared" si="14"/>
+        <f>F301/K301</f>
         <v>0.84729981378026065</v>
       </c>
       <c r="I301">
@@ -41845,7 +41845,7 @@
         <v>2024</v>
       </c>
       <c r="R301">
-        <f t="shared" si="13"/>
+        <f>Q301-O301</f>
         <v>7</v>
       </c>
       <c r="S301">
@@ -41872,11 +41872,11 @@
         <v>219</v>
       </c>
       <c r="G302">
-        <f t="shared" si="12"/>
+        <f>(F302-J302)/(K302-J302)</f>
         <v>1.0213414634146341</v>
       </c>
       <c r="H302">
-        <f t="shared" si="14"/>
+        <f>F302/K302</f>
         <v>1.0195530726256983</v>
       </c>
       <c r="I302">
@@ -41907,7 +41907,7 @@
         <v>2024</v>
       </c>
       <c r="R302">
-        <f t="shared" si="13"/>
+        <f>Q302-O302</f>
         <v>7</v>
       </c>
       <c r="S302">
@@ -41934,11 +41934,11 @@
         <v>205</v>
       </c>
       <c r="G303">
-        <f t="shared" si="12"/>
+        <f>(F303-J303)/(K303-J303)</f>
         <v>0.95020325203252032</v>
       </c>
       <c r="H303">
-        <f t="shared" si="14"/>
+        <f>F303/K303</f>
         <v>0.95437616387337054</v>
       </c>
       <c r="I303">
@@ -41969,7 +41969,7 @@
         <v>2024</v>
       </c>
       <c r="R303">
-        <f t="shared" si="13"/>
+        <f>Q303-O303</f>
         <v>7</v>
       </c>
       <c r="S303">
@@ -42002,11 +42002,11 @@
         <v>50</v>
       </c>
       <c r="G304">
-        <f t="shared" si="12"/>
+        <f>(F304-J304)/(K304-J304)</f>
         <v>0.16260162601626016</v>
       </c>
       <c r="H304">
-        <f t="shared" si="14"/>
+        <f>F304/K304</f>
         <v>0.23277467411545621</v>
       </c>
       <c r="I304">
@@ -42037,7 +42037,7 @@
         <v>2024</v>
       </c>
       <c r="R304">
-        <f t="shared" si="13"/>
+        <f>Q304-O304</f>
         <v>7</v>
       </c>
       <c r="S304">
@@ -42070,11 +42070,11 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <f t="shared" si="12"/>
+        <f>(F305-J305)/(K305-J305)</f>
         <v>2.032520325203252E-2</v>
       </c>
       <c r="H305">
-        <f t="shared" si="14"/>
+        <f>F305/K305</f>
         <v>0.10242085661080073</v>
       </c>
       <c r="I305">
@@ -42105,7 +42105,7 @@
         <v>2024</v>
       </c>
       <c r="R305">
-        <f t="shared" si="13"/>
+        <f>Q305-O305</f>
         <v>7</v>
       </c>
       <c r="S305">
@@ -42138,11 +42138,11 @@
         <v>29</v>
       </c>
       <c r="G306">
-        <f t="shared" si="12"/>
+        <f>(F306-J306)/(K306-J306)</f>
         <v>5.589430894308943E-2</v>
       </c>
       <c r="H306">
-        <f t="shared" si="14"/>
+        <f>F306/K306</f>
         <v>0.13500931098696461</v>
       </c>
       <c r="I306">
@@ -42173,7 +42173,7 @@
         <v>2024</v>
       </c>
       <c r="R306">
-        <f t="shared" si="13"/>
+        <f>Q306-O306</f>
         <v>7</v>
       </c>
       <c r="S306">
@@ -42206,11 +42206,11 @@
         <v>29</v>
       </c>
       <c r="G307">
-        <f t="shared" si="12"/>
+        <f>(F307-J307)/(K307-J307)</f>
         <v>5.589430894308943E-2</v>
       </c>
       <c r="H307">
-        <f t="shared" si="14"/>
+        <f>F307/K307</f>
         <v>0.13500931098696461</v>
       </c>
       <c r="I307">
@@ -42241,7 +42241,7 @@
         <v>2024</v>
       </c>
       <c r="R307">
-        <f t="shared" si="13"/>
+        <f>Q307-O307</f>
         <v>7</v>
       </c>
       <c r="S307">
@@ -42274,11 +42274,11 @@
         <v>18</v>
       </c>
       <c r="G308">
-        <f t="shared" si="12"/>
+        <f>(F308-J308)/(K308-J308)</f>
         <v>0</v>
       </c>
       <c r="H308">
-        <f t="shared" si="14"/>
+        <f>F308/K308</f>
         <v>8.3798882681564241E-2</v>
       </c>
       <c r="I308">
@@ -42309,7 +42309,7 @@
         <v>2024</v>
       </c>
       <c r="R308">
-        <f t="shared" si="13"/>
+        <f>Q308-O308</f>
         <v>7</v>
       </c>
       <c r="S308">
@@ -42323,8 +42323,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T308">
-    <sortCondition ref="A1:A308"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U308">
+    <sortCondition ref="A2:A308"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42336,7 +42336,7 @@
   <dimension ref="A1:AL599"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD14"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
